--- a/data/Closed Models Papers and Annotations.xlsx
+++ b/data/Closed Models Papers and Annotations.xlsx
@@ -5,12 +5,12 @@
   <sheets>
     <sheet state="visible" name="GPT-4 Pubs" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Claude-3 Pubs" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Fine-tuning Pubs (GPT-3 and GPT" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Fine-tuning Pubs (GPT-3)" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'GPT-4 Pubs'!$A$1:$K$1000</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Claude-3 Pubs'!$A$1:$K$1000</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Fine-tuning Pubs (GPT-3 and GPT'!$A$1:$N$1000</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Fine-tuning Pubs (GPT-3)'!$A$1:$M$999</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="819">
   <si>
     <t>merged_id</t>
   </si>
@@ -2615,9 +2615,6 @@
     <t>New data?</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>carticle_0283543756</t>
   </si>
   <si>
@@ -2792,33 +2789,6 @@
   </si>
   <si>
     <t>"We fine-tune a pretrained large language model (e.g., GPT-326 or Llama-231) to accept a text passage (for example, a research paper abstract) and write a precisely formatted “summary" of knowledge contained in the prompt. This completion can be formatted as either English sentences or a more structured schema such as a list of JSON documents. To use this method, one only has to define the desired output structure—for example, a list of JSON objects with a predefined set of keys—and annotate ~100–500 text passages using this format. The LLM is then fine-tuned on these examples, and the resulting model is able to accurately output extracted information in the same structured representation, such as the format shown in Fig. 1"</t>
-  </si>
-  <si>
-    <t>carticle_0301024270</t>
-  </si>
-  <si>
-    <t>RAG vs Fine-tuning: Pipelines, Tradeoffs, and a Case Study on Agriculture</t>
-  </si>
-  <si>
-    <t>There are two common ways in which developers are incorporating proprietary and domain-specific data when building applications of Large Language Models (LLMs): Retrieval-Augmented Generation (RAG) and Fine-Tuning. RAG augments the prompt with the external data, while fine-Tuning incorporates the additional knowledge into the model itself. However, the pros and cons of both approaches are not well understood. In this paper, we propose a pipeline for fine-tuning and RAG, and present the tradeoffs of both for multiple popular LLMs, including Llama2-13B, GPT-3.5, and GPT-4. Our pipeline consists of multiple stages, including extracting information from PDFs, generating questions and answers, using them for fine-tuning, and leveraging GPT-4 for evaluating the results. We propose metrics to assess the performance of different stages of the RAG and fine-Tuning pipeline. We conduct an in-depth study on an agricultural dataset. Agriculture as an industry has not seen much penetration of AI, and we study a potentially disruptive application - what if we could provide location-specific insights to a farmer? Our results show the effectiveness of our dataset generation pipeline in capturing geographic-specific knowledge, and the quantitative and qualitative benefits of RAG and fine-tuning. We see an accuracy increase of over 6 p.p. when fine-tuning the model and this is cumulative with RAG, which increases accuracy by 5 p.p. further. In one particular experiment, we also demonstrate that the fine-tuned model leverages information from across geographies to answer specific questions, increasing answer similarity from 47% to 72%. Overall, the results point to how systems built using LLMs can be adapted to respond and incorporate knowledge across a dimension that is critical for a specific industry, paving the way for further applications of LLMs in other industrial domains.</t>
-  </si>
-  <si>
-    <t>GPT-4</t>
-  </si>
-  <si>
-    <t>"we propose a pipeline for fine-tuning and RAG, and present the tradeoffs of both for multiple popular LLMs, including Llama2-13B, GPT-3.5, and GPT-4. Our pipeline consists of multiple stages, including extracting information from PDFs, generating questions and answers, using them for fine-tuning, and leveraging GPT-4 for evaluating the results"
-"Lastly, we also fine-tuned GPT-4 in this setting. Being larger and more expensive, our goal was to assess if the model would benefit from additional knowledge in comparison to its base training. Due to its complexity and the amount of available data, we used Low Rank Adaptation (LoRA) (Hu et al., 2021) for the fine-tuning process"
-"We also fine-tune GPT-4, in order to evaluate if fine-tuning can still be helpful on very large models."</t>
-  </si>
-  <si>
-    <t>- Fine-tuning (new data)
-- Fine-tuning (LoRA)</t>
-  </si>
-  <si>
-    <t>"The fine-tuned models are trained on a dataset of questions extracted from the Washington state dataset, a comprehensive collection of 573 documents entailing approximately 2 million tokens"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authors are Microsoft, and they appear to have special access to GPT-4 weights to conduct LoRA. We omit this use-case from the closed model data due to this special access. </t>
   </si>
   <si>
     <t>carticle_0306598104</t>
@@ -2928,7 +2898,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2997,12 +2967,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -14527,25 +14491,22 @@
       <c r="M1" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>764</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>766</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>767</v>
       </c>
       <c r="D2" s="17">
         <v>2023.0</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>15</v>
@@ -14557,21 +14518,20 @@
         <v>353.0</v>
       </c>
       <c r="I2" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="N2" s="23"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
@@ -14581,7 +14541,7 @@
         <v>365</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D3" s="11">
         <v>2023.0</v>
@@ -14599,79 +14559,77 @@
         <v>171.0</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="N3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>780</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>781</v>
       </c>
       <c r="D4" s="17">
         <v>2022.0</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>783</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>784</v>
       </c>
       <c r="H4" s="17">
         <v>166.0</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>770</v>
-      </c>
       <c r="K4" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="N4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>787</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="16" t="s">
         <v>788</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>789</v>
       </c>
       <c r="D5" s="17">
         <v>2023.0</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>65</v>
@@ -14683,37 +14641,36 @@
         <v>135.0</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>770</v>
-      </c>
       <c r="K5" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="N5" s="23"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>795</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>796</v>
       </c>
       <c r="D6" s="11">
         <v>2024.0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
@@ -14725,37 +14682,36 @@
         <v>60.0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="N6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>804</v>
       </c>
       <c r="D7" s="6">
         <v>2024.0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
@@ -14767,149 +14723,117 @@
         <v>25.0</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="M7" s="7" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
         <v>808</v>
       </c>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="24">
+        <v>2024.0</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="D8" s="6">
-        <v>2024.0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6">
-        <v>24.0</v>
+      <c r="F8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="24">
+        <v>14.0</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>812</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="K8" s="24" t="s">
         <v>813</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>814</v>
+      </c>
       <c r="L8" s="7" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="N8" s="7" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2024.0</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="K9" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="L9" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="D9" s="26">
-        <v>2024.0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="26">
-        <v>14.0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>823</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="N9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>648</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2024.0</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="N10" s="23"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11">
       <c r="A11" s="13"/>
@@ -14925,7 +14849,6 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
     </row>
     <row r="12">
       <c r="A12" s="13"/>
@@ -14941,7 +14864,6 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="13"/>
@@ -14957,7 +14879,6 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
     </row>
     <row r="14">
       <c r="A14" s="13"/>
@@ -14973,7 +14894,6 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
     </row>
     <row r="15">
       <c r="A15" s="13"/>
@@ -14989,7 +14909,6 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
     </row>
     <row r="16">
       <c r="A16" s="13"/>
@@ -15005,7 +14924,6 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
@@ -15021,7 +14939,6 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="13"/>
@@ -15037,7 +14954,6 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
@@ -15053,7 +14969,6 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
@@ -15069,7 +14984,6 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
@@ -15085,7 +14999,6 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
@@ -15101,7 +15014,6 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
@@ -15117,7 +15029,6 @@
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
@@ -15133,7 +15044,6 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="13"/>
@@ -15149,7 +15059,6 @@
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="13"/>
@@ -15165,7 +15074,6 @@
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="13"/>
@@ -15181,7 +15089,6 @@
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="13"/>
@@ -15197,7 +15104,6 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="13"/>
@@ -15213,7 +15119,6 @@
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="13"/>
@@ -15229,7 +15134,6 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="13"/>
@@ -15245,7 +15149,6 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="13"/>
@@ -15261,7 +15164,6 @@
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="13"/>
@@ -15277,7 +15179,6 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="13"/>
@@ -15293,7 +15194,6 @@
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
     </row>
     <row r="35">
       <c r="A35" s="13"/>
@@ -15309,7 +15209,6 @@
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
     </row>
     <row r="36">
       <c r="A36" s="13"/>
@@ -15325,7 +15224,6 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
     </row>
     <row r="37">
       <c r="A37" s="13"/>
@@ -15341,7 +15239,6 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
     </row>
     <row r="38">
       <c r="A38" s="13"/>
@@ -15357,7 +15254,6 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
     </row>
     <row r="39">
       <c r="A39" s="13"/>
@@ -15373,7 +15269,6 @@
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
     </row>
     <row r="40">
       <c r="A40" s="13"/>
@@ -15389,7 +15284,6 @@
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="13"/>
@@ -15405,7 +15299,6 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
     </row>
     <row r="42">
       <c r="A42" s="13"/>
@@ -15421,7 +15314,6 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
     </row>
     <row r="43">
       <c r="A43" s="13"/>
@@ -15437,7 +15329,6 @@
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="13"/>
@@ -15453,7 +15344,6 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
     </row>
     <row r="45">
       <c r="A45" s="13"/>
@@ -15469,7 +15359,6 @@
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="13"/>
@@ -15485,7 +15374,6 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
     </row>
     <row r="47">
       <c r="A47" s="13"/>
@@ -15501,7 +15389,6 @@
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
     </row>
     <row r="48">
       <c r="A48" s="13"/>
@@ -15517,7 +15404,6 @@
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
     </row>
     <row r="49">
       <c r="A49" s="13"/>
@@ -15533,7 +15419,6 @@
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
     </row>
     <row r="50">
       <c r="A50" s="13"/>
@@ -15549,7 +15434,6 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="13"/>
@@ -15565,7 +15449,6 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="13"/>
@@ -15581,7 +15464,6 @@
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
       <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="13"/>
@@ -15597,7 +15479,6 @@
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
       <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
     </row>
     <row r="54">
       <c r="A54" s="13"/>
@@ -15613,7 +15494,6 @@
       <c r="K54" s="13"/>
       <c r="L54" s="13"/>
       <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="13"/>
@@ -15629,7 +15509,6 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
     </row>
     <row r="56">
       <c r="A56" s="13"/>
@@ -15645,7 +15524,6 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
     </row>
     <row r="57">
       <c r="A57" s="13"/>
@@ -15661,7 +15539,6 @@
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
       <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
     </row>
     <row r="58">
       <c r="A58" s="13"/>
@@ -15677,7 +15554,6 @@
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
       <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
     </row>
     <row r="59">
       <c r="A59" s="13"/>
@@ -15693,7 +15569,6 @@
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
       <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
     </row>
     <row r="60">
       <c r="A60" s="13"/>
@@ -15709,7 +15584,6 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
     </row>
     <row r="61">
       <c r="A61" s="13"/>
@@ -15725,7 +15599,6 @@
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
     </row>
     <row r="62">
       <c r="A62" s="13"/>
@@ -15741,7 +15614,6 @@
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
       <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
     </row>
     <row r="63">
       <c r="A63" s="13"/>
@@ -15757,7 +15629,6 @@
       <c r="K63" s="13"/>
       <c r="L63" s="13"/>
       <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
     </row>
     <row r="64">
       <c r="A64" s="13"/>
@@ -15773,7 +15644,6 @@
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
     </row>
     <row r="65">
       <c r="A65" s="13"/>
@@ -15789,7 +15659,6 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
     </row>
     <row r="66">
       <c r="A66" s="13"/>
@@ -15805,7 +15674,6 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
     </row>
     <row r="67">
       <c r="A67" s="13"/>
@@ -15821,7 +15689,6 @@
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
     </row>
     <row r="68">
       <c r="A68" s="13"/>
@@ -15837,7 +15704,6 @@
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
     </row>
     <row r="69">
       <c r="A69" s="13"/>
@@ -15853,7 +15719,6 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
     </row>
     <row r="70">
       <c r="A70" s="13"/>
@@ -15869,7 +15734,6 @@
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
       <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
     </row>
     <row r="71">
       <c r="A71" s="13"/>
@@ -15885,7 +15749,6 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
     </row>
     <row r="72">
       <c r="A72" s="13"/>
@@ -15901,7 +15764,6 @@
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
     </row>
     <row r="73">
       <c r="A73" s="13"/>
@@ -15917,7 +15779,6 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
     </row>
     <row r="74">
       <c r="A74" s="13"/>
@@ -15933,7 +15794,6 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
     </row>
     <row r="75">
       <c r="A75" s="13"/>
@@ -15949,7 +15809,6 @@
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
     </row>
     <row r="76">
       <c r="A76" s="13"/>
@@ -15965,7 +15824,6 @@
       <c r="K76" s="13"/>
       <c r="L76" s="13"/>
       <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
     </row>
     <row r="77">
       <c r="A77" s="13"/>
@@ -15981,7 +15839,6 @@
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
       <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
     </row>
     <row r="78">
       <c r="A78" s="13"/>
@@ -15997,7 +15854,6 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
     </row>
     <row r="79">
       <c r="A79" s="13"/>
@@ -16013,7 +15869,6 @@
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
     </row>
     <row r="80">
       <c r="A80" s="13"/>
@@ -16029,7 +15884,6 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
     </row>
     <row r="81">
       <c r="A81" s="13"/>
@@ -16045,7 +15899,6 @@
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
     </row>
     <row r="82">
       <c r="A82" s="13"/>
@@ -16061,7 +15914,6 @@
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
       <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
     </row>
     <row r="83">
       <c r="A83" s="13"/>
@@ -16077,7 +15929,6 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
     </row>
     <row r="84">
       <c r="A84" s="13"/>
@@ -16093,7 +15944,6 @@
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
     </row>
     <row r="85">
       <c r="A85" s="13"/>
@@ -16109,7 +15959,6 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
     </row>
     <row r="86">
       <c r="A86" s="13"/>
@@ -16125,7 +15974,6 @@
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
     </row>
     <row r="87">
       <c r="A87" s="13"/>
@@ -16141,7 +15989,6 @@
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
     </row>
     <row r="88">
       <c r="A88" s="13"/>
@@ -16157,7 +16004,6 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
     </row>
     <row r="89">
       <c r="A89" s="13"/>
@@ -16173,7 +16019,6 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
     </row>
     <row r="90">
       <c r="A90" s="13"/>
@@ -16189,7 +16034,6 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
     </row>
     <row r="91">
       <c r="A91" s="13"/>
@@ -16205,7 +16049,6 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
     </row>
     <row r="92">
       <c r="A92" s="13"/>
@@ -16221,7 +16064,6 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
     </row>
     <row r="93">
       <c r="A93" s="13"/>
@@ -16237,7 +16079,6 @@
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
     </row>
     <row r="94">
       <c r="A94" s="13"/>
@@ -16253,7 +16094,6 @@
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
       <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
     </row>
     <row r="95">
       <c r="A95" s="13"/>
@@ -16269,7 +16109,6 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
     </row>
     <row r="96">
       <c r="A96" s="13"/>
@@ -16285,7 +16124,6 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
     </row>
     <row r="97">
       <c r="A97" s="13"/>
@@ -16301,7 +16139,6 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
     </row>
     <row r="98">
       <c r="A98" s="13"/>
@@ -16317,7 +16154,6 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
     </row>
     <row r="99">
       <c r="A99" s="13"/>
@@ -16333,7 +16169,6 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
     </row>
     <row r="100">
       <c r="A100" s="13"/>
@@ -16349,7 +16184,6 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
     </row>
     <row r="101">
       <c r="A101" s="13"/>
@@ -16365,7 +16199,6 @@
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
       <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
     </row>
     <row r="102">
       <c r="A102" s="13"/>
@@ -16381,7 +16214,6 @@
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
       <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
     </row>
     <row r="103">
       <c r="A103" s="13"/>
@@ -16397,7 +16229,6 @@
       <c r="K103" s="13"/>
       <c r="L103" s="13"/>
       <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
     </row>
     <row r="104">
       <c r="A104" s="13"/>
@@ -16413,7 +16244,6 @@
       <c r="K104" s="13"/>
       <c r="L104" s="13"/>
       <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="13"/>
@@ -16429,7 +16259,6 @@
       <c r="K105" s="13"/>
       <c r="L105" s="13"/>
       <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
     </row>
     <row r="106">
       <c r="A106" s="13"/>
@@ -16445,7 +16274,6 @@
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
       <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
     </row>
     <row r="107">
       <c r="A107" s="13"/>
@@ -16461,7 +16289,6 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
     </row>
     <row r="108">
       <c r="A108" s="13"/>
@@ -16477,7 +16304,6 @@
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
     </row>
     <row r="109">
       <c r="A109" s="13"/>
@@ -16493,7 +16319,6 @@
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
     </row>
     <row r="110">
       <c r="A110" s="13"/>
@@ -16509,7 +16334,6 @@
       <c r="K110" s="13"/>
       <c r="L110" s="13"/>
       <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
     </row>
     <row r="111">
       <c r="A111" s="13"/>
@@ -16525,7 +16349,6 @@
       <c r="K111" s="13"/>
       <c r="L111" s="13"/>
       <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
     </row>
     <row r="112">
       <c r="A112" s="13"/>
@@ -16541,7 +16364,6 @@
       <c r="K112" s="13"/>
       <c r="L112" s="13"/>
       <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
     </row>
     <row r="113">
       <c r="A113" s="13"/>
@@ -16557,7 +16379,6 @@
       <c r="K113" s="13"/>
       <c r="L113" s="13"/>
       <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
     </row>
     <row r="114">
       <c r="A114" s="13"/>
@@ -16573,7 +16394,6 @@
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
       <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
     </row>
     <row r="115">
       <c r="A115" s="13"/>
@@ -16589,7 +16409,6 @@
       <c r="K115" s="13"/>
       <c r="L115" s="13"/>
       <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
     </row>
     <row r="116">
       <c r="A116" s="13"/>
@@ -16605,7 +16424,6 @@
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
       <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
     </row>
     <row r="117">
       <c r="A117" s="13"/>
@@ -16621,7 +16439,6 @@
       <c r="K117" s="13"/>
       <c r="L117" s="13"/>
       <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
     </row>
     <row r="118">
       <c r="A118" s="13"/>
@@ -16637,7 +16454,6 @@
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
       <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
     </row>
     <row r="119">
       <c r="A119" s="13"/>
@@ -16653,7 +16469,6 @@
       <c r="K119" s="13"/>
       <c r="L119" s="13"/>
       <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
     </row>
     <row r="120">
       <c r="A120" s="13"/>
@@ -16669,7 +16484,6 @@
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
       <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
     </row>
     <row r="121">
       <c r="A121" s="13"/>
@@ -16685,7 +16499,6 @@
       <c r="K121" s="13"/>
       <c r="L121" s="13"/>
       <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
     </row>
     <row r="122">
       <c r="A122" s="13"/>
@@ -16701,7 +16514,6 @@
       <c r="K122" s="13"/>
       <c r="L122" s="13"/>
       <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
     </row>
     <row r="123">
       <c r="A123" s="13"/>
@@ -16717,7 +16529,6 @@
       <c r="K123" s="13"/>
       <c r="L123" s="13"/>
       <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
     </row>
     <row r="124">
       <c r="A124" s="13"/>
@@ -16733,7 +16544,6 @@
       <c r="K124" s="13"/>
       <c r="L124" s="13"/>
       <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
     </row>
     <row r="125">
       <c r="A125" s="13"/>
@@ -16749,7 +16559,6 @@
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
       <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
     </row>
     <row r="126">
       <c r="A126" s="13"/>
@@ -16765,7 +16574,6 @@
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
       <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
     </row>
     <row r="127">
       <c r="A127" s="13"/>
@@ -16781,7 +16589,6 @@
       <c r="K127" s="13"/>
       <c r="L127" s="13"/>
       <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
     </row>
     <row r="128">
       <c r="A128" s="13"/>
@@ -16797,7 +16604,6 @@
       <c r="K128" s="13"/>
       <c r="L128" s="13"/>
       <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
     </row>
     <row r="129">
       <c r="A129" s="13"/>
@@ -16813,7 +16619,6 @@
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
       <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
     </row>
     <row r="130">
       <c r="A130" s="13"/>
@@ -16829,7 +16634,6 @@
       <c r="K130" s="13"/>
       <c r="L130" s="13"/>
       <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
     </row>
     <row r="131">
       <c r="A131" s="13"/>
@@ -16845,7 +16649,6 @@
       <c r="K131" s="13"/>
       <c r="L131" s="13"/>
       <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
     </row>
     <row r="132">
       <c r="A132" s="13"/>
@@ -16861,7 +16664,6 @@
       <c r="K132" s="13"/>
       <c r="L132" s="13"/>
       <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
     </row>
     <row r="133">
       <c r="A133" s="13"/>
@@ -16877,7 +16679,6 @@
       <c r="K133" s="13"/>
       <c r="L133" s="13"/>
       <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
     </row>
     <row r="134">
       <c r="A134" s="13"/>
@@ -16893,7 +16694,6 @@
       <c r="K134" s="13"/>
       <c r="L134" s="13"/>
       <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
     </row>
     <row r="135">
       <c r="A135" s="13"/>
@@ -16909,7 +16709,6 @@
       <c r="K135" s="13"/>
       <c r="L135" s="13"/>
       <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
     </row>
     <row r="136">
       <c r="A136" s="13"/>
@@ -16925,7 +16724,6 @@
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
       <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
     </row>
     <row r="137">
       <c r="A137" s="13"/>
@@ -16941,7 +16739,6 @@
       <c r="K137" s="13"/>
       <c r="L137" s="13"/>
       <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
     </row>
     <row r="138">
       <c r="A138" s="13"/>
@@ -16957,7 +16754,6 @@
       <c r="K138" s="13"/>
       <c r="L138" s="13"/>
       <c r="M138" s="13"/>
-      <c r="N138" s="13"/>
     </row>
     <row r="139">
       <c r="A139" s="13"/>
@@ -16973,7 +16769,6 @@
       <c r="K139" s="13"/>
       <c r="L139" s="13"/>
       <c r="M139" s="13"/>
-      <c r="N139" s="13"/>
     </row>
     <row r="140">
       <c r="A140" s="13"/>
@@ -16989,7 +16784,6 @@
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
       <c r="M140" s="13"/>
-      <c r="N140" s="13"/>
     </row>
     <row r="141">
       <c r="A141" s="13"/>
@@ -17005,7 +16799,6 @@
       <c r="K141" s="13"/>
       <c r="L141" s="13"/>
       <c r="M141" s="13"/>
-      <c r="N141" s="13"/>
     </row>
     <row r="142">
       <c r="A142" s="13"/>
@@ -17021,7 +16814,6 @@
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
       <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
     </row>
     <row r="143">
       <c r="A143" s="13"/>
@@ -17037,7 +16829,6 @@
       <c r="K143" s="13"/>
       <c r="L143" s="13"/>
       <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
     </row>
     <row r="144">
       <c r="A144" s="13"/>
@@ -17053,7 +16844,6 @@
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
       <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
     </row>
     <row r="145">
       <c r="A145" s="13"/>
@@ -17069,7 +16859,6 @@
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
-      <c r="N145" s="13"/>
     </row>
     <row r="146">
       <c r="A146" s="13"/>
@@ -17085,7 +16874,6 @@
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
     </row>
     <row r="147">
       <c r="A147" s="13"/>
@@ -17101,7 +16889,6 @@
       <c r="K147" s="13"/>
       <c r="L147" s="13"/>
       <c r="M147" s="13"/>
-      <c r="N147" s="13"/>
     </row>
     <row r="148">
       <c r="A148" s="13"/>
@@ -17117,7 +16904,6 @@
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
-      <c r="N148" s="13"/>
     </row>
     <row r="149">
       <c r="A149" s="13"/>
@@ -17133,7 +16919,6 @@
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
-      <c r="N149" s="13"/>
     </row>
     <row r="150">
       <c r="A150" s="13"/>
@@ -17149,7 +16934,6 @@
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
     </row>
     <row r="151">
       <c r="A151" s="13"/>
@@ -17165,7 +16949,6 @@
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
     </row>
     <row r="152">
       <c r="A152" s="13"/>
@@ -17181,7 +16964,6 @@
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
       <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
     </row>
     <row r="153">
       <c r="A153" s="13"/>
@@ -17197,7 +16979,6 @@
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
       <c r="M153" s="13"/>
-      <c r="N153" s="13"/>
     </row>
     <row r="154">
       <c r="A154" s="13"/>
@@ -17213,7 +16994,6 @@
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
       <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
     </row>
     <row r="155">
       <c r="A155" s="13"/>
@@ -17229,7 +17009,6 @@
       <c r="K155" s="13"/>
       <c r="L155" s="13"/>
       <c r="M155" s="13"/>
-      <c r="N155" s="13"/>
     </row>
     <row r="156">
       <c r="A156" s="13"/>
@@ -17245,7 +17024,6 @@
       <c r="K156" s="13"/>
       <c r="L156" s="13"/>
       <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
     </row>
     <row r="157">
       <c r="A157" s="13"/>
@@ -17261,7 +17039,6 @@
       <c r="K157" s="13"/>
       <c r="L157" s="13"/>
       <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
     </row>
     <row r="158">
       <c r="A158" s="13"/>
@@ -17277,7 +17054,6 @@
       <c r="K158" s="13"/>
       <c r="L158" s="13"/>
       <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
     </row>
     <row r="159">
       <c r="A159" s="13"/>
@@ -17293,7 +17069,6 @@
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
-      <c r="N159" s="13"/>
     </row>
     <row r="160">
       <c r="A160" s="13"/>
@@ -17309,7 +17084,6 @@
       <c r="K160" s="13"/>
       <c r="L160" s="13"/>
       <c r="M160" s="13"/>
-      <c r="N160" s="13"/>
     </row>
     <row r="161">
       <c r="A161" s="13"/>
@@ -17325,7 +17099,6 @@
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
-      <c r="N161" s="13"/>
     </row>
     <row r="162">
       <c r="A162" s="13"/>
@@ -17341,7 +17114,6 @@
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
-      <c r="N162" s="13"/>
     </row>
     <row r="163">
       <c r="A163" s="13"/>
@@ -17357,7 +17129,6 @@
       <c r="K163" s="13"/>
       <c r="L163" s="13"/>
       <c r="M163" s="13"/>
-      <c r="N163" s="13"/>
     </row>
     <row r="164">
       <c r="A164" s="13"/>
@@ -17373,7 +17144,6 @@
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
-      <c r="N164" s="13"/>
     </row>
     <row r="165">
       <c r="A165" s="13"/>
@@ -17389,7 +17159,6 @@
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
-      <c r="N165" s="13"/>
     </row>
     <row r="166">
       <c r="A166" s="13"/>
@@ -17405,7 +17174,6 @@
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
-      <c r="N166" s="13"/>
     </row>
     <row r="167">
       <c r="A167" s="13"/>
@@ -17421,7 +17189,6 @@
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
-      <c r="N167" s="13"/>
     </row>
     <row r="168">
       <c r="A168" s="13"/>
@@ -17437,7 +17204,6 @@
       <c r="K168" s="13"/>
       <c r="L168" s="13"/>
       <c r="M168" s="13"/>
-      <c r="N168" s="13"/>
     </row>
     <row r="169">
       <c r="A169" s="13"/>
@@ -17453,7 +17219,6 @@
       <c r="K169" s="13"/>
       <c r="L169" s="13"/>
       <c r="M169" s="13"/>
-      <c r="N169" s="13"/>
     </row>
     <row r="170">
       <c r="A170" s="13"/>
@@ -17469,7 +17234,6 @@
       <c r="K170" s="13"/>
       <c r="L170" s="13"/>
       <c r="M170" s="13"/>
-      <c r="N170" s="13"/>
     </row>
     <row r="171">
       <c r="A171" s="13"/>
@@ -17485,7 +17249,6 @@
       <c r="K171" s="13"/>
       <c r="L171" s="13"/>
       <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
     </row>
     <row r="172">
       <c r="A172" s="13"/>
@@ -17501,7 +17264,6 @@
       <c r="K172" s="13"/>
       <c r="L172" s="13"/>
       <c r="M172" s="13"/>
-      <c r="N172" s="13"/>
     </row>
     <row r="173">
       <c r="A173" s="13"/>
@@ -17517,7 +17279,6 @@
       <c r="K173" s="13"/>
       <c r="L173" s="13"/>
       <c r="M173" s="13"/>
-      <c r="N173" s="13"/>
     </row>
     <row r="174">
       <c r="A174" s="13"/>
@@ -17533,7 +17294,6 @@
       <c r="K174" s="13"/>
       <c r="L174" s="13"/>
       <c r="M174" s="13"/>
-      <c r="N174" s="13"/>
     </row>
     <row r="175">
       <c r="A175" s="13"/>
@@ -17549,7 +17309,6 @@
       <c r="K175" s="13"/>
       <c r="L175" s="13"/>
       <c r="M175" s="13"/>
-      <c r="N175" s="13"/>
     </row>
     <row r="176">
       <c r="A176" s="13"/>
@@ -17565,7 +17324,6 @@
       <c r="K176" s="13"/>
       <c r="L176" s="13"/>
       <c r="M176" s="13"/>
-      <c r="N176" s="13"/>
     </row>
     <row r="177">
       <c r="A177" s="13"/>
@@ -17581,7 +17339,6 @@
       <c r="K177" s="13"/>
       <c r="L177" s="13"/>
       <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
     </row>
     <row r="178">
       <c r="A178" s="13"/>
@@ -17597,7 +17354,6 @@
       <c r="K178" s="13"/>
       <c r="L178" s="13"/>
       <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
     </row>
     <row r="179">
       <c r="A179" s="13"/>
@@ -17613,7 +17369,6 @@
       <c r="K179" s="13"/>
       <c r="L179" s="13"/>
       <c r="M179" s="13"/>
-      <c r="N179" s="13"/>
     </row>
     <row r="180">
       <c r="A180" s="13"/>
@@ -17629,7 +17384,6 @@
       <c r="K180" s="13"/>
       <c r="L180" s="13"/>
       <c r="M180" s="13"/>
-      <c r="N180" s="13"/>
     </row>
     <row r="181">
       <c r="A181" s="13"/>
@@ -17645,7 +17399,6 @@
       <c r="K181" s="13"/>
       <c r="L181" s="13"/>
       <c r="M181" s="13"/>
-      <c r="N181" s="13"/>
     </row>
     <row r="182">
       <c r="A182" s="13"/>
@@ -17661,7 +17414,6 @@
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
-      <c r="N182" s="13"/>
     </row>
     <row r="183">
       <c r="A183" s="13"/>
@@ -17677,7 +17429,6 @@
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
-      <c r="N183" s="13"/>
     </row>
     <row r="184">
       <c r="A184" s="13"/>
@@ -17693,7 +17444,6 @@
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
-      <c r="N184" s="13"/>
     </row>
     <row r="185">
       <c r="A185" s="13"/>
@@ -17709,7 +17459,6 @@
       <c r="K185" s="13"/>
       <c r="L185" s="13"/>
       <c r="M185" s="13"/>
-      <c r="N185" s="13"/>
     </row>
     <row r="186">
       <c r="A186" s="13"/>
@@ -17725,7 +17474,6 @@
       <c r="K186" s="13"/>
       <c r="L186" s="13"/>
       <c r="M186" s="13"/>
-      <c r="N186" s="13"/>
     </row>
     <row r="187">
       <c r="A187" s="13"/>
@@ -17741,7 +17489,6 @@
       <c r="K187" s="13"/>
       <c r="L187" s="13"/>
       <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
     </row>
     <row r="188">
       <c r="A188" s="13"/>
@@ -17757,7 +17504,6 @@
       <c r="K188" s="13"/>
       <c r="L188" s="13"/>
       <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
     </row>
     <row r="189">
       <c r="A189" s="13"/>
@@ -17773,7 +17519,6 @@
       <c r="K189" s="13"/>
       <c r="L189" s="13"/>
       <c r="M189" s="13"/>
-      <c r="N189" s="13"/>
     </row>
     <row r="190">
       <c r="A190" s="13"/>
@@ -17789,7 +17534,6 @@
       <c r="K190" s="13"/>
       <c r="L190" s="13"/>
       <c r="M190" s="13"/>
-      <c r="N190" s="13"/>
     </row>
     <row r="191">
       <c r="A191" s="13"/>
@@ -17805,7 +17549,6 @@
       <c r="K191" s="13"/>
       <c r="L191" s="13"/>
       <c r="M191" s="13"/>
-      <c r="N191" s="13"/>
     </row>
     <row r="192">
       <c r="A192" s="13"/>
@@ -17821,7 +17564,6 @@
       <c r="K192" s="13"/>
       <c r="L192" s="13"/>
       <c r="M192" s="13"/>
-      <c r="N192" s="13"/>
     </row>
     <row r="193">
       <c r="A193" s="13"/>
@@ -17837,7 +17579,6 @@
       <c r="K193" s="13"/>
       <c r="L193" s="13"/>
       <c r="M193" s="13"/>
-      <c r="N193" s="13"/>
     </row>
     <row r="194">
       <c r="A194" s="13"/>
@@ -17853,7 +17594,6 @@
       <c r="K194" s="13"/>
       <c r="L194" s="13"/>
       <c r="M194" s="13"/>
-      <c r="N194" s="13"/>
     </row>
     <row r="195">
       <c r="A195" s="13"/>
@@ -17869,7 +17609,6 @@
       <c r="K195" s="13"/>
       <c r="L195" s="13"/>
       <c r="M195" s="13"/>
-      <c r="N195" s="13"/>
     </row>
     <row r="196">
       <c r="A196" s="13"/>
@@ -17885,7 +17624,6 @@
       <c r="K196" s="13"/>
       <c r="L196" s="13"/>
       <c r="M196" s="13"/>
-      <c r="N196" s="13"/>
     </row>
     <row r="197">
       <c r="A197" s="13"/>
@@ -17901,7 +17639,6 @@
       <c r="K197" s="13"/>
       <c r="L197" s="13"/>
       <c r="M197" s="13"/>
-      <c r="N197" s="13"/>
     </row>
     <row r="198">
       <c r="A198" s="13"/>
@@ -17917,7 +17654,6 @@
       <c r="K198" s="13"/>
       <c r="L198" s="13"/>
       <c r="M198" s="13"/>
-      <c r="N198" s="13"/>
     </row>
     <row r="199">
       <c r="A199" s="13"/>
@@ -17933,7 +17669,6 @@
       <c r="K199" s="13"/>
       <c r="L199" s="13"/>
       <c r="M199" s="13"/>
-      <c r="N199" s="13"/>
     </row>
     <row r="200">
       <c r="A200" s="13"/>
@@ -17949,7 +17684,6 @@
       <c r="K200" s="13"/>
       <c r="L200" s="13"/>
       <c r="M200" s="13"/>
-      <c r="N200" s="13"/>
     </row>
     <row r="201">
       <c r="A201" s="13"/>
@@ -17965,7 +17699,6 @@
       <c r="K201" s="13"/>
       <c r="L201" s="13"/>
       <c r="M201" s="13"/>
-      <c r="N201" s="13"/>
     </row>
     <row r="202">
       <c r="A202" s="13"/>
@@ -17981,7 +17714,6 @@
       <c r="K202" s="13"/>
       <c r="L202" s="13"/>
       <c r="M202" s="13"/>
-      <c r="N202" s="13"/>
     </row>
     <row r="203">
       <c r="A203" s="13"/>
@@ -17997,7 +17729,6 @@
       <c r="K203" s="13"/>
       <c r="L203" s="13"/>
       <c r="M203" s="13"/>
-      <c r="N203" s="13"/>
     </row>
     <row r="204">
       <c r="A204" s="13"/>
@@ -18013,7 +17744,6 @@
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="13"/>
-      <c r="N204" s="13"/>
     </row>
     <row r="205">
       <c r="A205" s="13"/>
@@ -18029,7 +17759,6 @@
       <c r="K205" s="13"/>
       <c r="L205" s="13"/>
       <c r="M205" s="13"/>
-      <c r="N205" s="13"/>
     </row>
     <row r="206">
       <c r="A206" s="13"/>
@@ -18045,7 +17774,6 @@
       <c r="K206" s="13"/>
       <c r="L206" s="13"/>
       <c r="M206" s="13"/>
-      <c r="N206" s="13"/>
     </row>
     <row r="207">
       <c r="A207" s="13"/>
@@ -18061,7 +17789,6 @@
       <c r="K207" s="13"/>
       <c r="L207" s="13"/>
       <c r="M207" s="13"/>
-      <c r="N207" s="13"/>
     </row>
     <row r="208">
       <c r="A208" s="13"/>
@@ -18077,7 +17804,6 @@
       <c r="K208" s="13"/>
       <c r="L208" s="13"/>
       <c r="M208" s="13"/>
-      <c r="N208" s="13"/>
     </row>
     <row r="209">
       <c r="A209" s="13"/>
@@ -18093,7 +17819,6 @@
       <c r="K209" s="13"/>
       <c r="L209" s="13"/>
       <c r="M209" s="13"/>
-      <c r="N209" s="13"/>
     </row>
     <row r="210">
       <c r="A210" s="13"/>
@@ -18109,7 +17834,6 @@
       <c r="K210" s="13"/>
       <c r="L210" s="13"/>
       <c r="M210" s="13"/>
-      <c r="N210" s="13"/>
     </row>
     <row r="211">
       <c r="A211" s="13"/>
@@ -18125,7 +17849,6 @@
       <c r="K211" s="13"/>
       <c r="L211" s="13"/>
       <c r="M211" s="13"/>
-      <c r="N211" s="13"/>
     </row>
     <row r="212">
       <c r="A212" s="13"/>
@@ -18141,7 +17864,6 @@
       <c r="K212" s="13"/>
       <c r="L212" s="13"/>
       <c r="M212" s="13"/>
-      <c r="N212" s="13"/>
     </row>
     <row r="213">
       <c r="A213" s="13"/>
@@ -18157,7 +17879,6 @@
       <c r="K213" s="13"/>
       <c r="L213" s="13"/>
       <c r="M213" s="13"/>
-      <c r="N213" s="13"/>
     </row>
     <row r="214">
       <c r="A214" s="13"/>
@@ -18173,7 +17894,6 @@
       <c r="K214" s="13"/>
       <c r="L214" s="13"/>
       <c r="M214" s="13"/>
-      <c r="N214" s="13"/>
     </row>
     <row r="215">
       <c r="A215" s="13"/>
@@ -18189,7 +17909,6 @@
       <c r="K215" s="13"/>
       <c r="L215" s="13"/>
       <c r="M215" s="13"/>
-      <c r="N215" s="13"/>
     </row>
     <row r="216">
       <c r="A216" s="13"/>
@@ -18205,7 +17924,6 @@
       <c r="K216" s="13"/>
       <c r="L216" s="13"/>
       <c r="M216" s="13"/>
-      <c r="N216" s="13"/>
     </row>
     <row r="217">
       <c r="A217" s="13"/>
@@ -18221,7 +17939,6 @@
       <c r="K217" s="13"/>
       <c r="L217" s="13"/>
       <c r="M217" s="13"/>
-      <c r="N217" s="13"/>
     </row>
     <row r="218">
       <c r="A218" s="13"/>
@@ -18237,7 +17954,6 @@
       <c r="K218" s="13"/>
       <c r="L218" s="13"/>
       <c r="M218" s="13"/>
-      <c r="N218" s="13"/>
     </row>
     <row r="219">
       <c r="A219" s="13"/>
@@ -18253,7 +17969,6 @@
       <c r="K219" s="13"/>
       <c r="L219" s="13"/>
       <c r="M219" s="13"/>
-      <c r="N219" s="13"/>
     </row>
     <row r="220">
       <c r="A220" s="13"/>
@@ -18269,7 +17984,6 @@
       <c r="K220" s="13"/>
       <c r="L220" s="13"/>
       <c r="M220" s="13"/>
-      <c r="N220" s="13"/>
     </row>
     <row r="221">
       <c r="A221" s="13"/>
@@ -18285,7 +17999,6 @@
       <c r="K221" s="13"/>
       <c r="L221" s="13"/>
       <c r="M221" s="13"/>
-      <c r="N221" s="13"/>
     </row>
     <row r="222">
       <c r="A222" s="13"/>
@@ -18301,7 +18014,6 @@
       <c r="K222" s="13"/>
       <c r="L222" s="13"/>
       <c r="M222" s="13"/>
-      <c r="N222" s="13"/>
     </row>
     <row r="223">
       <c r="A223" s="13"/>
@@ -18317,7 +18029,6 @@
       <c r="K223" s="13"/>
       <c r="L223" s="13"/>
       <c r="M223" s="13"/>
-      <c r="N223" s="13"/>
     </row>
     <row r="224">
       <c r="A224" s="13"/>
@@ -18333,7 +18044,6 @@
       <c r="K224" s="13"/>
       <c r="L224" s="13"/>
       <c r="M224" s="13"/>
-      <c r="N224" s="13"/>
     </row>
     <row r="225">
       <c r="A225" s="13"/>
@@ -18349,7 +18059,6 @@
       <c r="K225" s="13"/>
       <c r="L225" s="13"/>
       <c r="M225" s="13"/>
-      <c r="N225" s="13"/>
     </row>
     <row r="226">
       <c r="A226" s="13"/>
@@ -18365,7 +18074,6 @@
       <c r="K226" s="13"/>
       <c r="L226" s="13"/>
       <c r="M226" s="13"/>
-      <c r="N226" s="13"/>
     </row>
     <row r="227">
       <c r="A227" s="13"/>
@@ -18381,7 +18089,6 @@
       <c r="K227" s="13"/>
       <c r="L227" s="13"/>
       <c r="M227" s="13"/>
-      <c r="N227" s="13"/>
     </row>
     <row r="228">
       <c r="A228" s="13"/>
@@ -18397,7 +18104,6 @@
       <c r="K228" s="13"/>
       <c r="L228" s="13"/>
       <c r="M228" s="13"/>
-      <c r="N228" s="13"/>
     </row>
     <row r="229">
       <c r="A229" s="13"/>
@@ -18413,7 +18119,6 @@
       <c r="K229" s="13"/>
       <c r="L229" s="13"/>
       <c r="M229" s="13"/>
-      <c r="N229" s="13"/>
     </row>
     <row r="230">
       <c r="A230" s="13"/>
@@ -18429,7 +18134,6 @@
       <c r="K230" s="13"/>
       <c r="L230" s="13"/>
       <c r="M230" s="13"/>
-      <c r="N230" s="13"/>
     </row>
     <row r="231">
       <c r="A231" s="13"/>
@@ -18445,7 +18149,6 @@
       <c r="K231" s="13"/>
       <c r="L231" s="13"/>
       <c r="M231" s="13"/>
-      <c r="N231" s="13"/>
     </row>
     <row r="232">
       <c r="A232" s="13"/>
@@ -18461,7 +18164,6 @@
       <c r="K232" s="13"/>
       <c r="L232" s="13"/>
       <c r="M232" s="13"/>
-      <c r="N232" s="13"/>
     </row>
     <row r="233">
       <c r="A233" s="13"/>
@@ -18477,7 +18179,6 @@
       <c r="K233" s="13"/>
       <c r="L233" s="13"/>
       <c r="M233" s="13"/>
-      <c r="N233" s="13"/>
     </row>
     <row r="234">
       <c r="A234" s="13"/>
@@ -18493,7 +18194,6 @@
       <c r="K234" s="13"/>
       <c r="L234" s="13"/>
       <c r="M234" s="13"/>
-      <c r="N234" s="13"/>
     </row>
     <row r="235">
       <c r="A235" s="13"/>
@@ -18509,7 +18209,6 @@
       <c r="K235" s="13"/>
       <c r="L235" s="13"/>
       <c r="M235" s="13"/>
-      <c r="N235" s="13"/>
     </row>
     <row r="236">
       <c r="A236" s="13"/>
@@ -18525,7 +18224,6 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="13"/>
-      <c r="N236" s="13"/>
     </row>
     <row r="237">
       <c r="A237" s="13"/>
@@ -18541,7 +18239,6 @@
       <c r="K237" s="13"/>
       <c r="L237" s="13"/>
       <c r="M237" s="13"/>
-      <c r="N237" s="13"/>
     </row>
     <row r="238">
       <c r="A238" s="13"/>
@@ -18557,7 +18254,6 @@
       <c r="K238" s="13"/>
       <c r="L238" s="13"/>
       <c r="M238" s="13"/>
-      <c r="N238" s="13"/>
     </row>
     <row r="239">
       <c r="A239" s="13"/>
@@ -18573,7 +18269,6 @@
       <c r="K239" s="13"/>
       <c r="L239" s="13"/>
       <c r="M239" s="13"/>
-      <c r="N239" s="13"/>
     </row>
     <row r="240">
       <c r="A240" s="13"/>
@@ -18589,7 +18284,6 @@
       <c r="K240" s="13"/>
       <c r="L240" s="13"/>
       <c r="M240" s="13"/>
-      <c r="N240" s="13"/>
     </row>
     <row r="241">
       <c r="A241" s="13"/>
@@ -18605,7 +18299,6 @@
       <c r="K241" s="13"/>
       <c r="L241" s="13"/>
       <c r="M241" s="13"/>
-      <c r="N241" s="13"/>
     </row>
     <row r="242">
       <c r="A242" s="13"/>
@@ -18621,7 +18314,6 @@
       <c r="K242" s="13"/>
       <c r="L242" s="13"/>
       <c r="M242" s="13"/>
-      <c r="N242" s="13"/>
     </row>
     <row r="243">
       <c r="A243" s="13"/>
@@ -18637,7 +18329,6 @@
       <c r="K243" s="13"/>
       <c r="L243" s="13"/>
       <c r="M243" s="13"/>
-      <c r="N243" s="13"/>
     </row>
     <row r="244">
       <c r="A244" s="13"/>
@@ -18653,7 +18344,6 @@
       <c r="K244" s="13"/>
       <c r="L244" s="13"/>
       <c r="M244" s="13"/>
-      <c r="N244" s="13"/>
     </row>
     <row r="245">
       <c r="A245" s="13"/>
@@ -18669,7 +18359,6 @@
       <c r="K245" s="13"/>
       <c r="L245" s="13"/>
       <c r="M245" s="13"/>
-      <c r="N245" s="13"/>
     </row>
     <row r="246">
       <c r="A246" s="13"/>
@@ -18685,7 +18374,6 @@
       <c r="K246" s="13"/>
       <c r="L246" s="13"/>
       <c r="M246" s="13"/>
-      <c r="N246" s="13"/>
     </row>
     <row r="247">
       <c r="A247" s="13"/>
@@ -18701,7 +18389,6 @@
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
-      <c r="N247" s="13"/>
     </row>
     <row r="248">
       <c r="A248" s="13"/>
@@ -18717,7 +18404,6 @@
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
-      <c r="N248" s="13"/>
     </row>
     <row r="249">
       <c r="A249" s="13"/>
@@ -18733,7 +18419,6 @@
       <c r="K249" s="13"/>
       <c r="L249" s="13"/>
       <c r="M249" s="13"/>
-      <c r="N249" s="13"/>
     </row>
     <row r="250">
       <c r="A250" s="13"/>
@@ -18749,7 +18434,6 @@
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
-      <c r="N250" s="13"/>
     </row>
     <row r="251">
       <c r="A251" s="13"/>
@@ -18765,7 +18449,6 @@
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
-      <c r="N251" s="13"/>
     </row>
     <row r="252">
       <c r="A252" s="13"/>
@@ -18781,7 +18464,6 @@
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
-      <c r="N252" s="13"/>
     </row>
     <row r="253">
       <c r="A253" s="13"/>
@@ -18797,7 +18479,6 @@
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
-      <c r="N253" s="13"/>
     </row>
     <row r="254">
       <c r="A254" s="13"/>
@@ -18813,7 +18494,6 @@
       <c r="K254" s="13"/>
       <c r="L254" s="13"/>
       <c r="M254" s="13"/>
-      <c r="N254" s="13"/>
     </row>
     <row r="255">
       <c r="A255" s="13"/>
@@ -18829,7 +18509,6 @@
       <c r="K255" s="13"/>
       <c r="L255" s="13"/>
       <c r="M255" s="13"/>
-      <c r="N255" s="13"/>
     </row>
     <row r="256">
       <c r="A256" s="13"/>
@@ -18845,7 +18524,6 @@
       <c r="K256" s="13"/>
       <c r="L256" s="13"/>
       <c r="M256" s="13"/>
-      <c r="N256" s="13"/>
     </row>
     <row r="257">
       <c r="A257" s="13"/>
@@ -18861,7 +18539,6 @@
       <c r="K257" s="13"/>
       <c r="L257" s="13"/>
       <c r="M257" s="13"/>
-      <c r="N257" s="13"/>
     </row>
     <row r="258">
       <c r="A258" s="13"/>
@@ -18877,7 +18554,6 @@
       <c r="K258" s="13"/>
       <c r="L258" s="13"/>
       <c r="M258" s="13"/>
-      <c r="N258" s="13"/>
     </row>
     <row r="259">
       <c r="A259" s="13"/>
@@ -18893,7 +18569,6 @@
       <c r="K259" s="13"/>
       <c r="L259" s="13"/>
       <c r="M259" s="13"/>
-      <c r="N259" s="13"/>
     </row>
     <row r="260">
       <c r="A260" s="13"/>
@@ -18909,7 +18584,6 @@
       <c r="K260" s="13"/>
       <c r="L260" s="13"/>
       <c r="M260" s="13"/>
-      <c r="N260" s="13"/>
     </row>
     <row r="261">
       <c r="A261" s="13"/>
@@ -18925,7 +18599,6 @@
       <c r="K261" s="13"/>
       <c r="L261" s="13"/>
       <c r="M261" s="13"/>
-      <c r="N261" s="13"/>
     </row>
     <row r="262">
       <c r="A262" s="13"/>
@@ -18941,7 +18614,6 @@
       <c r="K262" s="13"/>
       <c r="L262" s="13"/>
       <c r="M262" s="13"/>
-      <c r="N262" s="13"/>
     </row>
     <row r="263">
       <c r="A263" s="13"/>
@@ -18957,7 +18629,6 @@
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
-      <c r="N263" s="13"/>
     </row>
     <row r="264">
       <c r="A264" s="13"/>
@@ -18973,7 +18644,6 @@
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
-      <c r="N264" s="13"/>
     </row>
     <row r="265">
       <c r="A265" s="13"/>
@@ -18989,7 +18659,6 @@
       <c r="K265" s="13"/>
       <c r="L265" s="13"/>
       <c r="M265" s="13"/>
-      <c r="N265" s="13"/>
     </row>
     <row r="266">
       <c r="A266" s="13"/>
@@ -19005,7 +18674,6 @@
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
-      <c r="N266" s="13"/>
     </row>
     <row r="267">
       <c r="A267" s="13"/>
@@ -19021,7 +18689,6 @@
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
-      <c r="N267" s="13"/>
     </row>
     <row r="268">
       <c r="A268" s="13"/>
@@ -19037,7 +18704,6 @@
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
-      <c r="N268" s="13"/>
     </row>
     <row r="269">
       <c r="A269" s="13"/>
@@ -19053,7 +18719,6 @@
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
-      <c r="N269" s="13"/>
     </row>
     <row r="270">
       <c r="A270" s="13"/>
@@ -19069,7 +18734,6 @@
       <c r="K270" s="13"/>
       <c r="L270" s="13"/>
       <c r="M270" s="13"/>
-      <c r="N270" s="13"/>
     </row>
     <row r="271">
       <c r="A271" s="13"/>
@@ -19085,7 +18749,6 @@
       <c r="K271" s="13"/>
       <c r="L271" s="13"/>
       <c r="M271" s="13"/>
-      <c r="N271" s="13"/>
     </row>
     <row r="272">
       <c r="A272" s="13"/>
@@ -19101,7 +18764,6 @@
       <c r="K272" s="13"/>
       <c r="L272" s="13"/>
       <c r="M272" s="13"/>
-      <c r="N272" s="13"/>
     </row>
     <row r="273">
       <c r="A273" s="13"/>
@@ -19117,7 +18779,6 @@
       <c r="K273" s="13"/>
       <c r="L273" s="13"/>
       <c r="M273" s="13"/>
-      <c r="N273" s="13"/>
     </row>
     <row r="274">
       <c r="A274" s="13"/>
@@ -19133,7 +18794,6 @@
       <c r="K274" s="13"/>
       <c r="L274" s="13"/>
       <c r="M274" s="13"/>
-      <c r="N274" s="13"/>
     </row>
     <row r="275">
       <c r="A275" s="13"/>
@@ -19149,7 +18809,6 @@
       <c r="K275" s="13"/>
       <c r="L275" s="13"/>
       <c r="M275" s="13"/>
-      <c r="N275" s="13"/>
     </row>
     <row r="276">
       <c r="A276" s="13"/>
@@ -19165,7 +18824,6 @@
       <c r="K276" s="13"/>
       <c r="L276" s="13"/>
       <c r="M276" s="13"/>
-      <c r="N276" s="13"/>
     </row>
     <row r="277">
       <c r="A277" s="13"/>
@@ -19181,7 +18839,6 @@
       <c r="K277" s="13"/>
       <c r="L277" s="13"/>
       <c r="M277" s="13"/>
-      <c r="N277" s="13"/>
     </row>
     <row r="278">
       <c r="A278" s="13"/>
@@ -19197,7 +18854,6 @@
       <c r="K278" s="13"/>
       <c r="L278" s="13"/>
       <c r="M278" s="13"/>
-      <c r="N278" s="13"/>
     </row>
     <row r="279">
       <c r="A279" s="13"/>
@@ -19213,7 +18869,6 @@
       <c r="K279" s="13"/>
       <c r="L279" s="13"/>
       <c r="M279" s="13"/>
-      <c r="N279" s="13"/>
     </row>
     <row r="280">
       <c r="A280" s="13"/>
@@ -19229,7 +18884,6 @@
       <c r="K280" s="13"/>
       <c r="L280" s="13"/>
       <c r="M280" s="13"/>
-      <c r="N280" s="13"/>
     </row>
     <row r="281">
       <c r="A281" s="13"/>
@@ -19245,7 +18899,6 @@
       <c r="K281" s="13"/>
       <c r="L281" s="13"/>
       <c r="M281" s="13"/>
-      <c r="N281" s="13"/>
     </row>
     <row r="282">
       <c r="A282" s="13"/>
@@ -19261,7 +18914,6 @@
       <c r="K282" s="13"/>
       <c r="L282" s="13"/>
       <c r="M282" s="13"/>
-      <c r="N282" s="13"/>
     </row>
     <row r="283">
       <c r="A283" s="13"/>
@@ -19277,7 +18929,6 @@
       <c r="K283" s="13"/>
       <c r="L283" s="13"/>
       <c r="M283" s="13"/>
-      <c r="N283" s="13"/>
     </row>
     <row r="284">
       <c r="A284" s="13"/>
@@ -19293,7 +18944,6 @@
       <c r="K284" s="13"/>
       <c r="L284" s="13"/>
       <c r="M284" s="13"/>
-      <c r="N284" s="13"/>
     </row>
     <row r="285">
       <c r="A285" s="13"/>
@@ -19309,7 +18959,6 @@
       <c r="K285" s="13"/>
       <c r="L285" s="13"/>
       <c r="M285" s="13"/>
-      <c r="N285" s="13"/>
     </row>
     <row r="286">
       <c r="A286" s="13"/>
@@ -19325,7 +18974,6 @@
       <c r="K286" s="13"/>
       <c r="L286" s="13"/>
       <c r="M286" s="13"/>
-      <c r="N286" s="13"/>
     </row>
     <row r="287">
       <c r="A287" s="13"/>
@@ -19341,7 +18989,6 @@
       <c r="K287" s="13"/>
       <c r="L287" s="13"/>
       <c r="M287" s="13"/>
-      <c r="N287" s="13"/>
     </row>
     <row r="288">
       <c r="A288" s="13"/>
@@ -19357,7 +19004,6 @@
       <c r="K288" s="13"/>
       <c r="L288" s="13"/>
       <c r="M288" s="13"/>
-      <c r="N288" s="13"/>
     </row>
     <row r="289">
       <c r="A289" s="13"/>
@@ -19373,7 +19019,6 @@
       <c r="K289" s="13"/>
       <c r="L289" s="13"/>
       <c r="M289" s="13"/>
-      <c r="N289" s="13"/>
     </row>
     <row r="290">
       <c r="A290" s="13"/>
@@ -19389,7 +19034,6 @@
       <c r="K290" s="13"/>
       <c r="L290" s="13"/>
       <c r="M290" s="13"/>
-      <c r="N290" s="13"/>
     </row>
     <row r="291">
       <c r="A291" s="13"/>
@@ -19405,7 +19049,6 @@
       <c r="K291" s="13"/>
       <c r="L291" s="13"/>
       <c r="M291" s="13"/>
-      <c r="N291" s="13"/>
     </row>
     <row r="292">
       <c r="A292" s="13"/>
@@ -19421,7 +19064,6 @@
       <c r="K292" s="13"/>
       <c r="L292" s="13"/>
       <c r="M292" s="13"/>
-      <c r="N292" s="13"/>
     </row>
     <row r="293">
       <c r="A293" s="13"/>
@@ -19437,7 +19079,6 @@
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
-      <c r="N293" s="13"/>
     </row>
     <row r="294">
       <c r="A294" s="13"/>
@@ -19453,7 +19094,6 @@
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
-      <c r="N294" s="13"/>
     </row>
     <row r="295">
       <c r="A295" s="13"/>
@@ -19469,7 +19109,6 @@
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
-      <c r="N295" s="13"/>
     </row>
     <row r="296">
       <c r="A296" s="13"/>
@@ -19485,7 +19124,6 @@
       <c r="K296" s="13"/>
       <c r="L296" s="13"/>
       <c r="M296" s="13"/>
-      <c r="N296" s="13"/>
     </row>
     <row r="297">
       <c r="A297" s="13"/>
@@ -19501,7 +19139,6 @@
       <c r="K297" s="13"/>
       <c r="L297" s="13"/>
       <c r="M297" s="13"/>
-      <c r="N297" s="13"/>
     </row>
     <row r="298">
       <c r="A298" s="13"/>
@@ -19517,7 +19154,6 @@
       <c r="K298" s="13"/>
       <c r="L298" s="13"/>
       <c r="M298" s="13"/>
-      <c r="N298" s="13"/>
     </row>
     <row r="299">
       <c r="A299" s="13"/>
@@ -19533,7 +19169,6 @@
       <c r="K299" s="13"/>
       <c r="L299" s="13"/>
       <c r="M299" s="13"/>
-      <c r="N299" s="13"/>
     </row>
     <row r="300">
       <c r="A300" s="13"/>
@@ -19549,7 +19184,6 @@
       <c r="K300" s="13"/>
       <c r="L300" s="13"/>
       <c r="M300" s="13"/>
-      <c r="N300" s="13"/>
     </row>
     <row r="301">
       <c r="A301" s="13"/>
@@ -19565,7 +19199,6 @@
       <c r="K301" s="13"/>
       <c r="L301" s="13"/>
       <c r="M301" s="13"/>
-      <c r="N301" s="13"/>
     </row>
     <row r="302">
       <c r="A302" s="13"/>
@@ -19581,7 +19214,6 @@
       <c r="K302" s="13"/>
       <c r="L302" s="13"/>
       <c r="M302" s="13"/>
-      <c r="N302" s="13"/>
     </row>
     <row r="303">
       <c r="A303" s="13"/>
@@ -19597,7 +19229,6 @@
       <c r="K303" s="13"/>
       <c r="L303" s="13"/>
       <c r="M303" s="13"/>
-      <c r="N303" s="13"/>
     </row>
     <row r="304">
       <c r="A304" s="13"/>
@@ -19613,7 +19244,6 @@
       <c r="K304" s="13"/>
       <c r="L304" s="13"/>
       <c r="M304" s="13"/>
-      <c r="N304" s="13"/>
     </row>
     <row r="305">
       <c r="A305" s="13"/>
@@ -19629,7 +19259,6 @@
       <c r="K305" s="13"/>
       <c r="L305" s="13"/>
       <c r="M305" s="13"/>
-      <c r="N305" s="13"/>
     </row>
     <row r="306">
       <c r="A306" s="13"/>
@@ -19645,7 +19274,6 @@
       <c r="K306" s="13"/>
       <c r="L306" s="13"/>
       <c r="M306" s="13"/>
-      <c r="N306" s="13"/>
     </row>
     <row r="307">
       <c r="A307" s="13"/>
@@ -19661,7 +19289,6 @@
       <c r="K307" s="13"/>
       <c r="L307" s="13"/>
       <c r="M307" s="13"/>
-      <c r="N307" s="13"/>
     </row>
     <row r="308">
       <c r="A308" s="13"/>
@@ -19677,7 +19304,6 @@
       <c r="K308" s="13"/>
       <c r="L308" s="13"/>
       <c r="M308" s="13"/>
-      <c r="N308" s="13"/>
     </row>
     <row r="309">
       <c r="A309" s="13"/>
@@ -19693,7 +19319,6 @@
       <c r="K309" s="13"/>
       <c r="L309" s="13"/>
       <c r="M309" s="13"/>
-      <c r="N309" s="13"/>
     </row>
     <row r="310">
       <c r="A310" s="13"/>
@@ -19709,7 +19334,6 @@
       <c r="K310" s="13"/>
       <c r="L310" s="13"/>
       <c r="M310" s="13"/>
-      <c r="N310" s="13"/>
     </row>
     <row r="311">
       <c r="A311" s="13"/>
@@ -19725,7 +19349,6 @@
       <c r="K311" s="13"/>
       <c r="L311" s="13"/>
       <c r="M311" s="13"/>
-      <c r="N311" s="13"/>
     </row>
     <row r="312">
       <c r="A312" s="13"/>
@@ -19741,7 +19364,6 @@
       <c r="K312" s="13"/>
       <c r="L312" s="13"/>
       <c r="M312" s="13"/>
-      <c r="N312" s="13"/>
     </row>
     <row r="313">
       <c r="A313" s="13"/>
@@ -19757,7 +19379,6 @@
       <c r="K313" s="13"/>
       <c r="L313" s="13"/>
       <c r="M313" s="13"/>
-      <c r="N313" s="13"/>
     </row>
     <row r="314">
       <c r="A314" s="13"/>
@@ -19773,7 +19394,6 @@
       <c r="K314" s="13"/>
       <c r="L314" s="13"/>
       <c r="M314" s="13"/>
-      <c r="N314" s="13"/>
     </row>
     <row r="315">
       <c r="A315" s="13"/>
@@ -19789,7 +19409,6 @@
       <c r="K315" s="13"/>
       <c r="L315" s="13"/>
       <c r="M315" s="13"/>
-      <c r="N315" s="13"/>
     </row>
     <row r="316">
       <c r="A316" s="13"/>
@@ -19805,7 +19424,6 @@
       <c r="K316" s="13"/>
       <c r="L316" s="13"/>
       <c r="M316" s="13"/>
-      <c r="N316" s="13"/>
     </row>
     <row r="317">
       <c r="A317" s="13"/>
@@ -19821,7 +19439,6 @@
       <c r="K317" s="13"/>
       <c r="L317" s="13"/>
       <c r="M317" s="13"/>
-      <c r="N317" s="13"/>
     </row>
     <row r="318">
       <c r="A318" s="13"/>
@@ -19837,7 +19454,6 @@
       <c r="K318" s="13"/>
       <c r="L318" s="13"/>
       <c r="M318" s="13"/>
-      <c r="N318" s="13"/>
     </row>
     <row r="319">
       <c r="A319" s="13"/>
@@ -19853,7 +19469,6 @@
       <c r="K319" s="13"/>
       <c r="L319" s="13"/>
       <c r="M319" s="13"/>
-      <c r="N319" s="13"/>
     </row>
     <row r="320">
       <c r="A320" s="13"/>
@@ -19869,7 +19484,6 @@
       <c r="K320" s="13"/>
       <c r="L320" s="13"/>
       <c r="M320" s="13"/>
-      <c r="N320" s="13"/>
     </row>
     <row r="321">
       <c r="A321" s="13"/>
@@ -19885,7 +19499,6 @@
       <c r="K321" s="13"/>
       <c r="L321" s="13"/>
       <c r="M321" s="13"/>
-      <c r="N321" s="13"/>
     </row>
     <row r="322">
       <c r="A322" s="13"/>
@@ -19901,7 +19514,6 @@
       <c r="K322" s="13"/>
       <c r="L322" s="13"/>
       <c r="M322" s="13"/>
-      <c r="N322" s="13"/>
     </row>
     <row r="323">
       <c r="A323" s="13"/>
@@ -19917,7 +19529,6 @@
       <c r="K323" s="13"/>
       <c r="L323" s="13"/>
       <c r="M323" s="13"/>
-      <c r="N323" s="13"/>
     </row>
     <row r="324">
       <c r="A324" s="13"/>
@@ -19933,7 +19544,6 @@
       <c r="K324" s="13"/>
       <c r="L324" s="13"/>
       <c r="M324" s="13"/>
-      <c r="N324" s="13"/>
     </row>
     <row r="325">
       <c r="A325" s="13"/>
@@ -19949,7 +19559,6 @@
       <c r="K325" s="13"/>
       <c r="L325" s="13"/>
       <c r="M325" s="13"/>
-      <c r="N325" s="13"/>
     </row>
     <row r="326">
       <c r="A326" s="13"/>
@@ -19965,7 +19574,6 @@
       <c r="K326" s="13"/>
       <c r="L326" s="13"/>
       <c r="M326" s="13"/>
-      <c r="N326" s="13"/>
     </row>
     <row r="327">
       <c r="A327" s="13"/>
@@ -19981,7 +19589,6 @@
       <c r="K327" s="13"/>
       <c r="L327" s="13"/>
       <c r="M327" s="13"/>
-      <c r="N327" s="13"/>
     </row>
     <row r="328">
       <c r="A328" s="13"/>
@@ -19997,7 +19604,6 @@
       <c r="K328" s="13"/>
       <c r="L328" s="13"/>
       <c r="M328" s="13"/>
-      <c r="N328" s="13"/>
     </row>
     <row r="329">
       <c r="A329" s="13"/>
@@ -20013,7 +19619,6 @@
       <c r="K329" s="13"/>
       <c r="L329" s="13"/>
       <c r="M329" s="13"/>
-      <c r="N329" s="13"/>
     </row>
     <row r="330">
       <c r="A330" s="13"/>
@@ -20029,7 +19634,6 @@
       <c r="K330" s="13"/>
       <c r="L330" s="13"/>
       <c r="M330" s="13"/>
-      <c r="N330" s="13"/>
     </row>
     <row r="331">
       <c r="A331" s="13"/>
@@ -20045,7 +19649,6 @@
       <c r="K331" s="13"/>
       <c r="L331" s="13"/>
       <c r="M331" s="13"/>
-      <c r="N331" s="13"/>
     </row>
     <row r="332">
       <c r="A332" s="13"/>
@@ -20061,7 +19664,6 @@
       <c r="K332" s="13"/>
       <c r="L332" s="13"/>
       <c r="M332" s="13"/>
-      <c r="N332" s="13"/>
     </row>
     <row r="333">
       <c r="A333" s="13"/>
@@ -20077,7 +19679,6 @@
       <c r="K333" s="13"/>
       <c r="L333" s="13"/>
       <c r="M333" s="13"/>
-      <c r="N333" s="13"/>
     </row>
     <row r="334">
       <c r="A334" s="13"/>
@@ -20093,7 +19694,6 @@
       <c r="K334" s="13"/>
       <c r="L334" s="13"/>
       <c r="M334" s="13"/>
-      <c r="N334" s="13"/>
     </row>
     <row r="335">
       <c r="A335" s="13"/>
@@ -20109,7 +19709,6 @@
       <c r="K335" s="13"/>
       <c r="L335" s="13"/>
       <c r="M335" s="13"/>
-      <c r="N335" s="13"/>
     </row>
     <row r="336">
       <c r="A336" s="13"/>
@@ -20125,7 +19724,6 @@
       <c r="K336" s="13"/>
       <c r="L336" s="13"/>
       <c r="M336" s="13"/>
-      <c r="N336" s="13"/>
     </row>
     <row r="337">
       <c r="A337" s="13"/>
@@ -20141,7 +19739,6 @@
       <c r="K337" s="13"/>
       <c r="L337" s="13"/>
       <c r="M337" s="13"/>
-      <c r="N337" s="13"/>
     </row>
     <row r="338">
       <c r="A338" s="13"/>
@@ -20157,7 +19754,6 @@
       <c r="K338" s="13"/>
       <c r="L338" s="13"/>
       <c r="M338" s="13"/>
-      <c r="N338" s="13"/>
     </row>
     <row r="339">
       <c r="A339" s="13"/>
@@ -20173,7 +19769,6 @@
       <c r="K339" s="13"/>
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
-      <c r="N339" s="13"/>
     </row>
     <row r="340">
       <c r="A340" s="13"/>
@@ -20189,7 +19784,6 @@
       <c r="K340" s="13"/>
       <c r="L340" s="13"/>
       <c r="M340" s="13"/>
-      <c r="N340" s="13"/>
     </row>
     <row r="341">
       <c r="A341" s="13"/>
@@ -20205,7 +19799,6 @@
       <c r="K341" s="13"/>
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
-      <c r="N341" s="13"/>
     </row>
     <row r="342">
       <c r="A342" s="13"/>
@@ -20221,7 +19814,6 @@
       <c r="K342" s="13"/>
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
-      <c r="N342" s="13"/>
     </row>
     <row r="343">
       <c r="A343" s="13"/>
@@ -20237,7 +19829,6 @@
       <c r="K343" s="13"/>
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
-      <c r="N343" s="13"/>
     </row>
     <row r="344">
       <c r="A344" s="13"/>
@@ -20253,7 +19844,6 @@
       <c r="K344" s="13"/>
       <c r="L344" s="13"/>
       <c r="M344" s="13"/>
-      <c r="N344" s="13"/>
     </row>
     <row r="345">
       <c r="A345" s="13"/>
@@ -20269,7 +19859,6 @@
       <c r="K345" s="13"/>
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
-      <c r="N345" s="13"/>
     </row>
     <row r="346">
       <c r="A346" s="13"/>
@@ -20285,7 +19874,6 @@
       <c r="K346" s="13"/>
       <c r="L346" s="13"/>
       <c r="M346" s="13"/>
-      <c r="N346" s="13"/>
     </row>
     <row r="347">
       <c r="A347" s="13"/>
@@ -20301,7 +19889,6 @@
       <c r="K347" s="13"/>
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
-      <c r="N347" s="13"/>
     </row>
     <row r="348">
       <c r="A348" s="13"/>
@@ -20317,7 +19904,6 @@
       <c r="K348" s="13"/>
       <c r="L348" s="13"/>
       <c r="M348" s="13"/>
-      <c r="N348" s="13"/>
     </row>
     <row r="349">
       <c r="A349" s="13"/>
@@ -20333,7 +19919,6 @@
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
-      <c r="N349" s="13"/>
     </row>
     <row r="350">
       <c r="A350" s="13"/>
@@ -20349,7 +19934,6 @@
       <c r="K350" s="13"/>
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
-      <c r="N350" s="13"/>
     </row>
     <row r="351">
       <c r="A351" s="13"/>
@@ -20365,7 +19949,6 @@
       <c r="K351" s="13"/>
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
-      <c r="N351" s="13"/>
     </row>
     <row r="352">
       <c r="A352" s="13"/>
@@ -20381,7 +19964,6 @@
       <c r="K352" s="13"/>
       <c r="L352" s="13"/>
       <c r="M352" s="13"/>
-      <c r="N352" s="13"/>
     </row>
     <row r="353">
       <c r="A353" s="13"/>
@@ -20397,7 +19979,6 @@
       <c r="K353" s="13"/>
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
-      <c r="N353" s="13"/>
     </row>
     <row r="354">
       <c r="A354" s="13"/>
@@ -20413,7 +19994,6 @@
       <c r="K354" s="13"/>
       <c r="L354" s="13"/>
       <c r="M354" s="13"/>
-      <c r="N354" s="13"/>
     </row>
     <row r="355">
       <c r="A355" s="13"/>
@@ -20429,7 +20009,6 @@
       <c r="K355" s="13"/>
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
-      <c r="N355" s="13"/>
     </row>
     <row r="356">
       <c r="A356" s="13"/>
@@ -20445,7 +20024,6 @@
       <c r="K356" s="13"/>
       <c r="L356" s="13"/>
       <c r="M356" s="13"/>
-      <c r="N356" s="13"/>
     </row>
     <row r="357">
       <c r="A357" s="13"/>
@@ -20461,7 +20039,6 @@
       <c r="K357" s="13"/>
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
-      <c r="N357" s="13"/>
     </row>
     <row r="358">
       <c r="A358" s="13"/>
@@ -20477,7 +20054,6 @@
       <c r="K358" s="13"/>
       <c r="L358" s="13"/>
       <c r="M358" s="13"/>
-      <c r="N358" s="13"/>
     </row>
     <row r="359">
       <c r="A359" s="13"/>
@@ -20493,7 +20069,6 @@
       <c r="K359" s="13"/>
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
-      <c r="N359" s="13"/>
     </row>
     <row r="360">
       <c r="A360" s="13"/>
@@ -20509,7 +20084,6 @@
       <c r="K360" s="13"/>
       <c r="L360" s="13"/>
       <c r="M360" s="13"/>
-      <c r="N360" s="13"/>
     </row>
     <row r="361">
       <c r="A361" s="13"/>
@@ -20525,7 +20099,6 @@
       <c r="K361" s="13"/>
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
-      <c r="N361" s="13"/>
     </row>
     <row r="362">
       <c r="A362" s="13"/>
@@ -20541,7 +20114,6 @@
       <c r="K362" s="13"/>
       <c r="L362" s="13"/>
       <c r="M362" s="13"/>
-      <c r="N362" s="13"/>
     </row>
     <row r="363">
       <c r="A363" s="13"/>
@@ -20557,7 +20129,6 @@
       <c r="K363" s="13"/>
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
-      <c r="N363" s="13"/>
     </row>
     <row r="364">
       <c r="A364" s="13"/>
@@ -20573,7 +20144,6 @@
       <c r="K364" s="13"/>
       <c r="L364" s="13"/>
       <c r="M364" s="13"/>
-      <c r="N364" s="13"/>
     </row>
     <row r="365">
       <c r="A365" s="13"/>
@@ -20589,7 +20159,6 @@
       <c r="K365" s="13"/>
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
-      <c r="N365" s="13"/>
     </row>
     <row r="366">
       <c r="A366" s="13"/>
@@ -20605,7 +20174,6 @@
       <c r="K366" s="13"/>
       <c r="L366" s="13"/>
       <c r="M366" s="13"/>
-      <c r="N366" s="13"/>
     </row>
     <row r="367">
       <c r="A367" s="13"/>
@@ -20621,7 +20189,6 @@
       <c r="K367" s="13"/>
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
-      <c r="N367" s="13"/>
     </row>
     <row r="368">
       <c r="A368" s="13"/>
@@ -20637,7 +20204,6 @@
       <c r="K368" s="13"/>
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
-      <c r="N368" s="13"/>
     </row>
     <row r="369">
       <c r="A369" s="13"/>
@@ -20653,7 +20219,6 @@
       <c r="K369" s="13"/>
       <c r="L369" s="13"/>
       <c r="M369" s="13"/>
-      <c r="N369" s="13"/>
     </row>
     <row r="370">
       <c r="A370" s="13"/>
@@ -20669,7 +20234,6 @@
       <c r="K370" s="13"/>
       <c r="L370" s="13"/>
       <c r="M370" s="13"/>
-      <c r="N370" s="13"/>
     </row>
     <row r="371">
       <c r="A371" s="13"/>
@@ -20685,7 +20249,6 @@
       <c r="K371" s="13"/>
       <c r="L371" s="13"/>
       <c r="M371" s="13"/>
-      <c r="N371" s="13"/>
     </row>
     <row r="372">
       <c r="A372" s="13"/>
@@ -20701,7 +20264,6 @@
       <c r="K372" s="13"/>
       <c r="L372" s="13"/>
       <c r="M372" s="13"/>
-      <c r="N372" s="13"/>
     </row>
     <row r="373">
       <c r="A373" s="13"/>
@@ -20717,7 +20279,6 @@
       <c r="K373" s="13"/>
       <c r="L373" s="13"/>
       <c r="M373" s="13"/>
-      <c r="N373" s="13"/>
     </row>
     <row r="374">
       <c r="A374" s="13"/>
@@ -20733,7 +20294,6 @@
       <c r="K374" s="13"/>
       <c r="L374" s="13"/>
       <c r="M374" s="13"/>
-      <c r="N374" s="13"/>
     </row>
     <row r="375">
       <c r="A375" s="13"/>
@@ -20749,7 +20309,6 @@
       <c r="K375" s="13"/>
       <c r="L375" s="13"/>
       <c r="M375" s="13"/>
-      <c r="N375" s="13"/>
     </row>
     <row r="376">
       <c r="A376" s="13"/>
@@ -20765,7 +20324,6 @@
       <c r="K376" s="13"/>
       <c r="L376" s="13"/>
       <c r="M376" s="13"/>
-      <c r="N376" s="13"/>
     </row>
     <row r="377">
       <c r="A377" s="13"/>
@@ -20781,7 +20339,6 @@
       <c r="K377" s="13"/>
       <c r="L377" s="13"/>
       <c r="M377" s="13"/>
-      <c r="N377" s="13"/>
     </row>
     <row r="378">
       <c r="A378" s="13"/>
@@ -20797,7 +20354,6 @@
       <c r="K378" s="13"/>
       <c r="L378" s="13"/>
       <c r="M378" s="13"/>
-      <c r="N378" s="13"/>
     </row>
     <row r="379">
       <c r="A379" s="13"/>
@@ -20813,7 +20369,6 @@
       <c r="K379" s="13"/>
       <c r="L379" s="13"/>
       <c r="M379" s="13"/>
-      <c r="N379" s="13"/>
     </row>
     <row r="380">
       <c r="A380" s="13"/>
@@ -20829,7 +20384,6 @@
       <c r="K380" s="13"/>
       <c r="L380" s="13"/>
       <c r="M380" s="13"/>
-      <c r="N380" s="13"/>
     </row>
     <row r="381">
       <c r="A381" s="13"/>
@@ -20845,7 +20399,6 @@
       <c r="K381" s="13"/>
       <c r="L381" s="13"/>
       <c r="M381" s="13"/>
-      <c r="N381" s="13"/>
     </row>
     <row r="382">
       <c r="A382" s="13"/>
@@ -20861,7 +20414,6 @@
       <c r="K382" s="13"/>
       <c r="L382" s="13"/>
       <c r="M382" s="13"/>
-      <c r="N382" s="13"/>
     </row>
     <row r="383">
       <c r="A383" s="13"/>
@@ -20877,7 +20429,6 @@
       <c r="K383" s="13"/>
       <c r="L383" s="13"/>
       <c r="M383" s="13"/>
-      <c r="N383" s="13"/>
     </row>
     <row r="384">
       <c r="A384" s="13"/>
@@ -20893,7 +20444,6 @@
       <c r="K384" s="13"/>
       <c r="L384" s="13"/>
       <c r="M384" s="13"/>
-      <c r="N384" s="13"/>
     </row>
     <row r="385">
       <c r="A385" s="13"/>
@@ -20909,7 +20459,6 @@
       <c r="K385" s="13"/>
       <c r="L385" s="13"/>
       <c r="M385" s="13"/>
-      <c r="N385" s="13"/>
     </row>
     <row r="386">
       <c r="A386" s="13"/>
@@ -20925,7 +20474,6 @@
       <c r="K386" s="13"/>
       <c r="L386" s="13"/>
       <c r="M386" s="13"/>
-      <c r="N386" s="13"/>
     </row>
     <row r="387">
       <c r="A387" s="13"/>
@@ -20941,7 +20489,6 @@
       <c r="K387" s="13"/>
       <c r="L387" s="13"/>
       <c r="M387" s="13"/>
-      <c r="N387" s="13"/>
     </row>
     <row r="388">
       <c r="A388" s="13"/>
@@ -20957,7 +20504,6 @@
       <c r="K388" s="13"/>
       <c r="L388" s="13"/>
       <c r="M388" s="13"/>
-      <c r="N388" s="13"/>
     </row>
     <row r="389">
       <c r="A389" s="13"/>
@@ -20973,7 +20519,6 @@
       <c r="K389" s="13"/>
       <c r="L389" s="13"/>
       <c r="M389" s="13"/>
-      <c r="N389" s="13"/>
     </row>
     <row r="390">
       <c r="A390" s="13"/>
@@ -20989,7 +20534,6 @@
       <c r="K390" s="13"/>
       <c r="L390" s="13"/>
       <c r="M390" s="13"/>
-      <c r="N390" s="13"/>
     </row>
     <row r="391">
       <c r="A391" s="13"/>
@@ -21005,7 +20549,6 @@
       <c r="K391" s="13"/>
       <c r="L391" s="13"/>
       <c r="M391" s="13"/>
-      <c r="N391" s="13"/>
     </row>
     <row r="392">
       <c r="A392" s="13"/>
@@ -21021,7 +20564,6 @@
       <c r="K392" s="13"/>
       <c r="L392" s="13"/>
       <c r="M392" s="13"/>
-      <c r="N392" s="13"/>
     </row>
     <row r="393">
       <c r="A393" s="13"/>
@@ -21037,7 +20579,6 @@
       <c r="K393" s="13"/>
       <c r="L393" s="13"/>
       <c r="M393" s="13"/>
-      <c r="N393" s="13"/>
     </row>
     <row r="394">
       <c r="A394" s="13"/>
@@ -21053,7 +20594,6 @@
       <c r="K394" s="13"/>
       <c r="L394" s="13"/>
       <c r="M394" s="13"/>
-      <c r="N394" s="13"/>
     </row>
     <row r="395">
       <c r="A395" s="13"/>
@@ -21069,7 +20609,6 @@
       <c r="K395" s="13"/>
       <c r="L395" s="13"/>
       <c r="M395" s="13"/>
-      <c r="N395" s="13"/>
     </row>
     <row r="396">
       <c r="A396" s="13"/>
@@ -21085,7 +20624,6 @@
       <c r="K396" s="13"/>
       <c r="L396" s="13"/>
       <c r="M396" s="13"/>
-      <c r="N396" s="13"/>
     </row>
     <row r="397">
       <c r="A397" s="13"/>
@@ -21101,7 +20639,6 @@
       <c r="K397" s="13"/>
       <c r="L397" s="13"/>
       <c r="M397" s="13"/>
-      <c r="N397" s="13"/>
     </row>
     <row r="398">
       <c r="A398" s="13"/>
@@ -21117,7 +20654,6 @@
       <c r="K398" s="13"/>
       <c r="L398" s="13"/>
       <c r="M398" s="13"/>
-      <c r="N398" s="13"/>
     </row>
     <row r="399">
       <c r="A399" s="13"/>
@@ -21133,7 +20669,6 @@
       <c r="K399" s="13"/>
       <c r="L399" s="13"/>
       <c r="M399" s="13"/>
-      <c r="N399" s="13"/>
     </row>
     <row r="400">
       <c r="A400" s="13"/>
@@ -21149,7 +20684,6 @@
       <c r="K400" s="13"/>
       <c r="L400" s="13"/>
       <c r="M400" s="13"/>
-      <c r="N400" s="13"/>
     </row>
     <row r="401">
       <c r="A401" s="13"/>
@@ -21165,7 +20699,6 @@
       <c r="K401" s="13"/>
       <c r="L401" s="13"/>
       <c r="M401" s="13"/>
-      <c r="N401" s="13"/>
     </row>
     <row r="402">
       <c r="A402" s="13"/>
@@ -21181,7 +20714,6 @@
       <c r="K402" s="13"/>
       <c r="L402" s="13"/>
       <c r="M402" s="13"/>
-      <c r="N402" s="13"/>
     </row>
     <row r="403">
       <c r="A403" s="13"/>
@@ -21197,7 +20729,6 @@
       <c r="K403" s="13"/>
       <c r="L403" s="13"/>
       <c r="M403" s="13"/>
-      <c r="N403" s="13"/>
     </row>
     <row r="404">
       <c r="A404" s="13"/>
@@ -21213,7 +20744,6 @@
       <c r="K404" s="13"/>
       <c r="L404" s="13"/>
       <c r="M404" s="13"/>
-      <c r="N404" s="13"/>
     </row>
     <row r="405">
       <c r="A405" s="13"/>
@@ -21229,7 +20759,6 @@
       <c r="K405" s="13"/>
       <c r="L405" s="13"/>
       <c r="M405" s="13"/>
-      <c r="N405" s="13"/>
     </row>
     <row r="406">
       <c r="A406" s="13"/>
@@ -21245,7 +20774,6 @@
       <c r="K406" s="13"/>
       <c r="L406" s="13"/>
       <c r="M406" s="13"/>
-      <c r="N406" s="13"/>
     </row>
     <row r="407">
       <c r="A407" s="13"/>
@@ -21261,7 +20789,6 @@
       <c r="K407" s="13"/>
       <c r="L407" s="13"/>
       <c r="M407" s="13"/>
-      <c r="N407" s="13"/>
     </row>
     <row r="408">
       <c r="A408" s="13"/>
@@ -21277,7 +20804,6 @@
       <c r="K408" s="13"/>
       <c r="L408" s="13"/>
       <c r="M408" s="13"/>
-      <c r="N408" s="13"/>
     </row>
     <row r="409">
       <c r="A409" s="13"/>
@@ -21293,7 +20819,6 @@
       <c r="K409" s="13"/>
       <c r="L409" s="13"/>
       <c r="M409" s="13"/>
-      <c r="N409" s="13"/>
     </row>
     <row r="410">
       <c r="A410" s="13"/>
@@ -21309,7 +20834,6 @@
       <c r="K410" s="13"/>
       <c r="L410" s="13"/>
       <c r="M410" s="13"/>
-      <c r="N410" s="13"/>
     </row>
     <row r="411">
       <c r="A411" s="13"/>
@@ -21325,7 +20849,6 @@
       <c r="K411" s="13"/>
       <c r="L411" s="13"/>
       <c r="M411" s="13"/>
-      <c r="N411" s="13"/>
     </row>
     <row r="412">
       <c r="A412" s="13"/>
@@ -21341,7 +20864,6 @@
       <c r="K412" s="13"/>
       <c r="L412" s="13"/>
       <c r="M412" s="13"/>
-      <c r="N412" s="13"/>
     </row>
     <row r="413">
       <c r="A413" s="13"/>
@@ -21357,7 +20879,6 @@
       <c r="K413" s="13"/>
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
-      <c r="N413" s="13"/>
     </row>
     <row r="414">
       <c r="A414" s="13"/>
@@ -21373,7 +20894,6 @@
       <c r="K414" s="13"/>
       <c r="L414" s="13"/>
       <c r="M414" s="13"/>
-      <c r="N414" s="13"/>
     </row>
     <row r="415">
       <c r="A415" s="13"/>
@@ -21389,7 +20909,6 @@
       <c r="K415" s="13"/>
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
-      <c r="N415" s="13"/>
     </row>
     <row r="416">
       <c r="A416" s="13"/>
@@ -21405,7 +20924,6 @@
       <c r="K416" s="13"/>
       <c r="L416" s="13"/>
       <c r="M416" s="13"/>
-      <c r="N416" s="13"/>
     </row>
     <row r="417">
       <c r="A417" s="13"/>
@@ -21421,7 +20939,6 @@
       <c r="K417" s="13"/>
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
-      <c r="N417" s="13"/>
     </row>
     <row r="418">
       <c r="A418" s="13"/>
@@ -21437,7 +20954,6 @@
       <c r="K418" s="13"/>
       <c r="L418" s="13"/>
       <c r="M418" s="13"/>
-      <c r="N418" s="13"/>
     </row>
     <row r="419">
       <c r="A419" s="13"/>
@@ -21453,7 +20969,6 @@
       <c r="K419" s="13"/>
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
-      <c r="N419" s="13"/>
     </row>
     <row r="420">
       <c r="A420" s="13"/>
@@ -21469,7 +20984,6 @@
       <c r="K420" s="13"/>
       <c r="L420" s="13"/>
       <c r="M420" s="13"/>
-      <c r="N420" s="13"/>
     </row>
     <row r="421">
       <c r="A421" s="13"/>
@@ -21485,7 +20999,6 @@
       <c r="K421" s="13"/>
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
-      <c r="N421" s="13"/>
     </row>
     <row r="422">
       <c r="A422" s="13"/>
@@ -21501,7 +21014,6 @@
       <c r="K422" s="13"/>
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
-      <c r="N422" s="13"/>
     </row>
     <row r="423">
       <c r="A423" s="13"/>
@@ -21517,7 +21029,6 @@
       <c r="K423" s="13"/>
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
-      <c r="N423" s="13"/>
     </row>
     <row r="424">
       <c r="A424" s="13"/>
@@ -21533,7 +21044,6 @@
       <c r="K424" s="13"/>
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
-      <c r="N424" s="13"/>
     </row>
     <row r="425">
       <c r="A425" s="13"/>
@@ -21549,7 +21059,6 @@
       <c r="K425" s="13"/>
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
-      <c r="N425" s="13"/>
     </row>
     <row r="426">
       <c r="A426" s="13"/>
@@ -21565,7 +21074,6 @@
       <c r="K426" s="13"/>
       <c r="L426" s="13"/>
       <c r="M426" s="13"/>
-      <c r="N426" s="13"/>
     </row>
     <row r="427">
       <c r="A427" s="13"/>
@@ -21581,7 +21089,6 @@
       <c r="K427" s="13"/>
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
-      <c r="N427" s="13"/>
     </row>
     <row r="428">
       <c r="A428" s="13"/>
@@ -21597,7 +21104,6 @@
       <c r="K428" s="13"/>
       <c r="L428" s="13"/>
       <c r="M428" s="13"/>
-      <c r="N428" s="13"/>
     </row>
     <row r="429">
       <c r="A429" s="13"/>
@@ -21613,7 +21119,6 @@
       <c r="K429" s="13"/>
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
-      <c r="N429" s="13"/>
     </row>
     <row r="430">
       <c r="A430" s="13"/>
@@ -21629,7 +21134,6 @@
       <c r="K430" s="13"/>
       <c r="L430" s="13"/>
       <c r="M430" s="13"/>
-      <c r="N430" s="13"/>
     </row>
     <row r="431">
       <c r="A431" s="13"/>
@@ -21645,7 +21149,6 @@
       <c r="K431" s="13"/>
       <c r="L431" s="13"/>
       <c r="M431" s="13"/>
-      <c r="N431" s="13"/>
     </row>
     <row r="432">
       <c r="A432" s="13"/>
@@ -21661,7 +21164,6 @@
       <c r="K432" s="13"/>
       <c r="L432" s="13"/>
       <c r="M432" s="13"/>
-      <c r="N432" s="13"/>
     </row>
     <row r="433">
       <c r="A433" s="13"/>
@@ -21677,7 +21179,6 @@
       <c r="K433" s="13"/>
       <c r="L433" s="13"/>
       <c r="M433" s="13"/>
-      <c r="N433" s="13"/>
     </row>
     <row r="434">
       <c r="A434" s="13"/>
@@ -21693,7 +21194,6 @@
       <c r="K434" s="13"/>
       <c r="L434" s="13"/>
       <c r="M434" s="13"/>
-      <c r="N434" s="13"/>
     </row>
     <row r="435">
       <c r="A435" s="13"/>
@@ -21709,7 +21209,6 @@
       <c r="K435" s="13"/>
       <c r="L435" s="13"/>
       <c r="M435" s="13"/>
-      <c r="N435" s="13"/>
     </row>
     <row r="436">
       <c r="A436" s="13"/>
@@ -21725,7 +21224,6 @@
       <c r="K436" s="13"/>
       <c r="L436" s="13"/>
       <c r="M436" s="13"/>
-      <c r="N436" s="13"/>
     </row>
     <row r="437">
       <c r="A437" s="13"/>
@@ -21741,7 +21239,6 @@
       <c r="K437" s="13"/>
       <c r="L437" s="13"/>
       <c r="M437" s="13"/>
-      <c r="N437" s="13"/>
     </row>
     <row r="438">
       <c r="A438" s="13"/>
@@ -21757,7 +21254,6 @@
       <c r="K438" s="13"/>
       <c r="L438" s="13"/>
       <c r="M438" s="13"/>
-      <c r="N438" s="13"/>
     </row>
     <row r="439">
       <c r="A439" s="13"/>
@@ -21773,7 +21269,6 @@
       <c r="K439" s="13"/>
       <c r="L439" s="13"/>
       <c r="M439" s="13"/>
-      <c r="N439" s="13"/>
     </row>
     <row r="440">
       <c r="A440" s="13"/>
@@ -21789,7 +21284,6 @@
       <c r="K440" s="13"/>
       <c r="L440" s="13"/>
       <c r="M440" s="13"/>
-      <c r="N440" s="13"/>
     </row>
     <row r="441">
       <c r="A441" s="13"/>
@@ -21805,7 +21299,6 @@
       <c r="K441" s="13"/>
       <c r="L441" s="13"/>
       <c r="M441" s="13"/>
-      <c r="N441" s="13"/>
     </row>
     <row r="442">
       <c r="A442" s="13"/>
@@ -21821,7 +21314,6 @@
       <c r="K442" s="13"/>
       <c r="L442" s="13"/>
       <c r="M442" s="13"/>
-      <c r="N442" s="13"/>
     </row>
     <row r="443">
       <c r="A443" s="13"/>
@@ -21837,7 +21329,6 @@
       <c r="K443" s="13"/>
       <c r="L443" s="13"/>
       <c r="M443" s="13"/>
-      <c r="N443" s="13"/>
     </row>
     <row r="444">
       <c r="A444" s="13"/>
@@ -21853,7 +21344,6 @@
       <c r="K444" s="13"/>
       <c r="L444" s="13"/>
       <c r="M444" s="13"/>
-      <c r="N444" s="13"/>
     </row>
     <row r="445">
       <c r="A445" s="13"/>
@@ -21869,7 +21359,6 @@
       <c r="K445" s="13"/>
       <c r="L445" s="13"/>
       <c r="M445" s="13"/>
-      <c r="N445" s="13"/>
     </row>
     <row r="446">
       <c r="A446" s="13"/>
@@ -21885,7 +21374,6 @@
       <c r="K446" s="13"/>
       <c r="L446" s="13"/>
       <c r="M446" s="13"/>
-      <c r="N446" s="13"/>
     </row>
     <row r="447">
       <c r="A447" s="13"/>
@@ -21901,7 +21389,6 @@
       <c r="K447" s="13"/>
       <c r="L447" s="13"/>
       <c r="M447" s="13"/>
-      <c r="N447" s="13"/>
     </row>
     <row r="448">
       <c r="A448" s="13"/>
@@ -21917,7 +21404,6 @@
       <c r="K448" s="13"/>
       <c r="L448" s="13"/>
       <c r="M448" s="13"/>
-      <c r="N448" s="13"/>
     </row>
     <row r="449">
       <c r="A449" s="13"/>
@@ -21933,7 +21419,6 @@
       <c r="K449" s="13"/>
       <c r="L449" s="13"/>
       <c r="M449" s="13"/>
-      <c r="N449" s="13"/>
     </row>
     <row r="450">
       <c r="A450" s="13"/>
@@ -21949,7 +21434,6 @@
       <c r="K450" s="13"/>
       <c r="L450" s="13"/>
       <c r="M450" s="13"/>
-      <c r="N450" s="13"/>
     </row>
     <row r="451">
       <c r="A451" s="13"/>
@@ -21965,7 +21449,6 @@
       <c r="K451" s="13"/>
       <c r="L451" s="13"/>
       <c r="M451" s="13"/>
-      <c r="N451" s="13"/>
     </row>
     <row r="452">
       <c r="A452" s="13"/>
@@ -21981,7 +21464,6 @@
       <c r="K452" s="13"/>
       <c r="L452" s="13"/>
       <c r="M452" s="13"/>
-      <c r="N452" s="13"/>
     </row>
     <row r="453">
       <c r="A453" s="13"/>
@@ -21997,7 +21479,6 @@
       <c r="K453" s="13"/>
       <c r="L453" s="13"/>
       <c r="M453" s="13"/>
-      <c r="N453" s="13"/>
     </row>
     <row r="454">
       <c r="A454" s="13"/>
@@ -22013,7 +21494,6 @@
       <c r="K454" s="13"/>
       <c r="L454" s="13"/>
       <c r="M454" s="13"/>
-      <c r="N454" s="13"/>
     </row>
     <row r="455">
       <c r="A455" s="13"/>
@@ -22029,7 +21509,6 @@
       <c r="K455" s="13"/>
       <c r="L455" s="13"/>
       <c r="M455" s="13"/>
-      <c r="N455" s="13"/>
     </row>
     <row r="456">
       <c r="A456" s="13"/>
@@ -22045,7 +21524,6 @@
       <c r="K456" s="13"/>
       <c r="L456" s="13"/>
       <c r="M456" s="13"/>
-      <c r="N456" s="13"/>
     </row>
     <row r="457">
       <c r="A457" s="13"/>
@@ -22061,7 +21539,6 @@
       <c r="K457" s="13"/>
       <c r="L457" s="13"/>
       <c r="M457" s="13"/>
-      <c r="N457" s="13"/>
     </row>
     <row r="458">
       <c r="A458" s="13"/>
@@ -22077,7 +21554,6 @@
       <c r="K458" s="13"/>
       <c r="L458" s="13"/>
       <c r="M458" s="13"/>
-      <c r="N458" s="13"/>
     </row>
     <row r="459">
       <c r="A459" s="13"/>
@@ -22093,7 +21569,6 @@
       <c r="K459" s="13"/>
       <c r="L459" s="13"/>
       <c r="M459" s="13"/>
-      <c r="N459" s="13"/>
     </row>
     <row r="460">
       <c r="A460" s="13"/>
@@ -22109,7 +21584,6 @@
       <c r="K460" s="13"/>
       <c r="L460" s="13"/>
       <c r="M460" s="13"/>
-      <c r="N460" s="13"/>
     </row>
     <row r="461">
       <c r="A461" s="13"/>
@@ -22125,7 +21599,6 @@
       <c r="K461" s="13"/>
       <c r="L461" s="13"/>
       <c r="M461" s="13"/>
-      <c r="N461" s="13"/>
     </row>
     <row r="462">
       <c r="A462" s="13"/>
@@ -22141,7 +21614,6 @@
       <c r="K462" s="13"/>
       <c r="L462" s="13"/>
       <c r="M462" s="13"/>
-      <c r="N462" s="13"/>
     </row>
     <row r="463">
       <c r="A463" s="13"/>
@@ -22157,7 +21629,6 @@
       <c r="K463" s="13"/>
       <c r="L463" s="13"/>
       <c r="M463" s="13"/>
-      <c r="N463" s="13"/>
     </row>
     <row r="464">
       <c r="A464" s="13"/>
@@ -22173,7 +21644,6 @@
       <c r="K464" s="13"/>
       <c r="L464" s="13"/>
       <c r="M464" s="13"/>
-      <c r="N464" s="13"/>
     </row>
     <row r="465">
       <c r="A465" s="13"/>
@@ -22189,7 +21659,6 @@
       <c r="K465" s="13"/>
       <c r="L465" s="13"/>
       <c r="M465" s="13"/>
-      <c r="N465" s="13"/>
     </row>
     <row r="466">
       <c r="A466" s="13"/>
@@ -22205,7 +21674,6 @@
       <c r="K466" s="13"/>
       <c r="L466" s="13"/>
       <c r="M466" s="13"/>
-      <c r="N466" s="13"/>
     </row>
     <row r="467">
       <c r="A467" s="13"/>
@@ -22221,7 +21689,6 @@
       <c r="K467" s="13"/>
       <c r="L467" s="13"/>
       <c r="M467" s="13"/>
-      <c r="N467" s="13"/>
     </row>
     <row r="468">
       <c r="A468" s="13"/>
@@ -22237,7 +21704,6 @@
       <c r="K468" s="13"/>
       <c r="L468" s="13"/>
       <c r="M468" s="13"/>
-      <c r="N468" s="13"/>
     </row>
     <row r="469">
       <c r="A469" s="13"/>
@@ -22253,7 +21719,6 @@
       <c r="K469" s="13"/>
       <c r="L469" s="13"/>
       <c r="M469" s="13"/>
-      <c r="N469" s="13"/>
     </row>
     <row r="470">
       <c r="A470" s="13"/>
@@ -22269,7 +21734,6 @@
       <c r="K470" s="13"/>
       <c r="L470" s="13"/>
       <c r="M470" s="13"/>
-      <c r="N470" s="13"/>
     </row>
     <row r="471">
       <c r="A471" s="13"/>
@@ -22285,7 +21749,6 @@
       <c r="K471" s="13"/>
       <c r="L471" s="13"/>
       <c r="M471" s="13"/>
-      <c r="N471" s="13"/>
     </row>
     <row r="472">
       <c r="A472" s="13"/>
@@ -22301,7 +21764,6 @@
       <c r="K472" s="13"/>
       <c r="L472" s="13"/>
       <c r="M472" s="13"/>
-      <c r="N472" s="13"/>
     </row>
     <row r="473">
       <c r="A473" s="13"/>
@@ -22317,7 +21779,6 @@
       <c r="K473" s="13"/>
       <c r="L473" s="13"/>
       <c r="M473" s="13"/>
-      <c r="N473" s="13"/>
     </row>
     <row r="474">
       <c r="A474" s="13"/>
@@ -22333,7 +21794,6 @@
       <c r="K474" s="13"/>
       <c r="L474" s="13"/>
       <c r="M474" s="13"/>
-      <c r="N474" s="13"/>
     </row>
     <row r="475">
       <c r="A475" s="13"/>
@@ -22349,7 +21809,6 @@
       <c r="K475" s="13"/>
       <c r="L475" s="13"/>
       <c r="M475" s="13"/>
-      <c r="N475" s="13"/>
     </row>
     <row r="476">
       <c r="A476" s="13"/>
@@ -22365,7 +21824,6 @@
       <c r="K476" s="13"/>
       <c r="L476" s="13"/>
       <c r="M476" s="13"/>
-      <c r="N476" s="13"/>
     </row>
     <row r="477">
       <c r="A477" s="13"/>
@@ -22381,7 +21839,6 @@
       <c r="K477" s="13"/>
       <c r="L477" s="13"/>
       <c r="M477" s="13"/>
-      <c r="N477" s="13"/>
     </row>
     <row r="478">
       <c r="A478" s="13"/>
@@ -22397,7 +21854,6 @@
       <c r="K478" s="13"/>
       <c r="L478" s="13"/>
       <c r="M478" s="13"/>
-      <c r="N478" s="13"/>
     </row>
     <row r="479">
       <c r="A479" s="13"/>
@@ -22413,7 +21869,6 @@
       <c r="K479" s="13"/>
       <c r="L479" s="13"/>
       <c r="M479" s="13"/>
-      <c r="N479" s="13"/>
     </row>
     <row r="480">
       <c r="A480" s="13"/>
@@ -22429,7 +21884,6 @@
       <c r="K480" s="13"/>
       <c r="L480" s="13"/>
       <c r="M480" s="13"/>
-      <c r="N480" s="13"/>
     </row>
     <row r="481">
       <c r="A481" s="13"/>
@@ -22445,7 +21899,6 @@
       <c r="K481" s="13"/>
       <c r="L481" s="13"/>
       <c r="M481" s="13"/>
-      <c r="N481" s="13"/>
     </row>
     <row r="482">
       <c r="A482" s="13"/>
@@ -22461,7 +21914,6 @@
       <c r="K482" s="13"/>
       <c r="L482" s="13"/>
       <c r="M482" s="13"/>
-      <c r="N482" s="13"/>
     </row>
     <row r="483">
       <c r="A483" s="13"/>
@@ -22477,7 +21929,6 @@
       <c r="K483" s="13"/>
       <c r="L483" s="13"/>
       <c r="M483" s="13"/>
-      <c r="N483" s="13"/>
     </row>
     <row r="484">
       <c r="A484" s="13"/>
@@ -22493,7 +21944,6 @@
       <c r="K484" s="13"/>
       <c r="L484" s="13"/>
       <c r="M484" s="13"/>
-      <c r="N484" s="13"/>
     </row>
     <row r="485">
       <c r="A485" s="13"/>
@@ -22509,7 +21959,6 @@
       <c r="K485" s="13"/>
       <c r="L485" s="13"/>
       <c r="M485" s="13"/>
-      <c r="N485" s="13"/>
     </row>
     <row r="486">
       <c r="A486" s="13"/>
@@ -22525,7 +21974,6 @@
       <c r="K486" s="13"/>
       <c r="L486" s="13"/>
       <c r="M486" s="13"/>
-      <c r="N486" s="13"/>
     </row>
     <row r="487">
       <c r="A487" s="13"/>
@@ -22541,7 +21989,6 @@
       <c r="K487" s="13"/>
       <c r="L487" s="13"/>
       <c r="M487" s="13"/>
-      <c r="N487" s="13"/>
     </row>
     <row r="488">
       <c r="A488" s="13"/>
@@ -22557,7 +22004,6 @@
       <c r="K488" s="13"/>
       <c r="L488" s="13"/>
       <c r="M488" s="13"/>
-      <c r="N488" s="13"/>
     </row>
     <row r="489">
       <c r="A489" s="13"/>
@@ -22573,7 +22019,6 @@
       <c r="K489" s="13"/>
       <c r="L489" s="13"/>
       <c r="M489" s="13"/>
-      <c r="N489" s="13"/>
     </row>
     <row r="490">
       <c r="A490" s="13"/>
@@ -22589,7 +22034,6 @@
       <c r="K490" s="13"/>
       <c r="L490" s="13"/>
       <c r="M490" s="13"/>
-      <c r="N490" s="13"/>
     </row>
     <row r="491">
       <c r="A491" s="13"/>
@@ -22605,7 +22049,6 @@
       <c r="K491" s="13"/>
       <c r="L491" s="13"/>
       <c r="M491" s="13"/>
-      <c r="N491" s="13"/>
     </row>
     <row r="492">
       <c r="A492" s="13"/>
@@ -22621,7 +22064,6 @@
       <c r="K492" s="13"/>
       <c r="L492" s="13"/>
       <c r="M492" s="13"/>
-      <c r="N492" s="13"/>
     </row>
     <row r="493">
       <c r="A493" s="13"/>
@@ -22637,7 +22079,6 @@
       <c r="K493" s="13"/>
       <c r="L493" s="13"/>
       <c r="M493" s="13"/>
-      <c r="N493" s="13"/>
     </row>
     <row r="494">
       <c r="A494" s="13"/>
@@ -22653,7 +22094,6 @@
       <c r="K494" s="13"/>
       <c r="L494" s="13"/>
       <c r="M494" s="13"/>
-      <c r="N494" s="13"/>
     </row>
     <row r="495">
       <c r="A495" s="13"/>
@@ -22669,7 +22109,6 @@
       <c r="K495" s="13"/>
       <c r="L495" s="13"/>
       <c r="M495" s="13"/>
-      <c r="N495" s="13"/>
     </row>
     <row r="496">
       <c r="A496" s="13"/>
@@ -22685,7 +22124,6 @@
       <c r="K496" s="13"/>
       <c r="L496" s="13"/>
       <c r="M496" s="13"/>
-      <c r="N496" s="13"/>
     </row>
     <row r="497">
       <c r="A497" s="13"/>
@@ -22701,7 +22139,6 @@
       <c r="K497" s="13"/>
       <c r="L497" s="13"/>
       <c r="M497" s="13"/>
-      <c r="N497" s="13"/>
     </row>
     <row r="498">
       <c r="A498" s="13"/>
@@ -22717,7 +22154,6 @@
       <c r="K498" s="13"/>
       <c r="L498" s="13"/>
       <c r="M498" s="13"/>
-      <c r="N498" s="13"/>
     </row>
     <row r="499">
       <c r="A499" s="13"/>
@@ -22733,7 +22169,6 @@
       <c r="K499" s="13"/>
       <c r="L499" s="13"/>
       <c r="M499" s="13"/>
-      <c r="N499" s="13"/>
     </row>
     <row r="500">
       <c r="A500" s="13"/>
@@ -22749,7 +22184,6 @@
       <c r="K500" s="13"/>
       <c r="L500" s="13"/>
       <c r="M500" s="13"/>
-      <c r="N500" s="13"/>
     </row>
     <row r="501">
       <c r="A501" s="13"/>
@@ -22765,7 +22199,6 @@
       <c r="K501" s="13"/>
       <c r="L501" s="13"/>
       <c r="M501" s="13"/>
-      <c r="N501" s="13"/>
     </row>
     <row r="502">
       <c r="A502" s="13"/>
@@ -22781,7 +22214,6 @@
       <c r="K502" s="13"/>
       <c r="L502" s="13"/>
       <c r="M502" s="13"/>
-      <c r="N502" s="13"/>
     </row>
     <row r="503">
       <c r="A503" s="13"/>
@@ -22797,7 +22229,6 @@
       <c r="K503" s="13"/>
       <c r="L503" s="13"/>
       <c r="M503" s="13"/>
-      <c r="N503" s="13"/>
     </row>
     <row r="504">
       <c r="A504" s="13"/>
@@ -22813,7 +22244,6 @@
       <c r="K504" s="13"/>
       <c r="L504" s="13"/>
       <c r="M504" s="13"/>
-      <c r="N504" s="13"/>
     </row>
     <row r="505">
       <c r="A505" s="13"/>
@@ -22829,7 +22259,6 @@
       <c r="K505" s="13"/>
       <c r="L505" s="13"/>
       <c r="M505" s="13"/>
-      <c r="N505" s="13"/>
     </row>
     <row r="506">
       <c r="A506" s="13"/>
@@ -22845,7 +22274,6 @@
       <c r="K506" s="13"/>
       <c r="L506" s="13"/>
       <c r="M506" s="13"/>
-      <c r="N506" s="13"/>
     </row>
     <row r="507">
       <c r="A507" s="13"/>
@@ -22861,7 +22289,6 @@
       <c r="K507" s="13"/>
       <c r="L507" s="13"/>
       <c r="M507" s="13"/>
-      <c r="N507" s="13"/>
     </row>
     <row r="508">
       <c r="A508" s="13"/>
@@ -22877,7 +22304,6 @@
       <c r="K508" s="13"/>
       <c r="L508" s="13"/>
       <c r="M508" s="13"/>
-      <c r="N508" s="13"/>
     </row>
     <row r="509">
       <c r="A509" s="13"/>
@@ -22893,7 +22319,6 @@
       <c r="K509" s="13"/>
       <c r="L509" s="13"/>
       <c r="M509" s="13"/>
-      <c r="N509" s="13"/>
     </row>
     <row r="510">
       <c r="A510" s="13"/>
@@ -22909,7 +22334,6 @@
       <c r="K510" s="13"/>
       <c r="L510" s="13"/>
       <c r="M510" s="13"/>
-      <c r="N510" s="13"/>
     </row>
     <row r="511">
       <c r="A511" s="13"/>
@@ -22925,7 +22349,6 @@
       <c r="K511" s="13"/>
       <c r="L511" s="13"/>
       <c r="M511" s="13"/>
-      <c r="N511" s="13"/>
     </row>
     <row r="512">
       <c r="A512" s="13"/>
@@ -22941,7 +22364,6 @@
       <c r="K512" s="13"/>
       <c r="L512" s="13"/>
       <c r="M512" s="13"/>
-      <c r="N512" s="13"/>
     </row>
     <row r="513">
       <c r="A513" s="13"/>
@@ -22957,7 +22379,6 @@
       <c r="K513" s="13"/>
       <c r="L513" s="13"/>
       <c r="M513" s="13"/>
-      <c r="N513" s="13"/>
     </row>
     <row r="514">
       <c r="A514" s="13"/>
@@ -22973,7 +22394,6 @@
       <c r="K514" s="13"/>
       <c r="L514" s="13"/>
       <c r="M514" s="13"/>
-      <c r="N514" s="13"/>
     </row>
     <row r="515">
       <c r="A515" s="13"/>
@@ -22989,7 +22409,6 @@
       <c r="K515" s="13"/>
       <c r="L515" s="13"/>
       <c r="M515" s="13"/>
-      <c r="N515" s="13"/>
     </row>
     <row r="516">
       <c r="A516" s="13"/>
@@ -23005,7 +22424,6 @@
       <c r="K516" s="13"/>
       <c r="L516" s="13"/>
       <c r="M516" s="13"/>
-      <c r="N516" s="13"/>
     </row>
     <row r="517">
       <c r="A517" s="13"/>
@@ -23021,7 +22439,6 @@
       <c r="K517" s="13"/>
       <c r="L517" s="13"/>
       <c r="M517" s="13"/>
-      <c r="N517" s="13"/>
     </row>
     <row r="518">
       <c r="A518" s="13"/>
@@ -23037,7 +22454,6 @@
       <c r="K518" s="13"/>
       <c r="L518" s="13"/>
       <c r="M518" s="13"/>
-      <c r="N518" s="13"/>
     </row>
     <row r="519">
       <c r="A519" s="13"/>
@@ -23053,7 +22469,6 @@
       <c r="K519" s="13"/>
       <c r="L519" s="13"/>
       <c r="M519" s="13"/>
-      <c r="N519" s="13"/>
     </row>
     <row r="520">
       <c r="A520" s="13"/>
@@ -23069,7 +22484,6 @@
       <c r="K520" s="13"/>
       <c r="L520" s="13"/>
       <c r="M520" s="13"/>
-      <c r="N520" s="13"/>
     </row>
     <row r="521">
       <c r="A521" s="13"/>
@@ -23085,7 +22499,6 @@
       <c r="K521" s="13"/>
       <c r="L521" s="13"/>
       <c r="M521" s="13"/>
-      <c r="N521" s="13"/>
     </row>
     <row r="522">
       <c r="A522" s="13"/>
@@ -23101,7 +22514,6 @@
       <c r="K522" s="13"/>
       <c r="L522" s="13"/>
       <c r="M522" s="13"/>
-      <c r="N522" s="13"/>
     </row>
     <row r="523">
       <c r="A523" s="13"/>
@@ -23117,7 +22529,6 @@
       <c r="K523" s="13"/>
       <c r="L523" s="13"/>
       <c r="M523" s="13"/>
-      <c r="N523" s="13"/>
     </row>
     <row r="524">
       <c r="A524" s="13"/>
@@ -23133,7 +22544,6 @@
       <c r="K524" s="13"/>
       <c r="L524" s="13"/>
       <c r="M524" s="13"/>
-      <c r="N524" s="13"/>
     </row>
     <row r="525">
       <c r="A525" s="13"/>
@@ -23149,7 +22559,6 @@
       <c r="K525" s="13"/>
       <c r="L525" s="13"/>
       <c r="M525" s="13"/>
-      <c r="N525" s="13"/>
     </row>
     <row r="526">
       <c r="A526" s="13"/>
@@ -23165,7 +22574,6 @@
       <c r="K526" s="13"/>
       <c r="L526" s="13"/>
       <c r="M526" s="13"/>
-      <c r="N526" s="13"/>
     </row>
     <row r="527">
       <c r="A527" s="13"/>
@@ -23181,7 +22589,6 @@
       <c r="K527" s="13"/>
       <c r="L527" s="13"/>
       <c r="M527" s="13"/>
-      <c r="N527" s="13"/>
     </row>
     <row r="528">
       <c r="A528" s="13"/>
@@ -23197,7 +22604,6 @@
       <c r="K528" s="13"/>
       <c r="L528" s="13"/>
       <c r="M528" s="13"/>
-      <c r="N528" s="13"/>
     </row>
     <row r="529">
       <c r="A529" s="13"/>
@@ -23213,7 +22619,6 @@
       <c r="K529" s="13"/>
       <c r="L529" s="13"/>
       <c r="M529" s="13"/>
-      <c r="N529" s="13"/>
     </row>
     <row r="530">
       <c r="A530" s="13"/>
@@ -23229,7 +22634,6 @@
       <c r="K530" s="13"/>
       <c r="L530" s="13"/>
       <c r="M530" s="13"/>
-      <c r="N530" s="13"/>
     </row>
     <row r="531">
       <c r="A531" s="13"/>
@@ -23245,7 +22649,6 @@
       <c r="K531" s="13"/>
       <c r="L531" s="13"/>
       <c r="M531" s="13"/>
-      <c r="N531" s="13"/>
     </row>
     <row r="532">
       <c r="A532" s="13"/>
@@ -23261,7 +22664,6 @@
       <c r="K532" s="13"/>
       <c r="L532" s="13"/>
       <c r="M532" s="13"/>
-      <c r="N532" s="13"/>
     </row>
     <row r="533">
       <c r="A533" s="13"/>
@@ -23277,7 +22679,6 @@
       <c r="K533" s="13"/>
       <c r="L533" s="13"/>
       <c r="M533" s="13"/>
-      <c r="N533" s="13"/>
     </row>
     <row r="534">
       <c r="A534" s="13"/>
@@ -23293,7 +22694,6 @@
       <c r="K534" s="13"/>
       <c r="L534" s="13"/>
       <c r="M534" s="13"/>
-      <c r="N534" s="13"/>
     </row>
     <row r="535">
       <c r="A535" s="13"/>
@@ -23309,7 +22709,6 @@
       <c r="K535" s="13"/>
       <c r="L535" s="13"/>
       <c r="M535" s="13"/>
-      <c r="N535" s="13"/>
     </row>
     <row r="536">
       <c r="A536" s="13"/>
@@ -23325,7 +22724,6 @@
       <c r="K536" s="13"/>
       <c r="L536" s="13"/>
       <c r="M536" s="13"/>
-      <c r="N536" s="13"/>
     </row>
     <row r="537">
       <c r="A537" s="13"/>
@@ -23341,7 +22739,6 @@
       <c r="K537" s="13"/>
       <c r="L537" s="13"/>
       <c r="M537" s="13"/>
-      <c r="N537" s="13"/>
     </row>
     <row r="538">
       <c r="A538" s="13"/>
@@ -23357,7 +22754,6 @@
       <c r="K538" s="13"/>
       <c r="L538" s="13"/>
       <c r="M538" s="13"/>
-      <c r="N538" s="13"/>
     </row>
     <row r="539">
       <c r="A539" s="13"/>
@@ -23373,7 +22769,6 @@
       <c r="K539" s="13"/>
       <c r="L539" s="13"/>
       <c r="M539" s="13"/>
-      <c r="N539" s="13"/>
     </row>
     <row r="540">
       <c r="A540" s="13"/>
@@ -23389,7 +22784,6 @@
       <c r="K540" s="13"/>
       <c r="L540" s="13"/>
       <c r="M540" s="13"/>
-      <c r="N540" s="13"/>
     </row>
     <row r="541">
       <c r="A541" s="13"/>
@@ -23405,7 +22799,6 @@
       <c r="K541" s="13"/>
       <c r="L541" s="13"/>
       <c r="M541" s="13"/>
-      <c r="N541" s="13"/>
     </row>
     <row r="542">
       <c r="A542" s="13"/>
@@ -23421,7 +22814,6 @@
       <c r="K542" s="13"/>
       <c r="L542" s="13"/>
       <c r="M542" s="13"/>
-      <c r="N542" s="13"/>
     </row>
     <row r="543">
       <c r="A543" s="13"/>
@@ -23437,7 +22829,6 @@
       <c r="K543" s="13"/>
       <c r="L543" s="13"/>
       <c r="M543" s="13"/>
-      <c r="N543" s="13"/>
     </row>
     <row r="544">
       <c r="A544" s="13"/>
@@ -23453,7 +22844,6 @@
       <c r="K544" s="13"/>
       <c r="L544" s="13"/>
       <c r="M544" s="13"/>
-      <c r="N544" s="13"/>
     </row>
     <row r="545">
       <c r="A545" s="13"/>
@@ -23469,7 +22859,6 @@
       <c r="K545" s="13"/>
       <c r="L545" s="13"/>
       <c r="M545" s="13"/>
-      <c r="N545" s="13"/>
     </row>
     <row r="546">
       <c r="A546" s="13"/>
@@ -23485,7 +22874,6 @@
       <c r="K546" s="13"/>
       <c r="L546" s="13"/>
       <c r="M546" s="13"/>
-      <c r="N546" s="13"/>
     </row>
     <row r="547">
       <c r="A547" s="13"/>
@@ -23501,7 +22889,6 @@
       <c r="K547" s="13"/>
       <c r="L547" s="13"/>
       <c r="M547" s="13"/>
-      <c r="N547" s="13"/>
     </row>
     <row r="548">
       <c r="A548" s="13"/>
@@ -23517,7 +22904,6 @@
       <c r="K548" s="13"/>
       <c r="L548" s="13"/>
       <c r="M548" s="13"/>
-      <c r="N548" s="13"/>
     </row>
     <row r="549">
       <c r="A549" s="13"/>
@@ -23533,7 +22919,6 @@
       <c r="K549" s="13"/>
       <c r="L549" s="13"/>
       <c r="M549" s="13"/>
-      <c r="N549" s="13"/>
     </row>
     <row r="550">
       <c r="A550" s="13"/>
@@ -23549,7 +22934,6 @@
       <c r="K550" s="13"/>
       <c r="L550" s="13"/>
       <c r="M550" s="13"/>
-      <c r="N550" s="13"/>
     </row>
     <row r="551">
       <c r="A551" s="13"/>
@@ -23565,7 +22949,6 @@
       <c r="K551" s="13"/>
       <c r="L551" s="13"/>
       <c r="M551" s="13"/>
-      <c r="N551" s="13"/>
     </row>
     <row r="552">
       <c r="A552" s="13"/>
@@ -23581,7 +22964,6 @@
       <c r="K552" s="13"/>
       <c r="L552" s="13"/>
       <c r="M552" s="13"/>
-      <c r="N552" s="13"/>
     </row>
     <row r="553">
       <c r="A553" s="13"/>
@@ -23597,7 +22979,6 @@
       <c r="K553" s="13"/>
       <c r="L553" s="13"/>
       <c r="M553" s="13"/>
-      <c r="N553" s="13"/>
     </row>
     <row r="554">
       <c r="A554" s="13"/>
@@ -23613,7 +22994,6 @@
       <c r="K554" s="13"/>
       <c r="L554" s="13"/>
       <c r="M554" s="13"/>
-      <c r="N554" s="13"/>
     </row>
     <row r="555">
       <c r="A555" s="13"/>
@@ -23629,7 +23009,6 @@
       <c r="K555" s="13"/>
       <c r="L555" s="13"/>
       <c r="M555" s="13"/>
-      <c r="N555" s="13"/>
     </row>
     <row r="556">
       <c r="A556" s="13"/>
@@ -23645,7 +23024,6 @@
       <c r="K556" s="13"/>
       <c r="L556" s="13"/>
       <c r="M556" s="13"/>
-      <c r="N556" s="13"/>
     </row>
     <row r="557">
       <c r="A557" s="13"/>
@@ -23661,7 +23039,6 @@
       <c r="K557" s="13"/>
       <c r="L557" s="13"/>
       <c r="M557" s="13"/>
-      <c r="N557" s="13"/>
     </row>
     <row r="558">
       <c r="A558" s="13"/>
@@ -23677,7 +23054,6 @@
       <c r="K558" s="13"/>
       <c r="L558" s="13"/>
       <c r="M558" s="13"/>
-      <c r="N558" s="13"/>
     </row>
     <row r="559">
       <c r="A559" s="13"/>
@@ -23693,7 +23069,6 @@
       <c r="K559" s="13"/>
       <c r="L559" s="13"/>
       <c r="M559" s="13"/>
-      <c r="N559" s="13"/>
     </row>
     <row r="560">
       <c r="A560" s="13"/>
@@ -23709,7 +23084,6 @@
       <c r="K560" s="13"/>
       <c r="L560" s="13"/>
       <c r="M560" s="13"/>
-      <c r="N560" s="13"/>
     </row>
     <row r="561">
       <c r="A561" s="13"/>
@@ -23725,7 +23099,6 @@
       <c r="K561" s="13"/>
       <c r="L561" s="13"/>
       <c r="M561" s="13"/>
-      <c r="N561" s="13"/>
     </row>
     <row r="562">
       <c r="A562" s="13"/>
@@ -23741,7 +23114,6 @@
       <c r="K562" s="13"/>
       <c r="L562" s="13"/>
       <c r="M562" s="13"/>
-      <c r="N562" s="13"/>
     </row>
     <row r="563">
       <c r="A563" s="13"/>
@@ -23757,7 +23129,6 @@
       <c r="K563" s="13"/>
       <c r="L563" s="13"/>
       <c r="M563" s="13"/>
-      <c r="N563" s="13"/>
     </row>
     <row r="564">
       <c r="A564" s="13"/>
@@ -23773,7 +23144,6 @@
       <c r="K564" s="13"/>
       <c r="L564" s="13"/>
       <c r="M564" s="13"/>
-      <c r="N564" s="13"/>
     </row>
     <row r="565">
       <c r="A565" s="13"/>
@@ -23789,7 +23159,6 @@
       <c r="K565" s="13"/>
       <c r="L565" s="13"/>
       <c r="M565" s="13"/>
-      <c r="N565" s="13"/>
     </row>
     <row r="566">
       <c r="A566" s="13"/>
@@ -23805,7 +23174,6 @@
       <c r="K566" s="13"/>
       <c r="L566" s="13"/>
       <c r="M566" s="13"/>
-      <c r="N566" s="13"/>
     </row>
     <row r="567">
       <c r="A567" s="13"/>
@@ -23821,7 +23189,6 @@
       <c r="K567" s="13"/>
       <c r="L567" s="13"/>
       <c r="M567" s="13"/>
-      <c r="N567" s="13"/>
     </row>
     <row r="568">
       <c r="A568" s="13"/>
@@ -23837,7 +23204,6 @@
       <c r="K568" s="13"/>
       <c r="L568" s="13"/>
       <c r="M568" s="13"/>
-      <c r="N568" s="13"/>
     </row>
     <row r="569">
       <c r="A569" s="13"/>
@@ -23853,7 +23219,6 @@
       <c r="K569" s="13"/>
       <c r="L569" s="13"/>
       <c r="M569" s="13"/>
-      <c r="N569" s="13"/>
     </row>
     <row r="570">
       <c r="A570" s="13"/>
@@ -23869,7 +23234,6 @@
       <c r="K570" s="13"/>
       <c r="L570" s="13"/>
       <c r="M570" s="13"/>
-      <c r="N570" s="13"/>
     </row>
     <row r="571">
       <c r="A571" s="13"/>
@@ -23885,7 +23249,6 @@
       <c r="K571" s="13"/>
       <c r="L571" s="13"/>
       <c r="M571" s="13"/>
-      <c r="N571" s="13"/>
     </row>
     <row r="572">
       <c r="A572" s="13"/>
@@ -23901,7 +23264,6 @@
       <c r="K572" s="13"/>
       <c r="L572" s="13"/>
       <c r="M572" s="13"/>
-      <c r="N572" s="13"/>
     </row>
     <row r="573">
       <c r="A573" s="13"/>
@@ -23917,7 +23279,6 @@
       <c r="K573" s="13"/>
       <c r="L573" s="13"/>
       <c r="M573" s="13"/>
-      <c r="N573" s="13"/>
     </row>
     <row r="574">
       <c r="A574" s="13"/>
@@ -23933,7 +23294,6 @@
       <c r="K574" s="13"/>
       <c r="L574" s="13"/>
       <c r="M574" s="13"/>
-      <c r="N574" s="13"/>
     </row>
     <row r="575">
       <c r="A575" s="13"/>
@@ -23949,7 +23309,6 @@
       <c r="K575" s="13"/>
       <c r="L575" s="13"/>
       <c r="M575" s="13"/>
-      <c r="N575" s="13"/>
     </row>
     <row r="576">
       <c r="A576" s="13"/>
@@ -23965,7 +23324,6 @@
       <c r="K576" s="13"/>
       <c r="L576" s="13"/>
       <c r="M576" s="13"/>
-      <c r="N576" s="13"/>
     </row>
     <row r="577">
       <c r="A577" s="13"/>
@@ -23981,7 +23339,6 @@
       <c r="K577" s="13"/>
       <c r="L577" s="13"/>
       <c r="M577" s="13"/>
-      <c r="N577" s="13"/>
     </row>
     <row r="578">
       <c r="A578" s="13"/>
@@ -23997,7 +23354,6 @@
       <c r="K578" s="13"/>
       <c r="L578" s="13"/>
       <c r="M578" s="13"/>
-      <c r="N578" s="13"/>
     </row>
     <row r="579">
       <c r="A579" s="13"/>
@@ -24013,7 +23369,6 @@
       <c r="K579" s="13"/>
       <c r="L579" s="13"/>
       <c r="M579" s="13"/>
-      <c r="N579" s="13"/>
     </row>
     <row r="580">
       <c r="A580" s="13"/>
@@ -24029,7 +23384,6 @@
       <c r="K580" s="13"/>
       <c r="L580" s="13"/>
       <c r="M580" s="13"/>
-      <c r="N580" s="13"/>
     </row>
     <row r="581">
       <c r="A581" s="13"/>
@@ -24045,7 +23399,6 @@
       <c r="K581" s="13"/>
       <c r="L581" s="13"/>
       <c r="M581" s="13"/>
-      <c r="N581" s="13"/>
     </row>
     <row r="582">
       <c r="A582" s="13"/>
@@ -24061,7 +23414,6 @@
       <c r="K582" s="13"/>
       <c r="L582" s="13"/>
       <c r="M582" s="13"/>
-      <c r="N582" s="13"/>
     </row>
     <row r="583">
       <c r="A583" s="13"/>
@@ -24077,7 +23429,6 @@
       <c r="K583" s="13"/>
       <c r="L583" s="13"/>
       <c r="M583" s="13"/>
-      <c r="N583" s="13"/>
     </row>
     <row r="584">
       <c r="A584" s="13"/>
@@ -24093,7 +23444,6 @@
       <c r="K584" s="13"/>
       <c r="L584" s="13"/>
       <c r="M584" s="13"/>
-      <c r="N584" s="13"/>
     </row>
     <row r="585">
       <c r="A585" s="13"/>
@@ -24109,7 +23459,6 @@
       <c r="K585" s="13"/>
       <c r="L585" s="13"/>
       <c r="M585" s="13"/>
-      <c r="N585" s="13"/>
     </row>
     <row r="586">
       <c r="A586" s="13"/>
@@ -24125,7 +23474,6 @@
       <c r="K586" s="13"/>
       <c r="L586" s="13"/>
       <c r="M586" s="13"/>
-      <c r="N586" s="13"/>
     </row>
     <row r="587">
       <c r="A587" s="13"/>
@@ -24141,7 +23489,6 @@
       <c r="K587" s="13"/>
       <c r="L587" s="13"/>
       <c r="M587" s="13"/>
-      <c r="N587" s="13"/>
     </row>
     <row r="588">
       <c r="A588" s="13"/>
@@ -24157,7 +23504,6 @@
       <c r="K588" s="13"/>
       <c r="L588" s="13"/>
       <c r="M588" s="13"/>
-      <c r="N588" s="13"/>
     </row>
     <row r="589">
       <c r="A589" s="13"/>
@@ -24173,7 +23519,6 @@
       <c r="K589" s="13"/>
       <c r="L589" s="13"/>
       <c r="M589" s="13"/>
-      <c r="N589" s="13"/>
     </row>
     <row r="590">
       <c r="A590" s="13"/>
@@ -24189,7 +23534,6 @@
       <c r="K590" s="13"/>
       <c r="L590" s="13"/>
       <c r="M590" s="13"/>
-      <c r="N590" s="13"/>
     </row>
     <row r="591">
       <c r="A591" s="13"/>
@@ -24205,7 +23549,6 @@
       <c r="K591" s="13"/>
       <c r="L591" s="13"/>
       <c r="M591" s="13"/>
-      <c r="N591" s="13"/>
     </row>
     <row r="592">
       <c r="A592" s="13"/>
@@ -24221,7 +23564,6 @@
       <c r="K592" s="13"/>
       <c r="L592" s="13"/>
       <c r="M592" s="13"/>
-      <c r="N592" s="13"/>
     </row>
     <row r="593">
       <c r="A593" s="13"/>
@@ -24237,7 +23579,6 @@
       <c r="K593" s="13"/>
       <c r="L593" s="13"/>
       <c r="M593" s="13"/>
-      <c r="N593" s="13"/>
     </row>
     <row r="594">
       <c r="A594" s="13"/>
@@ -24253,7 +23594,6 @@
       <c r="K594" s="13"/>
       <c r="L594" s="13"/>
       <c r="M594" s="13"/>
-      <c r="N594" s="13"/>
     </row>
     <row r="595">
       <c r="A595" s="13"/>
@@ -24269,7 +23609,6 @@
       <c r="K595" s="13"/>
       <c r="L595" s="13"/>
       <c r="M595" s="13"/>
-      <c r="N595" s="13"/>
     </row>
     <row r="596">
       <c r="A596" s="13"/>
@@ -24285,7 +23624,6 @@
       <c r="K596" s="13"/>
       <c r="L596" s="13"/>
       <c r="M596" s="13"/>
-      <c r="N596" s="13"/>
     </row>
     <row r="597">
       <c r="A597" s="13"/>
@@ -24301,7 +23639,6 @@
       <c r="K597" s="13"/>
       <c r="L597" s="13"/>
       <c r="M597" s="13"/>
-      <c r="N597" s="13"/>
     </row>
     <row r="598">
       <c r="A598" s="13"/>
@@ -24317,7 +23654,6 @@
       <c r="K598" s="13"/>
       <c r="L598" s="13"/>
       <c r="M598" s="13"/>
-      <c r="N598" s="13"/>
     </row>
     <row r="599">
       <c r="A599" s="13"/>
@@ -24333,7 +23669,6 @@
       <c r="K599" s="13"/>
       <c r="L599" s="13"/>
       <c r="M599" s="13"/>
-      <c r="N599" s="13"/>
     </row>
     <row r="600">
       <c r="A600" s="13"/>
@@ -24349,7 +23684,6 @@
       <c r="K600" s="13"/>
       <c r="L600" s="13"/>
       <c r="M600" s="13"/>
-      <c r="N600" s="13"/>
     </row>
     <row r="601">
       <c r="A601" s="13"/>
@@ -24365,7 +23699,6 @@
       <c r="K601" s="13"/>
       <c r="L601" s="13"/>
       <c r="M601" s="13"/>
-      <c r="N601" s="13"/>
     </row>
     <row r="602">
       <c r="A602" s="13"/>
@@ -24381,7 +23714,6 @@
       <c r="K602" s="13"/>
       <c r="L602" s="13"/>
       <c r="M602" s="13"/>
-      <c r="N602" s="13"/>
     </row>
     <row r="603">
       <c r="A603" s="13"/>
@@ -24397,7 +23729,6 @@
       <c r="K603" s="13"/>
       <c r="L603" s="13"/>
       <c r="M603" s="13"/>
-      <c r="N603" s="13"/>
     </row>
     <row r="604">
       <c r="A604" s="13"/>
@@ -24413,7 +23744,6 @@
       <c r="K604" s="13"/>
       <c r="L604" s="13"/>
       <c r="M604" s="13"/>
-      <c r="N604" s="13"/>
     </row>
     <row r="605">
       <c r="A605" s="13"/>
@@ -24429,7 +23759,6 @@
       <c r="K605" s="13"/>
       <c r="L605" s="13"/>
       <c r="M605" s="13"/>
-      <c r="N605" s="13"/>
     </row>
     <row r="606">
       <c r="A606" s="13"/>
@@ -24445,7 +23774,6 @@
       <c r="K606" s="13"/>
       <c r="L606" s="13"/>
       <c r="M606" s="13"/>
-      <c r="N606" s="13"/>
     </row>
     <row r="607">
       <c r="A607" s="13"/>
@@ -24461,7 +23789,6 @@
       <c r="K607" s="13"/>
       <c r="L607" s="13"/>
       <c r="M607" s="13"/>
-      <c r="N607" s="13"/>
     </row>
     <row r="608">
       <c r="A608" s="13"/>
@@ -24477,7 +23804,6 @@
       <c r="K608" s="13"/>
       <c r="L608" s="13"/>
       <c r="M608" s="13"/>
-      <c r="N608" s="13"/>
     </row>
     <row r="609">
       <c r="A609" s="13"/>
@@ -24493,7 +23819,6 @@
       <c r="K609" s="13"/>
       <c r="L609" s="13"/>
       <c r="M609" s="13"/>
-      <c r="N609" s="13"/>
     </row>
     <row r="610">
       <c r="A610" s="13"/>
@@ -24509,7 +23834,6 @@
       <c r="K610" s="13"/>
       <c r="L610" s="13"/>
       <c r="M610" s="13"/>
-      <c r="N610" s="13"/>
     </row>
     <row r="611">
       <c r="A611" s="13"/>
@@ -24525,7 +23849,6 @@
       <c r="K611" s="13"/>
       <c r="L611" s="13"/>
       <c r="M611" s="13"/>
-      <c r="N611" s="13"/>
     </row>
     <row r="612">
       <c r="A612" s="13"/>
@@ -24541,7 +23864,6 @@
       <c r="K612" s="13"/>
       <c r="L612" s="13"/>
       <c r="M612" s="13"/>
-      <c r="N612" s="13"/>
     </row>
     <row r="613">
       <c r="A613" s="13"/>
@@ -24557,7 +23879,6 @@
       <c r="K613" s="13"/>
       <c r="L613" s="13"/>
       <c r="M613" s="13"/>
-      <c r="N613" s="13"/>
     </row>
     <row r="614">
       <c r="A614" s="13"/>
@@ -24573,7 +23894,6 @@
       <c r="K614" s="13"/>
       <c r="L614" s="13"/>
       <c r="M614" s="13"/>
-      <c r="N614" s="13"/>
     </row>
     <row r="615">
       <c r="A615" s="13"/>
@@ -24589,7 +23909,6 @@
       <c r="K615" s="13"/>
       <c r="L615" s="13"/>
       <c r="M615" s="13"/>
-      <c r="N615" s="13"/>
     </row>
     <row r="616">
       <c r="A616" s="13"/>
@@ -24605,7 +23924,6 @@
       <c r="K616" s="13"/>
       <c r="L616" s="13"/>
       <c r="M616" s="13"/>
-      <c r="N616" s="13"/>
     </row>
     <row r="617">
       <c r="A617" s="13"/>
@@ -24621,7 +23939,6 @@
       <c r="K617" s="13"/>
       <c r="L617" s="13"/>
       <c r="M617" s="13"/>
-      <c r="N617" s="13"/>
     </row>
     <row r="618">
       <c r="A618" s="13"/>
@@ -24637,7 +23954,6 @@
       <c r="K618" s="13"/>
       <c r="L618" s="13"/>
       <c r="M618" s="13"/>
-      <c r="N618" s="13"/>
     </row>
     <row r="619">
       <c r="A619" s="13"/>
@@ -24653,7 +23969,6 @@
       <c r="K619" s="13"/>
       <c r="L619" s="13"/>
       <c r="M619" s="13"/>
-      <c r="N619" s="13"/>
     </row>
     <row r="620">
       <c r="A620" s="13"/>
@@ -24669,7 +23984,6 @@
       <c r="K620" s="13"/>
       <c r="L620" s="13"/>
       <c r="M620" s="13"/>
-      <c r="N620" s="13"/>
     </row>
     <row r="621">
       <c r="A621" s="13"/>
@@ -24685,7 +23999,6 @@
       <c r="K621" s="13"/>
       <c r="L621" s="13"/>
       <c r="M621" s="13"/>
-      <c r="N621" s="13"/>
     </row>
     <row r="622">
       <c r="A622" s="13"/>
@@ -24701,7 +24014,6 @@
       <c r="K622" s="13"/>
       <c r="L622" s="13"/>
       <c r="M622" s="13"/>
-      <c r="N622" s="13"/>
     </row>
     <row r="623">
       <c r="A623" s="13"/>
@@ -24717,7 +24029,6 @@
       <c r="K623" s="13"/>
       <c r="L623" s="13"/>
       <c r="M623" s="13"/>
-      <c r="N623" s="13"/>
     </row>
     <row r="624">
       <c r="A624" s="13"/>
@@ -24733,7 +24044,6 @@
       <c r="K624" s="13"/>
       <c r="L624" s="13"/>
       <c r="M624" s="13"/>
-      <c r="N624" s="13"/>
     </row>
     <row r="625">
       <c r="A625" s="13"/>
@@ -24749,7 +24059,6 @@
       <c r="K625" s="13"/>
       <c r="L625" s="13"/>
       <c r="M625" s="13"/>
-      <c r="N625" s="13"/>
     </row>
     <row r="626">
       <c r="A626" s="13"/>
@@ -24765,7 +24074,6 @@
       <c r="K626" s="13"/>
       <c r="L626" s="13"/>
       <c r="M626" s="13"/>
-      <c r="N626" s="13"/>
     </row>
     <row r="627">
       <c r="A627" s="13"/>
@@ -24781,7 +24089,6 @@
       <c r="K627" s="13"/>
       <c r="L627" s="13"/>
       <c r="M627" s="13"/>
-      <c r="N627" s="13"/>
     </row>
     <row r="628">
       <c r="A628" s="13"/>
@@ -24797,7 +24104,6 @@
       <c r="K628" s="13"/>
       <c r="L628" s="13"/>
       <c r="M628" s="13"/>
-      <c r="N628" s="13"/>
     </row>
     <row r="629">
       <c r="A629" s="13"/>
@@ -24813,7 +24119,6 @@
       <c r="K629" s="13"/>
       <c r="L629" s="13"/>
       <c r="M629" s="13"/>
-      <c r="N629" s="13"/>
     </row>
     <row r="630">
       <c r="A630" s="13"/>
@@ -24829,7 +24134,6 @@
       <c r="K630" s="13"/>
       <c r="L630" s="13"/>
       <c r="M630" s="13"/>
-      <c r="N630" s="13"/>
     </row>
     <row r="631">
       <c r="A631" s="13"/>
@@ -24845,7 +24149,6 @@
       <c r="K631" s="13"/>
       <c r="L631" s="13"/>
       <c r="M631" s="13"/>
-      <c r="N631" s="13"/>
     </row>
     <row r="632">
       <c r="A632" s="13"/>
@@ -24861,7 +24164,6 @@
       <c r="K632" s="13"/>
       <c r="L632" s="13"/>
       <c r="M632" s="13"/>
-      <c r="N632" s="13"/>
     </row>
     <row r="633">
       <c r="A633" s="13"/>
@@ -24877,7 +24179,6 @@
       <c r="K633" s="13"/>
       <c r="L633" s="13"/>
       <c r="M633" s="13"/>
-      <c r="N633" s="13"/>
     </row>
     <row r="634">
       <c r="A634" s="13"/>
@@ -24893,7 +24194,6 @@
       <c r="K634" s="13"/>
       <c r="L634" s="13"/>
       <c r="M634" s="13"/>
-      <c r="N634" s="13"/>
     </row>
     <row r="635">
       <c r="A635" s="13"/>
@@ -24909,7 +24209,6 @@
       <c r="K635" s="13"/>
       <c r="L635" s="13"/>
       <c r="M635" s="13"/>
-      <c r="N635" s="13"/>
     </row>
     <row r="636">
       <c r="A636" s="13"/>
@@ -24925,7 +24224,6 @@
       <c r="K636" s="13"/>
       <c r="L636" s="13"/>
       <c r="M636" s="13"/>
-      <c r="N636" s="13"/>
     </row>
     <row r="637">
       <c r="A637" s="13"/>
@@ -24941,7 +24239,6 @@
       <c r="K637" s="13"/>
       <c r="L637" s="13"/>
       <c r="M637" s="13"/>
-      <c r="N637" s="13"/>
     </row>
     <row r="638">
       <c r="A638" s="13"/>
@@ -24957,7 +24254,6 @@
       <c r="K638" s="13"/>
       <c r="L638" s="13"/>
       <c r="M638" s="13"/>
-      <c r="N638" s="13"/>
     </row>
     <row r="639">
       <c r="A639" s="13"/>
@@ -24973,7 +24269,6 @@
       <c r="K639" s="13"/>
       <c r="L639" s="13"/>
       <c r="M639" s="13"/>
-      <c r="N639" s="13"/>
     </row>
     <row r="640">
       <c r="A640" s="13"/>
@@ -24989,7 +24284,6 @@
       <c r="K640" s="13"/>
       <c r="L640" s="13"/>
       <c r="M640" s="13"/>
-      <c r="N640" s="13"/>
     </row>
     <row r="641">
       <c r="A641" s="13"/>
@@ -25005,7 +24299,6 @@
       <c r="K641" s="13"/>
       <c r="L641" s="13"/>
       <c r="M641" s="13"/>
-      <c r="N641" s="13"/>
     </row>
     <row r="642">
       <c r="A642" s="13"/>
@@ -25021,7 +24314,6 @@
       <c r="K642" s="13"/>
       <c r="L642" s="13"/>
       <c r="M642" s="13"/>
-      <c r="N642" s="13"/>
     </row>
     <row r="643">
       <c r="A643" s="13"/>
@@ -25037,7 +24329,6 @@
       <c r="K643" s="13"/>
       <c r="L643" s="13"/>
       <c r="M643" s="13"/>
-      <c r="N643" s="13"/>
     </row>
     <row r="644">
       <c r="A644" s="13"/>
@@ -25053,7 +24344,6 @@
       <c r="K644" s="13"/>
       <c r="L644" s="13"/>
       <c r="M644" s="13"/>
-      <c r="N644" s="13"/>
     </row>
     <row r="645">
       <c r="A645" s="13"/>
@@ -25069,7 +24359,6 @@
       <c r="K645" s="13"/>
       <c r="L645" s="13"/>
       <c r="M645" s="13"/>
-      <c r="N645" s="13"/>
     </row>
     <row r="646">
       <c r="A646" s="13"/>
@@ -25085,7 +24374,6 @@
       <c r="K646" s="13"/>
       <c r="L646" s="13"/>
       <c r="M646" s="13"/>
-      <c r="N646" s="13"/>
     </row>
     <row r="647">
       <c r="A647" s="13"/>
@@ -25101,7 +24389,6 @@
       <c r="K647" s="13"/>
       <c r="L647" s="13"/>
       <c r="M647" s="13"/>
-      <c r="N647" s="13"/>
     </row>
     <row r="648">
       <c r="A648" s="13"/>
@@ -25117,7 +24404,6 @@
       <c r="K648" s="13"/>
       <c r="L648" s="13"/>
       <c r="M648" s="13"/>
-      <c r="N648" s="13"/>
     </row>
     <row r="649">
       <c r="A649" s="13"/>
@@ -25133,7 +24419,6 @@
       <c r="K649" s="13"/>
       <c r="L649" s="13"/>
       <c r="M649" s="13"/>
-      <c r="N649" s="13"/>
     </row>
     <row r="650">
       <c r="A650" s="13"/>
@@ -25149,7 +24434,6 @@
       <c r="K650" s="13"/>
       <c r="L650" s="13"/>
       <c r="M650" s="13"/>
-      <c r="N650" s="13"/>
     </row>
     <row r="651">
       <c r="A651" s="13"/>
@@ -25165,7 +24449,6 @@
       <c r="K651" s="13"/>
       <c r="L651" s="13"/>
       <c r="M651" s="13"/>
-      <c r="N651" s="13"/>
     </row>
     <row r="652">
       <c r="A652" s="13"/>
@@ -25181,7 +24464,6 @@
       <c r="K652" s="13"/>
       <c r="L652" s="13"/>
       <c r="M652" s="13"/>
-      <c r="N652" s="13"/>
     </row>
     <row r="653">
       <c r="A653" s="13"/>
@@ -25197,7 +24479,6 @@
       <c r="K653" s="13"/>
       <c r="L653" s="13"/>
       <c r="M653" s="13"/>
-      <c r="N653" s="13"/>
     </row>
     <row r="654">
       <c r="A654" s="13"/>
@@ -25213,7 +24494,6 @@
       <c r="K654" s="13"/>
       <c r="L654" s="13"/>
       <c r="M654" s="13"/>
-      <c r="N654" s="13"/>
     </row>
     <row r="655">
       <c r="A655" s="13"/>
@@ -25229,7 +24509,6 @@
       <c r="K655" s="13"/>
       <c r="L655" s="13"/>
       <c r="M655" s="13"/>
-      <c r="N655" s="13"/>
     </row>
     <row r="656">
       <c r="A656" s="13"/>
@@ -25245,7 +24524,6 @@
       <c r="K656" s="13"/>
       <c r="L656" s="13"/>
       <c r="M656" s="13"/>
-      <c r="N656" s="13"/>
     </row>
     <row r="657">
       <c r="A657" s="13"/>
@@ -25261,7 +24539,6 @@
       <c r="K657" s="13"/>
       <c r="L657" s="13"/>
       <c r="M657" s="13"/>
-      <c r="N657" s="13"/>
     </row>
     <row r="658">
       <c r="A658" s="13"/>
@@ -25277,7 +24554,6 @@
       <c r="K658" s="13"/>
       <c r="L658" s="13"/>
       <c r="M658" s="13"/>
-      <c r="N658" s="13"/>
     </row>
     <row r="659">
       <c r="A659" s="13"/>
@@ -25293,7 +24569,6 @@
       <c r="K659" s="13"/>
       <c r="L659" s="13"/>
       <c r="M659" s="13"/>
-      <c r="N659" s="13"/>
     </row>
     <row r="660">
       <c r="A660" s="13"/>
@@ -25309,7 +24584,6 @@
       <c r="K660" s="13"/>
       <c r="L660" s="13"/>
       <c r="M660" s="13"/>
-      <c r="N660" s="13"/>
     </row>
     <row r="661">
       <c r="A661" s="13"/>
@@ -25325,7 +24599,6 @@
       <c r="K661" s="13"/>
       <c r="L661" s="13"/>
       <c r="M661" s="13"/>
-      <c r="N661" s="13"/>
     </row>
     <row r="662">
       <c r="A662" s="13"/>
@@ -25341,7 +24614,6 @@
       <c r="K662" s="13"/>
       <c r="L662" s="13"/>
       <c r="M662" s="13"/>
-      <c r="N662" s="13"/>
     </row>
     <row r="663">
       <c r="A663" s="13"/>
@@ -25357,7 +24629,6 @@
       <c r="K663" s="13"/>
       <c r="L663" s="13"/>
       <c r="M663" s="13"/>
-      <c r="N663" s="13"/>
     </row>
     <row r="664">
       <c r="A664" s="13"/>
@@ -25373,7 +24644,6 @@
       <c r="K664" s="13"/>
       <c r="L664" s="13"/>
       <c r="M664" s="13"/>
-      <c r="N664" s="13"/>
     </row>
     <row r="665">
       <c r="A665" s="13"/>
@@ -25389,7 +24659,6 @@
       <c r="K665" s="13"/>
       <c r="L665" s="13"/>
       <c r="M665" s="13"/>
-      <c r="N665" s="13"/>
     </row>
     <row r="666">
       <c r="A666" s="13"/>
@@ -25405,7 +24674,6 @@
       <c r="K666" s="13"/>
       <c r="L666" s="13"/>
       <c r="M666" s="13"/>
-      <c r="N666" s="13"/>
     </row>
     <row r="667">
       <c r="A667" s="13"/>
@@ -25421,7 +24689,6 @@
       <c r="K667" s="13"/>
       <c r="L667" s="13"/>
       <c r="M667" s="13"/>
-      <c r="N667" s="13"/>
     </row>
     <row r="668">
       <c r="A668" s="13"/>
@@ -25437,7 +24704,6 @@
       <c r="K668" s="13"/>
       <c r="L668" s="13"/>
       <c r="M668" s="13"/>
-      <c r="N668" s="13"/>
     </row>
     <row r="669">
       <c r="A669" s="13"/>
@@ -25453,7 +24719,6 @@
       <c r="K669" s="13"/>
       <c r="L669" s="13"/>
       <c r="M669" s="13"/>
-      <c r="N669" s="13"/>
     </row>
     <row r="670">
       <c r="A670" s="13"/>
@@ -25469,7 +24734,6 @@
       <c r="K670" s="13"/>
       <c r="L670" s="13"/>
       <c r="M670" s="13"/>
-      <c r="N670" s="13"/>
     </row>
     <row r="671">
       <c r="A671" s="13"/>
@@ -25485,7 +24749,6 @@
       <c r="K671" s="13"/>
       <c r="L671" s="13"/>
       <c r="M671" s="13"/>
-      <c r="N671" s="13"/>
     </row>
     <row r="672">
       <c r="A672" s="13"/>
@@ -25501,7 +24764,6 @@
       <c r="K672" s="13"/>
       <c r="L672" s="13"/>
       <c r="M672" s="13"/>
-      <c r="N672" s="13"/>
     </row>
     <row r="673">
       <c r="A673" s="13"/>
@@ -25517,7 +24779,6 @@
       <c r="K673" s="13"/>
       <c r="L673" s="13"/>
       <c r="M673" s="13"/>
-      <c r="N673" s="13"/>
     </row>
     <row r="674">
       <c r="A674" s="13"/>
@@ -25533,7 +24794,6 @@
       <c r="K674" s="13"/>
       <c r="L674" s="13"/>
       <c r="M674" s="13"/>
-      <c r="N674" s="13"/>
     </row>
     <row r="675">
       <c r="A675" s="13"/>
@@ -25549,7 +24809,6 @@
       <c r="K675" s="13"/>
       <c r="L675" s="13"/>
       <c r="M675" s="13"/>
-      <c r="N675" s="13"/>
     </row>
     <row r="676">
       <c r="A676" s="13"/>
@@ -25565,7 +24824,6 @@
       <c r="K676" s="13"/>
       <c r="L676" s="13"/>
       <c r="M676" s="13"/>
-      <c r="N676" s="13"/>
     </row>
     <row r="677">
       <c r="A677" s="13"/>
@@ -25581,7 +24839,6 @@
       <c r="K677" s="13"/>
       <c r="L677" s="13"/>
       <c r="M677" s="13"/>
-      <c r="N677" s="13"/>
     </row>
     <row r="678">
       <c r="A678" s="13"/>
@@ -25597,7 +24854,6 @@
       <c r="K678" s="13"/>
       <c r="L678" s="13"/>
       <c r="M678" s="13"/>
-      <c r="N678" s="13"/>
     </row>
     <row r="679">
       <c r="A679" s="13"/>
@@ -25613,7 +24869,6 @@
       <c r="K679" s="13"/>
       <c r="L679" s="13"/>
       <c r="M679" s="13"/>
-      <c r="N679" s="13"/>
     </row>
     <row r="680">
       <c r="A680" s="13"/>
@@ -25629,7 +24884,6 @@
       <c r="K680" s="13"/>
       <c r="L680" s="13"/>
       <c r="M680" s="13"/>
-      <c r="N680" s="13"/>
     </row>
     <row r="681">
       <c r="A681" s="13"/>
@@ -25645,7 +24899,6 @@
       <c r="K681" s="13"/>
       <c r="L681" s="13"/>
       <c r="M681" s="13"/>
-      <c r="N681" s="13"/>
     </row>
     <row r="682">
       <c r="A682" s="13"/>
@@ -25661,7 +24914,6 @@
       <c r="K682" s="13"/>
       <c r="L682" s="13"/>
       <c r="M682" s="13"/>
-      <c r="N682" s="13"/>
     </row>
     <row r="683">
       <c r="A683" s="13"/>
@@ -25677,7 +24929,6 @@
       <c r="K683" s="13"/>
       <c r="L683" s="13"/>
       <c r="M683" s="13"/>
-      <c r="N683" s="13"/>
     </row>
     <row r="684">
       <c r="A684" s="13"/>
@@ -25693,7 +24944,6 @@
       <c r="K684" s="13"/>
       <c r="L684" s="13"/>
       <c r="M684" s="13"/>
-      <c r="N684" s="13"/>
     </row>
     <row r="685">
       <c r="A685" s="13"/>
@@ -25709,7 +24959,6 @@
       <c r="K685" s="13"/>
       <c r="L685" s="13"/>
       <c r="M685" s="13"/>
-      <c r="N685" s="13"/>
     </row>
     <row r="686">
       <c r="A686" s="13"/>
@@ -25725,7 +24974,6 @@
       <c r="K686" s="13"/>
       <c r="L686" s="13"/>
       <c r="M686" s="13"/>
-      <c r="N686" s="13"/>
     </row>
     <row r="687">
       <c r="A687" s="13"/>
@@ -25741,7 +24989,6 @@
       <c r="K687" s="13"/>
       <c r="L687" s="13"/>
       <c r="M687" s="13"/>
-      <c r="N687" s="13"/>
     </row>
     <row r="688">
       <c r="A688" s="13"/>
@@ -25757,7 +25004,6 @@
       <c r="K688" s="13"/>
       <c r="L688" s="13"/>
       <c r="M688" s="13"/>
-      <c r="N688" s="13"/>
     </row>
     <row r="689">
       <c r="A689" s="13"/>
@@ -25773,7 +25019,6 @@
       <c r="K689" s="13"/>
       <c r="L689" s="13"/>
       <c r="M689" s="13"/>
-      <c r="N689" s="13"/>
     </row>
     <row r="690">
       <c r="A690" s="13"/>
@@ -25789,7 +25034,6 @@
       <c r="K690" s="13"/>
       <c r="L690" s="13"/>
       <c r="M690" s="13"/>
-      <c r="N690" s="13"/>
     </row>
     <row r="691">
       <c r="A691" s="13"/>
@@ -25805,7 +25049,6 @@
       <c r="K691" s="13"/>
       <c r="L691" s="13"/>
       <c r="M691" s="13"/>
-      <c r="N691" s="13"/>
     </row>
     <row r="692">
       <c r="A692" s="13"/>
@@ -25821,7 +25064,6 @@
       <c r="K692" s="13"/>
       <c r="L692" s="13"/>
       <c r="M692" s="13"/>
-      <c r="N692" s="13"/>
     </row>
     <row r="693">
       <c r="A693" s="13"/>
@@ -25837,7 +25079,6 @@
       <c r="K693" s="13"/>
       <c r="L693" s="13"/>
       <c r="M693" s="13"/>
-      <c r="N693" s="13"/>
     </row>
     <row r="694">
       <c r="A694" s="13"/>
@@ -25853,7 +25094,6 @@
       <c r="K694" s="13"/>
       <c r="L694" s="13"/>
       <c r="M694" s="13"/>
-      <c r="N694" s="13"/>
     </row>
     <row r="695">
       <c r="A695" s="13"/>
@@ -25869,7 +25109,6 @@
       <c r="K695" s="13"/>
       <c r="L695" s="13"/>
       <c r="M695" s="13"/>
-      <c r="N695" s="13"/>
     </row>
     <row r="696">
       <c r="A696" s="13"/>
@@ -25885,7 +25124,6 @@
       <c r="K696" s="13"/>
       <c r="L696" s="13"/>
       <c r="M696" s="13"/>
-      <c r="N696" s="13"/>
     </row>
     <row r="697">
       <c r="A697" s="13"/>
@@ -25901,7 +25139,6 @@
       <c r="K697" s="13"/>
       <c r="L697" s="13"/>
       <c r="M697" s="13"/>
-      <c r="N697" s="13"/>
     </row>
     <row r="698">
       <c r="A698" s="13"/>
@@ -25917,7 +25154,6 @@
       <c r="K698" s="13"/>
       <c r="L698" s="13"/>
       <c r="M698" s="13"/>
-      <c r="N698" s="13"/>
     </row>
     <row r="699">
       <c r="A699" s="13"/>
@@ -25933,7 +25169,6 @@
       <c r="K699" s="13"/>
       <c r="L699" s="13"/>
       <c r="M699" s="13"/>
-      <c r="N699" s="13"/>
     </row>
     <row r="700">
       <c r="A700" s="13"/>
@@ -25949,7 +25184,6 @@
       <c r="K700" s="13"/>
       <c r="L700" s="13"/>
       <c r="M700" s="13"/>
-      <c r="N700" s="13"/>
     </row>
     <row r="701">
       <c r="A701" s="13"/>
@@ -25965,7 +25199,6 @@
       <c r="K701" s="13"/>
       <c r="L701" s="13"/>
       <c r="M701" s="13"/>
-      <c r="N701" s="13"/>
     </row>
     <row r="702">
       <c r="A702" s="13"/>
@@ -25981,7 +25214,6 @@
       <c r="K702" s="13"/>
       <c r="L702" s="13"/>
       <c r="M702" s="13"/>
-      <c r="N702" s="13"/>
     </row>
     <row r="703">
       <c r="A703" s="13"/>
@@ -25997,7 +25229,6 @@
       <c r="K703" s="13"/>
       <c r="L703" s="13"/>
       <c r="M703" s="13"/>
-      <c r="N703" s="13"/>
     </row>
     <row r="704">
       <c r="A704" s="13"/>
@@ -26013,7 +25244,6 @@
       <c r="K704" s="13"/>
       <c r="L704" s="13"/>
       <c r="M704" s="13"/>
-      <c r="N704" s="13"/>
     </row>
     <row r="705">
       <c r="A705" s="13"/>
@@ -26029,7 +25259,6 @@
       <c r="K705" s="13"/>
       <c r="L705" s="13"/>
       <c r="M705" s="13"/>
-      <c r="N705" s="13"/>
     </row>
     <row r="706">
       <c r="A706" s="13"/>
@@ -26045,7 +25274,6 @@
       <c r="K706" s="13"/>
       <c r="L706" s="13"/>
       <c r="M706" s="13"/>
-      <c r="N706" s="13"/>
     </row>
     <row r="707">
       <c r="A707" s="13"/>
@@ -26061,7 +25289,6 @@
       <c r="K707" s="13"/>
       <c r="L707" s="13"/>
       <c r="M707" s="13"/>
-      <c r="N707" s="13"/>
     </row>
     <row r="708">
       <c r="A708" s="13"/>
@@ -26077,7 +25304,6 @@
       <c r="K708" s="13"/>
       <c r="L708" s="13"/>
       <c r="M708" s="13"/>
-      <c r="N708" s="13"/>
     </row>
     <row r="709">
       <c r="A709" s="13"/>
@@ -26093,7 +25319,6 @@
       <c r="K709" s="13"/>
       <c r="L709" s="13"/>
       <c r="M709" s="13"/>
-      <c r="N709" s="13"/>
     </row>
     <row r="710">
       <c r="A710" s="13"/>
@@ -26109,7 +25334,6 @@
       <c r="K710" s="13"/>
       <c r="L710" s="13"/>
       <c r="M710" s="13"/>
-      <c r="N710" s="13"/>
     </row>
     <row r="711">
       <c r="A711" s="13"/>
@@ -26125,7 +25349,6 @@
       <c r="K711" s="13"/>
       <c r="L711" s="13"/>
       <c r="M711" s="13"/>
-      <c r="N711" s="13"/>
     </row>
     <row r="712">
       <c r="A712" s="13"/>
@@ -26141,7 +25364,6 @@
       <c r="K712" s="13"/>
       <c r="L712" s="13"/>
       <c r="M712" s="13"/>
-      <c r="N712" s="13"/>
     </row>
     <row r="713">
       <c r="A713" s="13"/>
@@ -26157,7 +25379,6 @@
       <c r="K713" s="13"/>
       <c r="L713" s="13"/>
       <c r="M713" s="13"/>
-      <c r="N713" s="13"/>
     </row>
     <row r="714">
       <c r="A714" s="13"/>
@@ -26173,7 +25394,6 @@
       <c r="K714" s="13"/>
       <c r="L714" s="13"/>
       <c r="M714" s="13"/>
-      <c r="N714" s="13"/>
     </row>
     <row r="715">
       <c r="A715" s="13"/>
@@ -26189,7 +25409,6 @@
       <c r="K715" s="13"/>
       <c r="L715" s="13"/>
       <c r="M715" s="13"/>
-      <c r="N715" s="13"/>
     </row>
     <row r="716">
       <c r="A716" s="13"/>
@@ -26205,7 +25424,6 @@
       <c r="K716" s="13"/>
       <c r="L716" s="13"/>
       <c r="M716" s="13"/>
-      <c r="N716" s="13"/>
     </row>
     <row r="717">
       <c r="A717" s="13"/>
@@ -26221,7 +25439,6 @@
       <c r="K717" s="13"/>
       <c r="L717" s="13"/>
       <c r="M717" s="13"/>
-      <c r="N717" s="13"/>
     </row>
     <row r="718">
       <c r="A718" s="13"/>
@@ -26237,7 +25454,6 @@
       <c r="K718" s="13"/>
       <c r="L718" s="13"/>
       <c r="M718" s="13"/>
-      <c r="N718" s="13"/>
     </row>
     <row r="719">
       <c r="A719" s="13"/>
@@ -26253,7 +25469,6 @@
       <c r="K719" s="13"/>
       <c r="L719" s="13"/>
       <c r="M719" s="13"/>
-      <c r="N719" s="13"/>
     </row>
     <row r="720">
       <c r="A720" s="13"/>
@@ -26269,7 +25484,6 @@
       <c r="K720" s="13"/>
       <c r="L720" s="13"/>
       <c r="M720" s="13"/>
-      <c r="N720" s="13"/>
     </row>
     <row r="721">
       <c r="A721" s="13"/>
@@ -26285,7 +25499,6 @@
       <c r="K721" s="13"/>
       <c r="L721" s="13"/>
       <c r="M721" s="13"/>
-      <c r="N721" s="13"/>
     </row>
     <row r="722">
       <c r="A722" s="13"/>
@@ -26301,7 +25514,6 @@
       <c r="K722" s="13"/>
       <c r="L722" s="13"/>
       <c r="M722" s="13"/>
-      <c r="N722" s="13"/>
     </row>
     <row r="723">
       <c r="A723" s="13"/>
@@ -26317,7 +25529,6 @@
       <c r="K723" s="13"/>
       <c r="L723" s="13"/>
       <c r="M723" s="13"/>
-      <c r="N723" s="13"/>
     </row>
     <row r="724">
       <c r="A724" s="13"/>
@@ -26333,7 +25544,6 @@
       <c r="K724" s="13"/>
       <c r="L724" s="13"/>
       <c r="M724" s="13"/>
-      <c r="N724" s="13"/>
     </row>
     <row r="725">
       <c r="A725" s="13"/>
@@ -26349,7 +25559,6 @@
       <c r="K725" s="13"/>
       <c r="L725" s="13"/>
       <c r="M725" s="13"/>
-      <c r="N725" s="13"/>
     </row>
     <row r="726">
       <c r="A726" s="13"/>
@@ -26365,7 +25574,6 @@
       <c r="K726" s="13"/>
       <c r="L726" s="13"/>
       <c r="M726" s="13"/>
-      <c r="N726" s="13"/>
     </row>
     <row r="727">
       <c r="A727" s="13"/>
@@ -26381,7 +25589,6 @@
       <c r="K727" s="13"/>
       <c r="L727" s="13"/>
       <c r="M727" s="13"/>
-      <c r="N727" s="13"/>
     </row>
     <row r="728">
       <c r="A728" s="13"/>
@@ -26397,7 +25604,6 @@
       <c r="K728" s="13"/>
       <c r="L728" s="13"/>
       <c r="M728" s="13"/>
-      <c r="N728" s="13"/>
     </row>
     <row r="729">
       <c r="A729" s="13"/>
@@ -26413,7 +25619,6 @@
       <c r="K729" s="13"/>
       <c r="L729" s="13"/>
       <c r="M729" s="13"/>
-      <c r="N729" s="13"/>
     </row>
     <row r="730">
       <c r="A730" s="13"/>
@@ -26429,7 +25634,6 @@
       <c r="K730" s="13"/>
       <c r="L730" s="13"/>
       <c r="M730" s="13"/>
-      <c r="N730" s="13"/>
     </row>
     <row r="731">
       <c r="A731" s="13"/>
@@ -26445,7 +25649,6 @@
       <c r="K731" s="13"/>
       <c r="L731" s="13"/>
       <c r="M731" s="13"/>
-      <c r="N731" s="13"/>
     </row>
     <row r="732">
       <c r="A732" s="13"/>
@@ -26461,7 +25664,6 @@
       <c r="K732" s="13"/>
       <c r="L732" s="13"/>
       <c r="M732" s="13"/>
-      <c r="N732" s="13"/>
     </row>
     <row r="733">
       <c r="A733" s="13"/>
@@ -26477,7 +25679,6 @@
       <c r="K733" s="13"/>
       <c r="L733" s="13"/>
       <c r="M733" s="13"/>
-      <c r="N733" s="13"/>
     </row>
     <row r="734">
       <c r="A734" s="13"/>
@@ -26493,7 +25694,6 @@
       <c r="K734" s="13"/>
       <c r="L734" s="13"/>
       <c r="M734" s="13"/>
-      <c r="N734" s="13"/>
     </row>
     <row r="735">
       <c r="A735" s="13"/>
@@ -26509,7 +25709,6 @@
       <c r="K735" s="13"/>
       <c r="L735" s="13"/>
       <c r="M735" s="13"/>
-      <c r="N735" s="13"/>
     </row>
     <row r="736">
       <c r="A736" s="13"/>
@@ -26525,7 +25724,6 @@
       <c r="K736" s="13"/>
       <c r="L736" s="13"/>
       <c r="M736" s="13"/>
-      <c r="N736" s="13"/>
     </row>
     <row r="737">
       <c r="A737" s="13"/>
@@ -26541,7 +25739,6 @@
       <c r="K737" s="13"/>
       <c r="L737" s="13"/>
       <c r="M737" s="13"/>
-      <c r="N737" s="13"/>
     </row>
     <row r="738">
       <c r="A738" s="13"/>
@@ -26557,7 +25754,6 @@
       <c r="K738" s="13"/>
       <c r="L738" s="13"/>
       <c r="M738" s="13"/>
-      <c r="N738" s="13"/>
     </row>
     <row r="739">
       <c r="A739" s="13"/>
@@ -26573,7 +25769,6 @@
       <c r="K739" s="13"/>
       <c r="L739" s="13"/>
       <c r="M739" s="13"/>
-      <c r="N739" s="13"/>
     </row>
     <row r="740">
       <c r="A740" s="13"/>
@@ -26589,7 +25784,6 @@
       <c r="K740" s="13"/>
       <c r="L740" s="13"/>
       <c r="M740" s="13"/>
-      <c r="N740" s="13"/>
     </row>
     <row r="741">
       <c r="A741" s="13"/>
@@ -26605,7 +25799,6 @@
       <c r="K741" s="13"/>
       <c r="L741" s="13"/>
       <c r="M741" s="13"/>
-      <c r="N741" s="13"/>
     </row>
     <row r="742">
       <c r="A742" s="13"/>
@@ -26621,7 +25814,6 @@
       <c r="K742" s="13"/>
       <c r="L742" s="13"/>
       <c r="M742" s="13"/>
-      <c r="N742" s="13"/>
     </row>
     <row r="743">
       <c r="A743" s="13"/>
@@ -26637,7 +25829,6 @@
       <c r="K743" s="13"/>
       <c r="L743" s="13"/>
       <c r="M743" s="13"/>
-      <c r="N743" s="13"/>
     </row>
     <row r="744">
       <c r="A744" s="13"/>
@@ -26653,7 +25844,6 @@
       <c r="K744" s="13"/>
       <c r="L744" s="13"/>
       <c r="M744" s="13"/>
-      <c r="N744" s="13"/>
     </row>
     <row r="745">
       <c r="A745" s="13"/>
@@ -26669,7 +25859,6 @@
       <c r="K745" s="13"/>
       <c r="L745" s="13"/>
       <c r="M745" s="13"/>
-      <c r="N745" s="13"/>
     </row>
     <row r="746">
       <c r="A746" s="13"/>
@@ -26685,7 +25874,6 @@
       <c r="K746" s="13"/>
       <c r="L746" s="13"/>
       <c r="M746" s="13"/>
-      <c r="N746" s="13"/>
     </row>
     <row r="747">
       <c r="A747" s="13"/>
@@ -26701,7 +25889,6 @@
       <c r="K747" s="13"/>
       <c r="L747" s="13"/>
       <c r="M747" s="13"/>
-      <c r="N747" s="13"/>
     </row>
     <row r="748">
       <c r="A748" s="13"/>
@@ -26717,7 +25904,6 @@
       <c r="K748" s="13"/>
       <c r="L748" s="13"/>
       <c r="M748" s="13"/>
-      <c r="N748" s="13"/>
     </row>
     <row r="749">
       <c r="A749" s="13"/>
@@ -26733,7 +25919,6 @@
       <c r="K749" s="13"/>
       <c r="L749" s="13"/>
       <c r="M749" s="13"/>
-      <c r="N749" s="13"/>
     </row>
     <row r="750">
       <c r="A750" s="13"/>
@@ -26749,7 +25934,6 @@
       <c r="K750" s="13"/>
       <c r="L750" s="13"/>
       <c r="M750" s="13"/>
-      <c r="N750" s="13"/>
     </row>
     <row r="751">
       <c r="A751" s="13"/>
@@ -26765,7 +25949,6 @@
       <c r="K751" s="13"/>
       <c r="L751" s="13"/>
       <c r="M751" s="13"/>
-      <c r="N751" s="13"/>
     </row>
     <row r="752">
       <c r="A752" s="13"/>
@@ -26781,7 +25964,6 @@
       <c r="K752" s="13"/>
       <c r="L752" s="13"/>
       <c r="M752" s="13"/>
-      <c r="N752" s="13"/>
     </row>
     <row r="753">
       <c r="A753" s="13"/>
@@ -26797,7 +25979,6 @@
       <c r="K753" s="13"/>
       <c r="L753" s="13"/>
       <c r="M753" s="13"/>
-      <c r="N753" s="13"/>
     </row>
     <row r="754">
       <c r="A754" s="13"/>
@@ -26813,7 +25994,6 @@
       <c r="K754" s="13"/>
       <c r="L754" s="13"/>
       <c r="M754" s="13"/>
-      <c r="N754" s="13"/>
     </row>
     <row r="755">
       <c r="A755" s="13"/>
@@ -26829,7 +26009,6 @@
       <c r="K755" s="13"/>
       <c r="L755" s="13"/>
       <c r="M755" s="13"/>
-      <c r="N755" s="13"/>
     </row>
     <row r="756">
       <c r="A756" s="13"/>
@@ -26845,7 +26024,6 @@
       <c r="K756" s="13"/>
       <c r="L756" s="13"/>
       <c r="M756" s="13"/>
-      <c r="N756" s="13"/>
     </row>
     <row r="757">
       <c r="A757" s="13"/>
@@ -26861,7 +26039,6 @@
       <c r="K757" s="13"/>
       <c r="L757" s="13"/>
       <c r="M757" s="13"/>
-      <c r="N757" s="13"/>
     </row>
     <row r="758">
       <c r="A758" s="13"/>
@@ -26877,7 +26054,6 @@
       <c r="K758" s="13"/>
       <c r="L758" s="13"/>
       <c r="M758" s="13"/>
-      <c r="N758" s="13"/>
     </row>
     <row r="759">
       <c r="A759" s="13"/>
@@ -26893,7 +26069,6 @@
       <c r="K759" s="13"/>
       <c r="L759" s="13"/>
       <c r="M759" s="13"/>
-      <c r="N759" s="13"/>
     </row>
     <row r="760">
       <c r="A760" s="13"/>
@@ -26909,7 +26084,6 @@
       <c r="K760" s="13"/>
       <c r="L760" s="13"/>
       <c r="M760" s="13"/>
-      <c r="N760" s="13"/>
     </row>
     <row r="761">
       <c r="A761" s="13"/>
@@ -26925,7 +26099,6 @@
       <c r="K761" s="13"/>
       <c r="L761" s="13"/>
       <c r="M761" s="13"/>
-      <c r="N761" s="13"/>
     </row>
     <row r="762">
       <c r="A762" s="13"/>
@@ -26941,7 +26114,6 @@
       <c r="K762" s="13"/>
       <c r="L762" s="13"/>
       <c r="M762" s="13"/>
-      <c r="N762" s="13"/>
     </row>
     <row r="763">
       <c r="A763" s="13"/>
@@ -26957,7 +26129,6 @@
       <c r="K763" s="13"/>
       <c r="L763" s="13"/>
       <c r="M763" s="13"/>
-      <c r="N763" s="13"/>
     </row>
     <row r="764">
       <c r="A764" s="13"/>
@@ -26973,7 +26144,6 @@
       <c r="K764" s="13"/>
       <c r="L764" s="13"/>
       <c r="M764" s="13"/>
-      <c r="N764" s="13"/>
     </row>
     <row r="765">
       <c r="A765" s="13"/>
@@ -26989,7 +26159,6 @@
       <c r="K765" s="13"/>
       <c r="L765" s="13"/>
       <c r="M765" s="13"/>
-      <c r="N765" s="13"/>
     </row>
     <row r="766">
       <c r="A766" s="13"/>
@@ -27005,7 +26174,6 @@
       <c r="K766" s="13"/>
       <c r="L766" s="13"/>
       <c r="M766" s="13"/>
-      <c r="N766" s="13"/>
     </row>
     <row r="767">
       <c r="A767" s="13"/>
@@ -27021,7 +26189,6 @@
       <c r="K767" s="13"/>
       <c r="L767" s="13"/>
       <c r="M767" s="13"/>
-      <c r="N767" s="13"/>
     </row>
     <row r="768">
       <c r="A768" s="13"/>
@@ -27037,7 +26204,6 @@
       <c r="K768" s="13"/>
       <c r="L768" s="13"/>
       <c r="M768" s="13"/>
-      <c r="N768" s="13"/>
     </row>
     <row r="769">
       <c r="A769" s="13"/>
@@ -27053,7 +26219,6 @@
       <c r="K769" s="13"/>
       <c r="L769" s="13"/>
       <c r="M769" s="13"/>
-      <c r="N769" s="13"/>
     </row>
     <row r="770">
       <c r="A770" s="13"/>
@@ -27069,7 +26234,6 @@
       <c r="K770" s="13"/>
       <c r="L770" s="13"/>
       <c r="M770" s="13"/>
-      <c r="N770" s="13"/>
     </row>
     <row r="771">
       <c r="A771" s="13"/>
@@ -27085,7 +26249,6 @@
       <c r="K771" s="13"/>
       <c r="L771" s="13"/>
       <c r="M771" s="13"/>
-      <c r="N771" s="13"/>
     </row>
     <row r="772">
       <c r="A772" s="13"/>
@@ -27101,7 +26264,6 @@
       <c r="K772" s="13"/>
       <c r="L772" s="13"/>
       <c r="M772" s="13"/>
-      <c r="N772" s="13"/>
     </row>
     <row r="773">
       <c r="A773" s="13"/>
@@ -27117,7 +26279,6 @@
       <c r="K773" s="13"/>
       <c r="L773" s="13"/>
       <c r="M773" s="13"/>
-      <c r="N773" s="13"/>
     </row>
     <row r="774">
       <c r="A774" s="13"/>
@@ -27133,7 +26294,6 @@
       <c r="K774" s="13"/>
       <c r="L774" s="13"/>
       <c r="M774" s="13"/>
-      <c r="N774" s="13"/>
     </row>
     <row r="775">
       <c r="A775" s="13"/>
@@ -27149,7 +26309,6 @@
       <c r="K775" s="13"/>
       <c r="L775" s="13"/>
       <c r="M775" s="13"/>
-      <c r="N775" s="13"/>
     </row>
     <row r="776">
       <c r="A776" s="13"/>
@@ -27165,7 +26324,6 @@
       <c r="K776" s="13"/>
       <c r="L776" s="13"/>
       <c r="M776" s="13"/>
-      <c r="N776" s="13"/>
     </row>
     <row r="777">
       <c r="A777" s="13"/>
@@ -27181,7 +26339,6 @@
       <c r="K777" s="13"/>
       <c r="L777" s="13"/>
       <c r="M777" s="13"/>
-      <c r="N777" s="13"/>
     </row>
     <row r="778">
       <c r="A778" s="13"/>
@@ -27197,7 +26354,6 @@
       <c r="K778" s="13"/>
       <c r="L778" s="13"/>
       <c r="M778" s="13"/>
-      <c r="N778" s="13"/>
     </row>
     <row r="779">
       <c r="A779" s="13"/>
@@ -27213,7 +26369,6 @@
       <c r="K779" s="13"/>
       <c r="L779" s="13"/>
       <c r="M779" s="13"/>
-      <c r="N779" s="13"/>
     </row>
     <row r="780">
       <c r="A780" s="13"/>
@@ -27229,7 +26384,6 @@
       <c r="K780" s="13"/>
       <c r="L780" s="13"/>
       <c r="M780" s="13"/>
-      <c r="N780" s="13"/>
     </row>
     <row r="781">
       <c r="A781" s="13"/>
@@ -27245,7 +26399,6 @@
       <c r="K781" s="13"/>
       <c r="L781" s="13"/>
       <c r="M781" s="13"/>
-      <c r="N781" s="13"/>
     </row>
     <row r="782">
       <c r="A782" s="13"/>
@@ -27261,7 +26414,6 @@
       <c r="K782" s="13"/>
       <c r="L782" s="13"/>
       <c r="M782" s="13"/>
-      <c r="N782" s="13"/>
     </row>
     <row r="783">
       <c r="A783" s="13"/>
@@ -27277,7 +26429,6 @@
       <c r="K783" s="13"/>
       <c r="L783" s="13"/>
       <c r="M783" s="13"/>
-      <c r="N783" s="13"/>
     </row>
     <row r="784">
       <c r="A784" s="13"/>
@@ -27293,7 +26444,6 @@
       <c r="K784" s="13"/>
       <c r="L784" s="13"/>
       <c r="M784" s="13"/>
-      <c r="N784" s="13"/>
     </row>
     <row r="785">
       <c r="A785" s="13"/>
@@ -27309,7 +26459,6 @@
       <c r="K785" s="13"/>
       <c r="L785" s="13"/>
       <c r="M785" s="13"/>
-      <c r="N785" s="13"/>
     </row>
     <row r="786">
       <c r="A786" s="13"/>
@@ -27325,7 +26474,6 @@
       <c r="K786" s="13"/>
       <c r="L786" s="13"/>
       <c r="M786" s="13"/>
-      <c r="N786" s="13"/>
     </row>
     <row r="787">
       <c r="A787" s="13"/>
@@ -27341,7 +26489,6 @@
       <c r="K787" s="13"/>
       <c r="L787" s="13"/>
       <c r="M787" s="13"/>
-      <c r="N787" s="13"/>
     </row>
     <row r="788">
       <c r="A788" s="13"/>
@@ -27357,7 +26504,6 @@
       <c r="K788" s="13"/>
       <c r="L788" s="13"/>
       <c r="M788" s="13"/>
-      <c r="N788" s="13"/>
     </row>
     <row r="789">
       <c r="A789" s="13"/>
@@ -27373,7 +26519,6 @@
       <c r="K789" s="13"/>
       <c r="L789" s="13"/>
       <c r="M789" s="13"/>
-      <c r="N789" s="13"/>
     </row>
     <row r="790">
       <c r="A790" s="13"/>
@@ -27389,7 +26534,6 @@
       <c r="K790" s="13"/>
       <c r="L790" s="13"/>
       <c r="M790" s="13"/>
-      <c r="N790" s="13"/>
     </row>
     <row r="791">
       <c r="A791" s="13"/>
@@ -27405,7 +26549,6 @@
       <c r="K791" s="13"/>
       <c r="L791" s="13"/>
       <c r="M791" s="13"/>
-      <c r="N791" s="13"/>
     </row>
     <row r="792">
       <c r="A792" s="13"/>
@@ -27421,7 +26564,6 @@
       <c r="K792" s="13"/>
       <c r="L792" s="13"/>
       <c r="M792" s="13"/>
-      <c r="N792" s="13"/>
     </row>
     <row r="793">
       <c r="A793" s="13"/>
@@ -27437,7 +26579,6 @@
       <c r="K793" s="13"/>
       <c r="L793" s="13"/>
       <c r="M793" s="13"/>
-      <c r="N793" s="13"/>
     </row>
     <row r="794">
       <c r="A794" s="13"/>
@@ -27453,7 +26594,6 @@
       <c r="K794" s="13"/>
       <c r="L794" s="13"/>
       <c r="M794" s="13"/>
-      <c r="N794" s="13"/>
     </row>
     <row r="795">
       <c r="A795" s="13"/>
@@ -27469,7 +26609,6 @@
       <c r="K795" s="13"/>
       <c r="L795" s="13"/>
       <c r="M795" s="13"/>
-      <c r="N795" s="13"/>
     </row>
     <row r="796">
       <c r="A796" s="13"/>
@@ -27485,7 +26624,6 @@
       <c r="K796" s="13"/>
       <c r="L796" s="13"/>
       <c r="M796" s="13"/>
-      <c r="N796" s="13"/>
     </row>
     <row r="797">
       <c r="A797" s="13"/>
@@ -27501,7 +26639,6 @@
       <c r="K797" s="13"/>
       <c r="L797" s="13"/>
       <c r="M797" s="13"/>
-      <c r="N797" s="13"/>
     </row>
     <row r="798">
       <c r="A798" s="13"/>
@@ -27517,7 +26654,6 @@
       <c r="K798" s="13"/>
       <c r="L798" s="13"/>
       <c r="M798" s="13"/>
-      <c r="N798" s="13"/>
     </row>
     <row r="799">
       <c r="A799" s="13"/>
@@ -27533,7 +26669,6 @@
       <c r="K799" s="13"/>
       <c r="L799" s="13"/>
       <c r="M799" s="13"/>
-      <c r="N799" s="13"/>
     </row>
     <row r="800">
       <c r="A800" s="13"/>
@@ -27549,7 +26684,6 @@
       <c r="K800" s="13"/>
       <c r="L800" s="13"/>
       <c r="M800" s="13"/>
-      <c r="N800" s="13"/>
     </row>
     <row r="801">
       <c r="A801" s="13"/>
@@ -27565,7 +26699,6 @@
       <c r="K801" s="13"/>
       <c r="L801" s="13"/>
       <c r="M801" s="13"/>
-      <c r="N801" s="13"/>
     </row>
     <row r="802">
       <c r="A802" s="13"/>
@@ -27581,7 +26714,6 @@
       <c r="K802" s="13"/>
       <c r="L802" s="13"/>
       <c r="M802" s="13"/>
-      <c r="N802" s="13"/>
     </row>
     <row r="803">
       <c r="A803" s="13"/>
@@ -27597,7 +26729,6 @@
       <c r="K803" s="13"/>
       <c r="L803" s="13"/>
       <c r="M803" s="13"/>
-      <c r="N803" s="13"/>
     </row>
     <row r="804">
       <c r="A804" s="13"/>
@@ -27613,7 +26744,6 @@
       <c r="K804" s="13"/>
       <c r="L804" s="13"/>
       <c r="M804" s="13"/>
-      <c r="N804" s="13"/>
     </row>
     <row r="805">
       <c r="A805" s="13"/>
@@ -27629,7 +26759,6 @@
       <c r="K805" s="13"/>
       <c r="L805" s="13"/>
       <c r="M805" s="13"/>
-      <c r="N805" s="13"/>
     </row>
     <row r="806">
       <c r="A806" s="13"/>
@@ -27645,7 +26774,6 @@
       <c r="K806" s="13"/>
       <c r="L806" s="13"/>
       <c r="M806" s="13"/>
-      <c r="N806" s="13"/>
     </row>
     <row r="807">
       <c r="A807" s="13"/>
@@ -27661,7 +26789,6 @@
       <c r="K807" s="13"/>
       <c r="L807" s="13"/>
       <c r="M807" s="13"/>
-      <c r="N807" s="13"/>
     </row>
     <row r="808">
       <c r="A808" s="13"/>
@@ -27677,7 +26804,6 @@
       <c r="K808" s="13"/>
       <c r="L808" s="13"/>
       <c r="M808" s="13"/>
-      <c r="N808" s="13"/>
     </row>
     <row r="809">
       <c r="A809" s="13"/>
@@ -27693,7 +26819,6 @@
       <c r="K809" s="13"/>
       <c r="L809" s="13"/>
       <c r="M809" s="13"/>
-      <c r="N809" s="13"/>
     </row>
     <row r="810">
       <c r="A810" s="13"/>
@@ -27709,7 +26834,6 @@
       <c r="K810" s="13"/>
       <c r="L810" s="13"/>
       <c r="M810" s="13"/>
-      <c r="N810" s="13"/>
     </row>
     <row r="811">
       <c r="A811" s="13"/>
@@ -27725,7 +26849,6 @@
       <c r="K811" s="13"/>
       <c r="L811" s="13"/>
       <c r="M811" s="13"/>
-      <c r="N811" s="13"/>
     </row>
     <row r="812">
       <c r="A812" s="13"/>
@@ -27741,7 +26864,6 @@
       <c r="K812" s="13"/>
       <c r="L812" s="13"/>
       <c r="M812" s="13"/>
-      <c r="N812" s="13"/>
     </row>
     <row r="813">
       <c r="A813" s="13"/>
@@ -27757,7 +26879,6 @@
       <c r="K813" s="13"/>
       <c r="L813" s="13"/>
       <c r="M813" s="13"/>
-      <c r="N813" s="13"/>
     </row>
     <row r="814">
       <c r="A814" s="13"/>
@@ -27773,7 +26894,6 @@
       <c r="K814" s="13"/>
       <c r="L814" s="13"/>
       <c r="M814" s="13"/>
-      <c r="N814" s="13"/>
     </row>
     <row r="815">
       <c r="A815" s="13"/>
@@ -27789,7 +26909,6 @@
       <c r="K815" s="13"/>
       <c r="L815" s="13"/>
       <c r="M815" s="13"/>
-      <c r="N815" s="13"/>
     </row>
     <row r="816">
       <c r="A816" s="13"/>
@@ -27805,7 +26924,6 @@
       <c r="K816" s="13"/>
       <c r="L816" s="13"/>
       <c r="M816" s="13"/>
-      <c r="N816" s="13"/>
     </row>
     <row r="817">
       <c r="A817" s="13"/>
@@ -27821,7 +26939,6 @@
       <c r="K817" s="13"/>
       <c r="L817" s="13"/>
       <c r="M817" s="13"/>
-      <c r="N817" s="13"/>
     </row>
     <row r="818">
       <c r="A818" s="13"/>
@@ -27837,7 +26954,6 @@
       <c r="K818" s="13"/>
       <c r="L818" s="13"/>
       <c r="M818" s="13"/>
-      <c r="N818" s="13"/>
     </row>
     <row r="819">
       <c r="A819" s="13"/>
@@ -27853,7 +26969,6 @@
       <c r="K819" s="13"/>
       <c r="L819" s="13"/>
       <c r="M819" s="13"/>
-      <c r="N819" s="13"/>
     </row>
     <row r="820">
       <c r="A820" s="13"/>
@@ -27869,7 +26984,6 @@
       <c r="K820" s="13"/>
       <c r="L820" s="13"/>
       <c r="M820" s="13"/>
-      <c r="N820" s="13"/>
     </row>
     <row r="821">
       <c r="A821" s="13"/>
@@ -27885,7 +26999,6 @@
       <c r="K821" s="13"/>
       <c r="L821" s="13"/>
       <c r="M821" s="13"/>
-      <c r="N821" s="13"/>
     </row>
     <row r="822">
       <c r="A822" s="13"/>
@@ -27901,7 +27014,6 @@
       <c r="K822" s="13"/>
       <c r="L822" s="13"/>
       <c r="M822" s="13"/>
-      <c r="N822" s="13"/>
     </row>
     <row r="823">
       <c r="A823" s="13"/>
@@ -27917,7 +27029,6 @@
       <c r="K823" s="13"/>
       <c r="L823" s="13"/>
       <c r="M823" s="13"/>
-      <c r="N823" s="13"/>
     </row>
     <row r="824">
       <c r="A824" s="13"/>
@@ -27933,7 +27044,6 @@
       <c r="K824" s="13"/>
       <c r="L824" s="13"/>
       <c r="M824" s="13"/>
-      <c r="N824" s="13"/>
     </row>
     <row r="825">
       <c r="A825" s="13"/>
@@ -27949,7 +27059,6 @@
       <c r="K825" s="13"/>
       <c r="L825" s="13"/>
       <c r="M825" s="13"/>
-      <c r="N825" s="13"/>
     </row>
     <row r="826">
       <c r="A826" s="13"/>
@@ -27965,7 +27074,6 @@
       <c r="K826" s="13"/>
       <c r="L826" s="13"/>
       <c r="M826" s="13"/>
-      <c r="N826" s="13"/>
     </row>
     <row r="827">
       <c r="A827" s="13"/>
@@ -27981,7 +27089,6 @@
       <c r="K827" s="13"/>
       <c r="L827" s="13"/>
       <c r="M827" s="13"/>
-      <c r="N827" s="13"/>
     </row>
     <row r="828">
       <c r="A828" s="13"/>
@@ -27997,7 +27104,6 @@
       <c r="K828" s="13"/>
       <c r="L828" s="13"/>
       <c r="M828" s="13"/>
-      <c r="N828" s="13"/>
     </row>
     <row r="829">
       <c r="A829" s="13"/>
@@ -28013,7 +27119,6 @@
       <c r="K829" s="13"/>
       <c r="L829" s="13"/>
       <c r="M829" s="13"/>
-      <c r="N829" s="13"/>
     </row>
     <row r="830">
       <c r="A830" s="13"/>
@@ -28029,7 +27134,6 @@
       <c r="K830" s="13"/>
       <c r="L830" s="13"/>
       <c r="M830" s="13"/>
-      <c r="N830" s="13"/>
     </row>
     <row r="831">
       <c r="A831" s="13"/>
@@ -28045,7 +27149,6 @@
       <c r="K831" s="13"/>
       <c r="L831" s="13"/>
       <c r="M831" s="13"/>
-      <c r="N831" s="13"/>
     </row>
     <row r="832">
       <c r="A832" s="13"/>
@@ -28061,7 +27164,6 @@
       <c r="K832" s="13"/>
       <c r="L832" s="13"/>
       <c r="M832" s="13"/>
-      <c r="N832" s="13"/>
     </row>
     <row r="833">
       <c r="A833" s="13"/>
@@ -28077,7 +27179,6 @@
       <c r="K833" s="13"/>
       <c r="L833" s="13"/>
       <c r="M833" s="13"/>
-      <c r="N833" s="13"/>
     </row>
     <row r="834">
       <c r="A834" s="13"/>
@@ -28093,7 +27194,6 @@
       <c r="K834" s="13"/>
       <c r="L834" s="13"/>
       <c r="M834" s="13"/>
-      <c r="N834" s="13"/>
     </row>
     <row r="835">
       <c r="A835" s="13"/>
@@ -28109,7 +27209,6 @@
       <c r="K835" s="13"/>
       <c r="L835" s="13"/>
       <c r="M835" s="13"/>
-      <c r="N835" s="13"/>
     </row>
     <row r="836">
       <c r="A836" s="13"/>
@@ -28125,7 +27224,6 @@
       <c r="K836" s="13"/>
       <c r="L836" s="13"/>
       <c r="M836" s="13"/>
-      <c r="N836" s="13"/>
     </row>
     <row r="837">
       <c r="A837" s="13"/>
@@ -28141,7 +27239,6 @@
       <c r="K837" s="13"/>
       <c r="L837" s="13"/>
       <c r="M837" s="13"/>
-      <c r="N837" s="13"/>
     </row>
     <row r="838">
       <c r="A838" s="13"/>
@@ -28157,7 +27254,6 @@
       <c r="K838" s="13"/>
       <c r="L838" s="13"/>
       <c r="M838" s="13"/>
-      <c r="N838" s="13"/>
     </row>
     <row r="839">
       <c r="A839" s="13"/>
@@ -28173,7 +27269,6 @@
       <c r="K839" s="13"/>
       <c r="L839" s="13"/>
       <c r="M839" s="13"/>
-      <c r="N839" s="13"/>
     </row>
     <row r="840">
       <c r="A840" s="13"/>
@@ -28189,7 +27284,6 @@
       <c r="K840" s="13"/>
       <c r="L840" s="13"/>
       <c r="M840" s="13"/>
-      <c r="N840" s="13"/>
     </row>
     <row r="841">
       <c r="A841" s="13"/>
@@ -28205,7 +27299,6 @@
       <c r="K841" s="13"/>
       <c r="L841" s="13"/>
       <c r="M841" s="13"/>
-      <c r="N841" s="13"/>
     </row>
     <row r="842">
       <c r="A842" s="13"/>
@@ -28221,7 +27314,6 @@
       <c r="K842" s="13"/>
       <c r="L842" s="13"/>
       <c r="M842" s="13"/>
-      <c r="N842" s="13"/>
     </row>
     <row r="843">
       <c r="A843" s="13"/>
@@ -28237,7 +27329,6 @@
       <c r="K843" s="13"/>
       <c r="L843" s="13"/>
       <c r="M843" s="13"/>
-      <c r="N843" s="13"/>
     </row>
     <row r="844">
       <c r="A844" s="13"/>
@@ -28253,7 +27344,6 @@
       <c r="K844" s="13"/>
       <c r="L844" s="13"/>
       <c r="M844" s="13"/>
-      <c r="N844" s="13"/>
     </row>
     <row r="845">
       <c r="A845" s="13"/>
@@ -28269,7 +27359,6 @@
       <c r="K845" s="13"/>
       <c r="L845" s="13"/>
       <c r="M845" s="13"/>
-      <c r="N845" s="13"/>
     </row>
     <row r="846">
       <c r="A846" s="13"/>
@@ -28285,7 +27374,6 @@
       <c r="K846" s="13"/>
       <c r="L846" s="13"/>
       <c r="M846" s="13"/>
-      <c r="N846" s="13"/>
     </row>
     <row r="847">
       <c r="A847" s="13"/>
@@ -28301,7 +27389,6 @@
       <c r="K847" s="13"/>
       <c r="L847" s="13"/>
       <c r="M847" s="13"/>
-      <c r="N847" s="13"/>
     </row>
     <row r="848">
       <c r="A848" s="13"/>
@@ -28317,7 +27404,6 @@
       <c r="K848" s="13"/>
       <c r="L848" s="13"/>
       <c r="M848" s="13"/>
-      <c r="N848" s="13"/>
     </row>
     <row r="849">
       <c r="A849" s="13"/>
@@ -28333,7 +27419,6 @@
       <c r="K849" s="13"/>
       <c r="L849" s="13"/>
       <c r="M849" s="13"/>
-      <c r="N849" s="13"/>
     </row>
     <row r="850">
       <c r="A850" s="13"/>
@@ -28349,7 +27434,6 @@
       <c r="K850" s="13"/>
       <c r="L850" s="13"/>
       <c r="M850" s="13"/>
-      <c r="N850" s="13"/>
     </row>
     <row r="851">
       <c r="A851" s="13"/>
@@ -28365,7 +27449,6 @@
       <c r="K851" s="13"/>
       <c r="L851" s="13"/>
       <c r="M851" s="13"/>
-      <c r="N851" s="13"/>
     </row>
     <row r="852">
       <c r="A852" s="13"/>
@@ -28381,7 +27464,6 @@
       <c r="K852" s="13"/>
       <c r="L852" s="13"/>
       <c r="M852" s="13"/>
-      <c r="N852" s="13"/>
     </row>
     <row r="853">
       <c r="A853" s="13"/>
@@ -28397,7 +27479,6 @@
       <c r="K853" s="13"/>
       <c r="L853" s="13"/>
       <c r="M853" s="13"/>
-      <c r="N853" s="13"/>
     </row>
     <row r="854">
       <c r="A854" s="13"/>
@@ -28413,7 +27494,6 @@
       <c r="K854" s="13"/>
       <c r="L854" s="13"/>
       <c r="M854" s="13"/>
-      <c r="N854" s="13"/>
     </row>
     <row r="855">
       <c r="A855" s="13"/>
@@ -28429,7 +27509,6 @@
       <c r="K855" s="13"/>
       <c r="L855" s="13"/>
       <c r="M855" s="13"/>
-      <c r="N855" s="13"/>
     </row>
     <row r="856">
       <c r="A856" s="13"/>
@@ -28445,7 +27524,6 @@
       <c r="K856" s="13"/>
       <c r="L856" s="13"/>
       <c r="M856" s="13"/>
-      <c r="N856" s="13"/>
     </row>
     <row r="857">
       <c r="A857" s="13"/>
@@ -28461,7 +27539,6 @@
       <c r="K857" s="13"/>
       <c r="L857" s="13"/>
       <c r="M857" s="13"/>
-      <c r="N857" s="13"/>
     </row>
     <row r="858">
       <c r="A858" s="13"/>
@@ -28477,7 +27554,6 @@
       <c r="K858" s="13"/>
       <c r="L858" s="13"/>
       <c r="M858" s="13"/>
-      <c r="N858" s="13"/>
     </row>
     <row r="859">
       <c r="A859" s="13"/>
@@ -28493,7 +27569,6 @@
       <c r="K859" s="13"/>
       <c r="L859" s="13"/>
       <c r="M859" s="13"/>
-      <c r="N859" s="13"/>
     </row>
     <row r="860">
       <c r="A860" s="13"/>
@@ -28509,7 +27584,6 @@
       <c r="K860" s="13"/>
       <c r="L860" s="13"/>
       <c r="M860" s="13"/>
-      <c r="N860" s="13"/>
     </row>
     <row r="861">
       <c r="A861" s="13"/>
@@ -28525,7 +27599,6 @@
       <c r="K861" s="13"/>
       <c r="L861" s="13"/>
       <c r="M861" s="13"/>
-      <c r="N861" s="13"/>
     </row>
     <row r="862">
       <c r="A862" s="13"/>
@@ -28541,7 +27614,6 @@
       <c r="K862" s="13"/>
       <c r="L862" s="13"/>
       <c r="M862" s="13"/>
-      <c r="N862" s="13"/>
     </row>
     <row r="863">
       <c r="A863" s="13"/>
@@ -28557,7 +27629,6 @@
       <c r="K863" s="13"/>
       <c r="L863" s="13"/>
       <c r="M863" s="13"/>
-      <c r="N863" s="13"/>
     </row>
     <row r="864">
       <c r="A864" s="13"/>
@@ -28573,7 +27644,6 @@
       <c r="K864" s="13"/>
       <c r="L864" s="13"/>
       <c r="M864" s="13"/>
-      <c r="N864" s="13"/>
     </row>
     <row r="865">
       <c r="A865" s="13"/>
@@ -28589,7 +27659,6 @@
       <c r="K865" s="13"/>
       <c r="L865" s="13"/>
       <c r="M865" s="13"/>
-      <c r="N865" s="13"/>
     </row>
     <row r="866">
       <c r="A866" s="13"/>
@@ -28605,7 +27674,6 @@
       <c r="K866" s="13"/>
       <c r="L866" s="13"/>
       <c r="M866" s="13"/>
-      <c r="N866" s="13"/>
     </row>
     <row r="867">
       <c r="A867" s="13"/>
@@ -28621,7 +27689,6 @@
       <c r="K867" s="13"/>
       <c r="L867" s="13"/>
       <c r="M867" s="13"/>
-      <c r="N867" s="13"/>
     </row>
     <row r="868">
       <c r="A868" s="13"/>
@@ -28637,7 +27704,6 @@
       <c r="K868" s="13"/>
       <c r="L868" s="13"/>
       <c r="M868" s="13"/>
-      <c r="N868" s="13"/>
     </row>
     <row r="869">
       <c r="A869" s="13"/>
@@ -28653,7 +27719,6 @@
       <c r="K869" s="13"/>
       <c r="L869" s="13"/>
       <c r="M869" s="13"/>
-      <c r="N869" s="13"/>
     </row>
     <row r="870">
       <c r="A870" s="13"/>
@@ -28669,7 +27734,6 @@
       <c r="K870" s="13"/>
       <c r="L870" s="13"/>
       <c r="M870" s="13"/>
-      <c r="N870" s="13"/>
     </row>
     <row r="871">
       <c r="A871" s="13"/>
@@ -28685,7 +27749,6 @@
       <c r="K871" s="13"/>
       <c r="L871" s="13"/>
       <c r="M871" s="13"/>
-      <c r="N871" s="13"/>
     </row>
     <row r="872">
       <c r="A872" s="13"/>
@@ -28701,7 +27764,6 @@
       <c r="K872" s="13"/>
       <c r="L872" s="13"/>
       <c r="M872" s="13"/>
-      <c r="N872" s="13"/>
     </row>
     <row r="873">
       <c r="A873" s="13"/>
@@ -28717,7 +27779,6 @@
       <c r="K873" s="13"/>
       <c r="L873" s="13"/>
       <c r="M873" s="13"/>
-      <c r="N873" s="13"/>
     </row>
     <row r="874">
       <c r="A874" s="13"/>
@@ -28733,7 +27794,6 @@
       <c r="K874" s="13"/>
       <c r="L874" s="13"/>
       <c r="M874" s="13"/>
-      <c r="N874" s="13"/>
     </row>
     <row r="875">
       <c r="A875" s="13"/>
@@ -28749,7 +27809,6 @@
       <c r="K875" s="13"/>
       <c r="L875" s="13"/>
       <c r="M875" s="13"/>
-      <c r="N875" s="13"/>
     </row>
     <row r="876">
       <c r="A876" s="13"/>
@@ -28765,7 +27824,6 @@
       <c r="K876" s="13"/>
       <c r="L876" s="13"/>
       <c r="M876" s="13"/>
-      <c r="N876" s="13"/>
     </row>
     <row r="877">
       <c r="A877" s="13"/>
@@ -28781,7 +27839,6 @@
       <c r="K877" s="13"/>
       <c r="L877" s="13"/>
       <c r="M877" s="13"/>
-      <c r="N877" s="13"/>
     </row>
     <row r="878">
       <c r="A878" s="13"/>
@@ -28797,7 +27854,6 @@
       <c r="K878" s="13"/>
       <c r="L878" s="13"/>
       <c r="M878" s="13"/>
-      <c r="N878" s="13"/>
     </row>
     <row r="879">
       <c r="A879" s="13"/>
@@ -28813,7 +27869,6 @@
       <c r="K879" s="13"/>
       <c r="L879" s="13"/>
       <c r="M879" s="13"/>
-      <c r="N879" s="13"/>
     </row>
     <row r="880">
       <c r="A880" s="13"/>
@@ -28829,7 +27884,6 @@
       <c r="K880" s="13"/>
       <c r="L880" s="13"/>
       <c r="M880" s="13"/>
-      <c r="N880" s="13"/>
     </row>
     <row r="881">
       <c r="A881" s="13"/>
@@ -28845,7 +27899,6 @@
       <c r="K881" s="13"/>
       <c r="L881" s="13"/>
       <c r="M881" s="13"/>
-      <c r="N881" s="13"/>
     </row>
     <row r="882">
       <c r="A882" s="13"/>
@@ -28861,7 +27914,6 @@
       <c r="K882" s="13"/>
       <c r="L882" s="13"/>
       <c r="M882" s="13"/>
-      <c r="N882" s="13"/>
     </row>
     <row r="883">
       <c r="A883" s="13"/>
@@ -28877,7 +27929,6 @@
       <c r="K883" s="13"/>
       <c r="L883" s="13"/>
       <c r="M883" s="13"/>
-      <c r="N883" s="13"/>
     </row>
     <row r="884">
       <c r="A884" s="13"/>
@@ -28893,7 +27944,6 @@
       <c r="K884" s="13"/>
       <c r="L884" s="13"/>
       <c r="M884" s="13"/>
-      <c r="N884" s="13"/>
     </row>
     <row r="885">
       <c r="A885" s="13"/>
@@ -28909,7 +27959,6 @@
       <c r="K885" s="13"/>
       <c r="L885" s="13"/>
       <c r="M885" s="13"/>
-      <c r="N885" s="13"/>
     </row>
     <row r="886">
       <c r="A886" s="13"/>
@@ -28925,7 +27974,6 @@
       <c r="K886" s="13"/>
       <c r="L886" s="13"/>
       <c r="M886" s="13"/>
-      <c r="N886" s="13"/>
     </row>
     <row r="887">
       <c r="A887" s="13"/>
@@ -28941,7 +27989,6 @@
       <c r="K887" s="13"/>
       <c r="L887" s="13"/>
       <c r="M887" s="13"/>
-      <c r="N887" s="13"/>
     </row>
     <row r="888">
       <c r="A888" s="13"/>
@@ -28957,7 +28004,6 @@
       <c r="K888" s="13"/>
       <c r="L888" s="13"/>
       <c r="M888" s="13"/>
-      <c r="N888" s="13"/>
     </row>
     <row r="889">
       <c r="A889" s="13"/>
@@ -28973,7 +28019,6 @@
       <c r="K889" s="13"/>
       <c r="L889" s="13"/>
       <c r="M889" s="13"/>
-      <c r="N889" s="13"/>
     </row>
     <row r="890">
       <c r="A890" s="13"/>
@@ -28989,7 +28034,6 @@
       <c r="K890" s="13"/>
       <c r="L890" s="13"/>
       <c r="M890" s="13"/>
-      <c r="N890" s="13"/>
     </row>
     <row r="891">
       <c r="A891" s="13"/>
@@ -29005,7 +28049,6 @@
       <c r="K891" s="13"/>
       <c r="L891" s="13"/>
       <c r="M891" s="13"/>
-      <c r="N891" s="13"/>
     </row>
     <row r="892">
       <c r="A892" s="13"/>
@@ -29021,7 +28064,6 @@
       <c r="K892" s="13"/>
       <c r="L892" s="13"/>
       <c r="M892" s="13"/>
-      <c r="N892" s="13"/>
     </row>
     <row r="893">
       <c r="A893" s="13"/>
@@ -29037,7 +28079,6 @@
       <c r="K893" s="13"/>
       <c r="L893" s="13"/>
       <c r="M893" s="13"/>
-      <c r="N893" s="13"/>
     </row>
     <row r="894">
       <c r="A894" s="13"/>
@@ -29053,7 +28094,6 @@
       <c r="K894" s="13"/>
       <c r="L894" s="13"/>
       <c r="M894" s="13"/>
-      <c r="N894" s="13"/>
     </row>
     <row r="895">
       <c r="A895" s="13"/>
@@ -29069,7 +28109,6 @@
       <c r="K895" s="13"/>
       <c r="L895" s="13"/>
       <c r="M895" s="13"/>
-      <c r="N895" s="13"/>
     </row>
     <row r="896">
       <c r="A896" s="13"/>
@@ -29085,7 +28124,6 @@
       <c r="K896" s="13"/>
       <c r="L896" s="13"/>
       <c r="M896" s="13"/>
-      <c r="N896" s="13"/>
     </row>
     <row r="897">
       <c r="A897" s="13"/>
@@ -29101,7 +28139,6 @@
       <c r="K897" s="13"/>
       <c r="L897" s="13"/>
       <c r="M897" s="13"/>
-      <c r="N897" s="13"/>
     </row>
     <row r="898">
       <c r="A898" s="13"/>
@@ -29117,7 +28154,6 @@
       <c r="K898" s="13"/>
       <c r="L898" s="13"/>
       <c r="M898" s="13"/>
-      <c r="N898" s="13"/>
     </row>
     <row r="899">
       <c r="A899" s="13"/>
@@ -29133,7 +28169,6 @@
       <c r="K899" s="13"/>
       <c r="L899" s="13"/>
       <c r="M899" s="13"/>
-      <c r="N899" s="13"/>
     </row>
     <row r="900">
       <c r="A900" s="13"/>
@@ -29149,7 +28184,6 @@
       <c r="K900" s="13"/>
       <c r="L900" s="13"/>
       <c r="M900" s="13"/>
-      <c r="N900" s="13"/>
     </row>
     <row r="901">
       <c r="A901" s="13"/>
@@ -29165,7 +28199,6 @@
       <c r="K901" s="13"/>
       <c r="L901" s="13"/>
       <c r="M901" s="13"/>
-      <c r="N901" s="13"/>
     </row>
     <row r="902">
       <c r="A902" s="13"/>
@@ -29181,7 +28214,6 @@
       <c r="K902" s="13"/>
       <c r="L902" s="13"/>
       <c r="M902" s="13"/>
-      <c r="N902" s="13"/>
     </row>
     <row r="903">
       <c r="A903" s="13"/>
@@ -29197,7 +28229,6 @@
       <c r="K903" s="13"/>
       <c r="L903" s="13"/>
       <c r="M903" s="13"/>
-      <c r="N903" s="13"/>
     </row>
     <row r="904">
       <c r="A904" s="13"/>
@@ -29213,7 +28244,6 @@
       <c r="K904" s="13"/>
       <c r="L904" s="13"/>
       <c r="M904" s="13"/>
-      <c r="N904" s="13"/>
     </row>
     <row r="905">
       <c r="A905" s="13"/>
@@ -29229,7 +28259,6 @@
       <c r="K905" s="13"/>
       <c r="L905" s="13"/>
       <c r="M905" s="13"/>
-      <c r="N905" s="13"/>
     </row>
     <row r="906">
       <c r="A906" s="13"/>
@@ -29245,7 +28274,6 @@
       <c r="K906" s="13"/>
       <c r="L906" s="13"/>
       <c r="M906" s="13"/>
-      <c r="N906" s="13"/>
     </row>
     <row r="907">
       <c r="A907" s="13"/>
@@ -29261,7 +28289,6 @@
       <c r="K907" s="13"/>
       <c r="L907" s="13"/>
       <c r="M907" s="13"/>
-      <c r="N907" s="13"/>
     </row>
     <row r="908">
       <c r="A908" s="13"/>
@@ -29277,7 +28304,6 @@
       <c r="K908" s="13"/>
       <c r="L908" s="13"/>
       <c r="M908" s="13"/>
-      <c r="N908" s="13"/>
     </row>
     <row r="909">
       <c r="A909" s="13"/>
@@ -29293,7 +28319,6 @@
       <c r="K909" s="13"/>
       <c r="L909" s="13"/>
       <c r="M909" s="13"/>
-      <c r="N909" s="13"/>
     </row>
     <row r="910">
       <c r="A910" s="13"/>
@@ -29309,7 +28334,6 @@
       <c r="K910" s="13"/>
       <c r="L910" s="13"/>
       <c r="M910" s="13"/>
-      <c r="N910" s="13"/>
     </row>
     <row r="911">
       <c r="A911" s="13"/>
@@ -29325,7 +28349,6 @@
       <c r="K911" s="13"/>
       <c r="L911" s="13"/>
       <c r="M911" s="13"/>
-      <c r="N911" s="13"/>
     </row>
     <row r="912">
       <c r="A912" s="13"/>
@@ -29341,7 +28364,6 @@
       <c r="K912" s="13"/>
       <c r="L912" s="13"/>
       <c r="M912" s="13"/>
-      <c r="N912" s="13"/>
     </row>
     <row r="913">
       <c r="A913" s="13"/>
@@ -29357,7 +28379,6 @@
       <c r="K913" s="13"/>
       <c r="L913" s="13"/>
       <c r="M913" s="13"/>
-      <c r="N913" s="13"/>
     </row>
     <row r="914">
       <c r="A914" s="13"/>
@@ -29373,7 +28394,6 @@
       <c r="K914" s="13"/>
       <c r="L914" s="13"/>
       <c r="M914" s="13"/>
-      <c r="N914" s="13"/>
     </row>
     <row r="915">
       <c r="A915" s="13"/>
@@ -29389,7 +28409,6 @@
       <c r="K915" s="13"/>
       <c r="L915" s="13"/>
       <c r="M915" s="13"/>
-      <c r="N915" s="13"/>
     </row>
     <row r="916">
       <c r="A916" s="13"/>
@@ -29405,7 +28424,6 @@
       <c r="K916" s="13"/>
       <c r="L916" s="13"/>
       <c r="M916" s="13"/>
-      <c r="N916" s="13"/>
     </row>
     <row r="917">
       <c r="A917" s="13"/>
@@ -29421,7 +28439,6 @@
       <c r="K917" s="13"/>
       <c r="L917" s="13"/>
       <c r="M917" s="13"/>
-      <c r="N917" s="13"/>
     </row>
     <row r="918">
       <c r="A918" s="13"/>
@@ -29437,7 +28454,6 @@
       <c r="K918" s="13"/>
       <c r="L918" s="13"/>
       <c r="M918" s="13"/>
-      <c r="N918" s="13"/>
     </row>
     <row r="919">
       <c r="A919" s="13"/>
@@ -29453,7 +28469,6 @@
       <c r="K919" s="13"/>
       <c r="L919" s="13"/>
       <c r="M919" s="13"/>
-      <c r="N919" s="13"/>
     </row>
     <row r="920">
       <c r="A920" s="13"/>
@@ -29469,7 +28484,6 @@
       <c r="K920" s="13"/>
       <c r="L920" s="13"/>
       <c r="M920" s="13"/>
-      <c r="N920" s="13"/>
     </row>
     <row r="921">
       <c r="A921" s="13"/>
@@ -29485,7 +28499,6 @@
       <c r="K921" s="13"/>
       <c r="L921" s="13"/>
       <c r="M921" s="13"/>
-      <c r="N921" s="13"/>
     </row>
     <row r="922">
       <c r="A922" s="13"/>
@@ -29501,7 +28514,6 @@
       <c r="K922" s="13"/>
       <c r="L922" s="13"/>
       <c r="M922" s="13"/>
-      <c r="N922" s="13"/>
     </row>
     <row r="923">
       <c r="A923" s="13"/>
@@ -29517,7 +28529,6 @@
       <c r="K923" s="13"/>
       <c r="L923" s="13"/>
       <c r="M923" s="13"/>
-      <c r="N923" s="13"/>
     </row>
     <row r="924">
       <c r="A924" s="13"/>
@@ -29533,7 +28544,6 @@
       <c r="K924" s="13"/>
       <c r="L924" s="13"/>
       <c r="M924" s="13"/>
-      <c r="N924" s="13"/>
     </row>
     <row r="925">
       <c r="A925" s="13"/>
@@ -29549,7 +28559,6 @@
       <c r="K925" s="13"/>
       <c r="L925" s="13"/>
       <c r="M925" s="13"/>
-      <c r="N925" s="13"/>
     </row>
     <row r="926">
       <c r="A926" s="13"/>
@@ -29565,7 +28574,6 @@
       <c r="K926" s="13"/>
       <c r="L926" s="13"/>
       <c r="M926" s="13"/>
-      <c r="N926" s="13"/>
     </row>
     <row r="927">
       <c r="A927" s="13"/>
@@ -29581,7 +28589,6 @@
       <c r="K927" s="13"/>
       <c r="L927" s="13"/>
       <c r="M927" s="13"/>
-      <c r="N927" s="13"/>
     </row>
     <row r="928">
       <c r="A928" s="13"/>
@@ -29597,7 +28604,6 @@
       <c r="K928" s="13"/>
       <c r="L928" s="13"/>
       <c r="M928" s="13"/>
-      <c r="N928" s="13"/>
     </row>
     <row r="929">
       <c r="A929" s="13"/>
@@ -29613,7 +28619,6 @@
       <c r="K929" s="13"/>
       <c r="L929" s="13"/>
       <c r="M929" s="13"/>
-      <c r="N929" s="13"/>
     </row>
     <row r="930">
       <c r="A930" s="13"/>
@@ -29629,7 +28634,6 @@
       <c r="K930" s="13"/>
       <c r="L930" s="13"/>
       <c r="M930" s="13"/>
-      <c r="N930" s="13"/>
     </row>
     <row r="931">
       <c r="A931" s="13"/>
@@ -29645,7 +28649,6 @@
       <c r="K931" s="13"/>
       <c r="L931" s="13"/>
       <c r="M931" s="13"/>
-      <c r="N931" s="13"/>
     </row>
     <row r="932">
       <c r="A932" s="13"/>
@@ -29661,7 +28664,6 @@
       <c r="K932" s="13"/>
       <c r="L932" s="13"/>
       <c r="M932" s="13"/>
-      <c r="N932" s="13"/>
     </row>
     <row r="933">
       <c r="A933" s="13"/>
@@ -29677,7 +28679,6 @@
       <c r="K933" s="13"/>
       <c r="L933" s="13"/>
       <c r="M933" s="13"/>
-      <c r="N933" s="13"/>
     </row>
     <row r="934">
       <c r="A934" s="13"/>
@@ -29693,7 +28694,6 @@
       <c r="K934" s="13"/>
       <c r="L934" s="13"/>
       <c r="M934" s="13"/>
-      <c r="N934" s="13"/>
     </row>
     <row r="935">
       <c r="A935" s="13"/>
@@ -29709,7 +28709,6 @@
       <c r="K935" s="13"/>
       <c r="L935" s="13"/>
       <c r="M935" s="13"/>
-      <c r="N935" s="13"/>
     </row>
     <row r="936">
       <c r="A936" s="13"/>
@@ -29725,7 +28724,6 @@
       <c r="K936" s="13"/>
       <c r="L936" s="13"/>
       <c r="M936" s="13"/>
-      <c r="N936" s="13"/>
     </row>
     <row r="937">
       <c r="A937" s="13"/>
@@ -29741,7 +28739,6 @@
       <c r="K937" s="13"/>
       <c r="L937" s="13"/>
       <c r="M937" s="13"/>
-      <c r="N937" s="13"/>
     </row>
     <row r="938">
       <c r="A938" s="13"/>
@@ -29757,7 +28754,6 @@
       <c r="K938" s="13"/>
       <c r="L938" s="13"/>
       <c r="M938" s="13"/>
-      <c r="N938" s="13"/>
     </row>
     <row r="939">
       <c r="A939" s="13"/>
@@ -29773,7 +28769,6 @@
       <c r="K939" s="13"/>
       <c r="L939" s="13"/>
       <c r="M939" s="13"/>
-      <c r="N939" s="13"/>
     </row>
     <row r="940">
       <c r="A940" s="13"/>
@@ -29789,7 +28784,6 @@
       <c r="K940" s="13"/>
       <c r="L940" s="13"/>
       <c r="M940" s="13"/>
-      <c r="N940" s="13"/>
     </row>
     <row r="941">
       <c r="A941" s="13"/>
@@ -29805,7 +28799,6 @@
       <c r="K941" s="13"/>
       <c r="L941" s="13"/>
       <c r="M941" s="13"/>
-      <c r="N941" s="13"/>
     </row>
     <row r="942">
       <c r="A942" s="13"/>
@@ -29821,7 +28814,6 @@
       <c r="K942" s="13"/>
       <c r="L942" s="13"/>
       <c r="M942" s="13"/>
-      <c r="N942" s="13"/>
     </row>
     <row r="943">
       <c r="A943" s="13"/>
@@ -29837,7 +28829,6 @@
       <c r="K943" s="13"/>
       <c r="L943" s="13"/>
       <c r="M943" s="13"/>
-      <c r="N943" s="13"/>
     </row>
     <row r="944">
       <c r="A944" s="13"/>
@@ -29853,7 +28844,6 @@
       <c r="K944" s="13"/>
       <c r="L944" s="13"/>
       <c r="M944" s="13"/>
-      <c r="N944" s="13"/>
     </row>
     <row r="945">
       <c r="A945" s="13"/>
@@ -29869,7 +28859,6 @@
       <c r="K945" s="13"/>
       <c r="L945" s="13"/>
       <c r="M945" s="13"/>
-      <c r="N945" s="13"/>
     </row>
     <row r="946">
       <c r="A946" s="13"/>
@@ -29885,7 +28874,6 @@
       <c r="K946" s="13"/>
       <c r="L946" s="13"/>
       <c r="M946" s="13"/>
-      <c r="N946" s="13"/>
     </row>
     <row r="947">
       <c r="A947" s="13"/>
@@ -29901,7 +28889,6 @@
       <c r="K947" s="13"/>
       <c r="L947" s="13"/>
       <c r="M947" s="13"/>
-      <c r="N947" s="13"/>
     </row>
     <row r="948">
       <c r="A948" s="13"/>
@@ -29917,7 +28904,6 @@
       <c r="K948" s="13"/>
       <c r="L948" s="13"/>
       <c r="M948" s="13"/>
-      <c r="N948" s="13"/>
     </row>
     <row r="949">
       <c r="A949" s="13"/>
@@ -29933,7 +28919,6 @@
       <c r="K949" s="13"/>
       <c r="L949" s="13"/>
       <c r="M949" s="13"/>
-      <c r="N949" s="13"/>
     </row>
     <row r="950">
       <c r="A950" s="13"/>
@@ -29949,7 +28934,6 @@
       <c r="K950" s="13"/>
       <c r="L950" s="13"/>
       <c r="M950" s="13"/>
-      <c r="N950" s="13"/>
     </row>
     <row r="951">
       <c r="A951" s="13"/>
@@ -29965,7 +28949,6 @@
       <c r="K951" s="13"/>
       <c r="L951" s="13"/>
       <c r="M951" s="13"/>
-      <c r="N951" s="13"/>
     </row>
     <row r="952">
       <c r="A952" s="13"/>
@@ -29981,7 +28964,6 @@
       <c r="K952" s="13"/>
       <c r="L952" s="13"/>
       <c r="M952" s="13"/>
-      <c r="N952" s="13"/>
     </row>
     <row r="953">
       <c r="A953" s="13"/>
@@ -29997,7 +28979,6 @@
       <c r="K953" s="13"/>
       <c r="L953" s="13"/>
       <c r="M953" s="13"/>
-      <c r="N953" s="13"/>
     </row>
     <row r="954">
       <c r="A954" s="13"/>
@@ -30013,7 +28994,6 @@
       <c r="K954" s="13"/>
       <c r="L954" s="13"/>
       <c r="M954" s="13"/>
-      <c r="N954" s="13"/>
     </row>
     <row r="955">
       <c r="A955" s="13"/>
@@ -30029,7 +29009,6 @@
       <c r="K955" s="13"/>
       <c r="L955" s="13"/>
       <c r="M955" s="13"/>
-      <c r="N955" s="13"/>
     </row>
     <row r="956">
       <c r="A956" s="13"/>
@@ -30045,7 +29024,6 @@
       <c r="K956" s="13"/>
       <c r="L956" s="13"/>
       <c r="M956" s="13"/>
-      <c r="N956" s="13"/>
     </row>
     <row r="957">
       <c r="A957" s="13"/>
@@ -30061,7 +29039,6 @@
       <c r="K957" s="13"/>
       <c r="L957" s="13"/>
       <c r="M957" s="13"/>
-      <c r="N957" s="13"/>
     </row>
     <row r="958">
       <c r="A958" s="13"/>
@@ -30077,7 +29054,6 @@
       <c r="K958" s="13"/>
       <c r="L958" s="13"/>
       <c r="M958" s="13"/>
-      <c r="N958" s="13"/>
     </row>
     <row r="959">
       <c r="A959" s="13"/>
@@ -30093,7 +29069,6 @@
       <c r="K959" s="13"/>
       <c r="L959" s="13"/>
       <c r="M959" s="13"/>
-      <c r="N959" s="13"/>
     </row>
     <row r="960">
       <c r="A960" s="13"/>
@@ -30109,7 +29084,6 @@
       <c r="K960" s="13"/>
       <c r="L960" s="13"/>
       <c r="M960" s="13"/>
-      <c r="N960" s="13"/>
     </row>
     <row r="961">
       <c r="A961" s="13"/>
@@ -30125,7 +29099,6 @@
       <c r="K961" s="13"/>
       <c r="L961" s="13"/>
       <c r="M961" s="13"/>
-      <c r="N961" s="13"/>
     </row>
     <row r="962">
       <c r="A962" s="13"/>
@@ -30141,7 +29114,6 @@
       <c r="K962" s="13"/>
       <c r="L962" s="13"/>
       <c r="M962" s="13"/>
-      <c r="N962" s="13"/>
     </row>
     <row r="963">
       <c r="A963" s="13"/>
@@ -30157,7 +29129,6 @@
       <c r="K963" s="13"/>
       <c r="L963" s="13"/>
       <c r="M963" s="13"/>
-      <c r="N963" s="13"/>
     </row>
     <row r="964">
       <c r="A964" s="13"/>
@@ -30173,7 +29144,6 @@
       <c r="K964" s="13"/>
       <c r="L964" s="13"/>
       <c r="M964" s="13"/>
-      <c r="N964" s="13"/>
     </row>
     <row r="965">
       <c r="A965" s="13"/>
@@ -30189,7 +29159,6 @@
       <c r="K965" s="13"/>
       <c r="L965" s="13"/>
       <c r="M965" s="13"/>
-      <c r="N965" s="13"/>
     </row>
     <row r="966">
       <c r="A966" s="13"/>
@@ -30205,7 +29174,6 @@
       <c r="K966" s="13"/>
       <c r="L966" s="13"/>
       <c r="M966" s="13"/>
-      <c r="N966" s="13"/>
     </row>
     <row r="967">
       <c r="A967" s="13"/>
@@ -30221,7 +29189,6 @@
       <c r="K967" s="13"/>
       <c r="L967" s="13"/>
       <c r="M967" s="13"/>
-      <c r="N967" s="13"/>
     </row>
     <row r="968">
       <c r="A968" s="13"/>
@@ -30237,7 +29204,6 @@
       <c r="K968" s="13"/>
       <c r="L968" s="13"/>
       <c r="M968" s="13"/>
-      <c r="N968" s="13"/>
     </row>
     <row r="969">
       <c r="A969" s="13"/>
@@ -30253,7 +29219,6 @@
       <c r="K969" s="13"/>
       <c r="L969" s="13"/>
       <c r="M969" s="13"/>
-      <c r="N969" s="13"/>
     </row>
     <row r="970">
       <c r="A970" s="13"/>
@@ -30269,7 +29234,6 @@
       <c r="K970" s="13"/>
       <c r="L970" s="13"/>
       <c r="M970" s="13"/>
-      <c r="N970" s="13"/>
     </row>
     <row r="971">
       <c r="A971" s="13"/>
@@ -30285,7 +29249,6 @@
       <c r="K971" s="13"/>
       <c r="L971" s="13"/>
       <c r="M971" s="13"/>
-      <c r="N971" s="13"/>
     </row>
     <row r="972">
       <c r="A972" s="13"/>
@@ -30301,7 +29264,6 @@
       <c r="K972" s="13"/>
       <c r="L972" s="13"/>
       <c r="M972" s="13"/>
-      <c r="N972" s="13"/>
     </row>
     <row r="973">
       <c r="A973" s="13"/>
@@ -30317,7 +29279,6 @@
       <c r="K973" s="13"/>
       <c r="L973" s="13"/>
       <c r="M973" s="13"/>
-      <c r="N973" s="13"/>
     </row>
     <row r="974">
       <c r="A974" s="13"/>
@@ -30333,7 +29294,6 @@
       <c r="K974" s="13"/>
       <c r="L974" s="13"/>
       <c r="M974" s="13"/>
-      <c r="N974" s="13"/>
     </row>
     <row r="975">
       <c r="A975" s="13"/>
@@ -30349,7 +29309,6 @@
       <c r="K975" s="13"/>
       <c r="L975" s="13"/>
       <c r="M975" s="13"/>
-      <c r="N975" s="13"/>
     </row>
     <row r="976">
       <c r="A976" s="13"/>
@@ -30365,7 +29324,6 @@
       <c r="K976" s="13"/>
       <c r="L976" s="13"/>
       <c r="M976" s="13"/>
-      <c r="N976" s="13"/>
     </row>
     <row r="977">
       <c r="A977" s="13"/>
@@ -30381,7 +29339,6 @@
       <c r="K977" s="13"/>
       <c r="L977" s="13"/>
       <c r="M977" s="13"/>
-      <c r="N977" s="13"/>
     </row>
     <row r="978">
       <c r="A978" s="13"/>
@@ -30397,7 +29354,6 @@
       <c r="K978" s="13"/>
       <c r="L978" s="13"/>
       <c r="M978" s="13"/>
-      <c r="N978" s="13"/>
     </row>
     <row r="979">
       <c r="A979" s="13"/>
@@ -30413,7 +29369,6 @@
       <c r="K979" s="13"/>
       <c r="L979" s="13"/>
       <c r="M979" s="13"/>
-      <c r="N979" s="13"/>
     </row>
     <row r="980">
       <c r="A980" s="13"/>
@@ -30429,7 +29384,6 @@
       <c r="K980" s="13"/>
       <c r="L980" s="13"/>
       <c r="M980" s="13"/>
-      <c r="N980" s="13"/>
     </row>
     <row r="981">
       <c r="A981" s="13"/>
@@ -30445,7 +29399,6 @@
       <c r="K981" s="13"/>
       <c r="L981" s="13"/>
       <c r="M981" s="13"/>
-      <c r="N981" s="13"/>
     </row>
     <row r="982">
       <c r="A982" s="13"/>
@@ -30461,7 +29414,6 @@
       <c r="K982" s="13"/>
       <c r="L982" s="13"/>
       <c r="M982" s="13"/>
-      <c r="N982" s="13"/>
     </row>
     <row r="983">
       <c r="A983" s="13"/>
@@ -30477,7 +29429,6 @@
       <c r="K983" s="13"/>
       <c r="L983" s="13"/>
       <c r="M983" s="13"/>
-      <c r="N983" s="13"/>
     </row>
     <row r="984">
       <c r="A984" s="13"/>
@@ -30493,7 +29444,6 @@
       <c r="K984" s="13"/>
       <c r="L984" s="13"/>
       <c r="M984" s="13"/>
-      <c r="N984" s="13"/>
     </row>
     <row r="985">
       <c r="A985" s="13"/>
@@ -30509,7 +29459,6 @@
       <c r="K985" s="13"/>
       <c r="L985" s="13"/>
       <c r="M985" s="13"/>
-      <c r="N985" s="13"/>
     </row>
     <row r="986">
       <c r="A986" s="13"/>
@@ -30525,7 +29474,6 @@
       <c r="K986" s="13"/>
       <c r="L986" s="13"/>
       <c r="M986" s="13"/>
-      <c r="N986" s="13"/>
     </row>
     <row r="987">
       <c r="A987" s="13"/>
@@ -30541,7 +29489,6 @@
       <c r="K987" s="13"/>
       <c r="L987" s="13"/>
       <c r="M987" s="13"/>
-      <c r="N987" s="13"/>
     </row>
     <row r="988">
       <c r="A988" s="13"/>
@@ -30557,7 +29504,6 @@
       <c r="K988" s="13"/>
       <c r="L988" s="13"/>
       <c r="M988" s="13"/>
-      <c r="N988" s="13"/>
     </row>
     <row r="989">
       <c r="A989" s="13"/>
@@ -30573,7 +29519,6 @@
       <c r="K989" s="13"/>
       <c r="L989" s="13"/>
       <c r="M989" s="13"/>
-      <c r="N989" s="13"/>
     </row>
     <row r="990">
       <c r="A990" s="13"/>
@@ -30589,7 +29534,6 @@
       <c r="K990" s="13"/>
       <c r="L990" s="13"/>
       <c r="M990" s="13"/>
-      <c r="N990" s="13"/>
     </row>
     <row r="991">
       <c r="A991" s="13"/>
@@ -30605,7 +29549,6 @@
       <c r="K991" s="13"/>
       <c r="L991" s="13"/>
       <c r="M991" s="13"/>
-      <c r="N991" s="13"/>
     </row>
     <row r="992">
       <c r="A992" s="13"/>
@@ -30621,7 +29564,6 @@
       <c r="K992" s="13"/>
       <c r="L992" s="13"/>
       <c r="M992" s="13"/>
-      <c r="N992" s="13"/>
     </row>
     <row r="993">
       <c r="A993" s="13"/>
@@ -30637,7 +29579,6 @@
       <c r="K993" s="13"/>
       <c r="L993" s="13"/>
       <c r="M993" s="13"/>
-      <c r="N993" s="13"/>
     </row>
     <row r="994">
       <c r="A994" s="13"/>
@@ -30653,7 +29594,6 @@
       <c r="K994" s="13"/>
       <c r="L994" s="13"/>
       <c r="M994" s="13"/>
-      <c r="N994" s="13"/>
     </row>
     <row r="995">
       <c r="A995" s="13"/>
@@ -30669,7 +29609,6 @@
       <c r="K995" s="13"/>
       <c r="L995" s="13"/>
       <c r="M995" s="13"/>
-      <c r="N995" s="13"/>
     </row>
     <row r="996">
       <c r="A996" s="13"/>
@@ -30685,26 +29624,9 @@
       <c r="K996" s="13"/>
       <c r="L996" s="13"/>
       <c r="M996" s="13"/>
-      <c r="N996" s="13"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="13"/>
-      <c r="B997" s="13"/>
-      <c r="C997" s="13"/>
-      <c r="D997" s="13"/>
-      <c r="E997" s="13"/>
-      <c r="F997" s="13"/>
-      <c r="G997" s="13"/>
-      <c r="H997" s="13"/>
-      <c r="I997" s="13"/>
-      <c r="J997" s="13"/>
-      <c r="K997" s="13"/>
-      <c r="L997" s="13"/>
-      <c r="M997" s="13"/>
-      <c r="N997" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$N$1000"/>
+  <autoFilter ref="$A$1:$M$999"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
@@ -30714,8 +29636,7 @@
     <hyperlink r:id="rId6" ref="A7"/>
     <hyperlink r:id="rId7" ref="A8"/>
     <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>